--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -1892,11 +1892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3490,19 +3490,23 @@
       <c r="C18" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="15">
+        <v>180</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.89100000000000001</v>
+      </c>
       <c r="F18" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="G18" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>160.38</v>
       </c>
       <c r="H18" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="9"/>
@@ -3514,20 +3518,20 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L18" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>160.38</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="55">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="O18" s="55">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="P18" s="17">
         <v>1</v>
@@ -3586,19 +3590,23 @@
       <c r="C19" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="15">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.89100000000000001</v>
+      </c>
       <c r="F19" s="51">
         <f t="shared" ref="F19:F21" si="114">E19/C19</f>
-        <v>0</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="G19" s="52">
         <f t="shared" ref="G19:G21" si="115">E19*D19</f>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="H19" s="50">
         <f t="shared" ref="H19:H21" si="116">C19*D19</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="I19" s="24">
         <f t="shared" si="9"/>
@@ -3610,20 +3618,20 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" ref="K19:K21" si="118">D19-I19</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L19" s="125">
         <f t="shared" ref="L19:L33" si="119">K19*E19</f>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="M19" s="20"/>
       <c r="N19" s="55">
         <f t="shared" ref="N19:N21" si="120">P19+D19</f>
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="O19" s="55">
         <f t="shared" ref="O19:O35" si="121">N19-M19</f>
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P19" s="17">
         <v>11</v>
@@ -3682,19 +3690,23 @@
       <c r="C20" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="15">
+        <v>60</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.89100000000000001</v>
+      </c>
       <c r="F20" s="51">
         <f t="shared" ref="F20" si="122">E20/C20</f>
-        <v>0</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="G20" s="52">
         <f t="shared" ref="G20" si="123">E20*D20</f>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="H20" s="50">
         <f t="shared" ref="H20" si="124">C20*D20</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="125">IF(O20&gt;P20,D20-O20+P20,D20)</f>
@@ -3706,20 +3718,20 @@
       </c>
       <c r="K20" s="54">
         <f t="shared" ref="K20" si="127">D20-I20</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L20" s="125">
         <f t="shared" ref="L20:L32" si="128">K20*E20</f>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="55">
         <f t="shared" ref="N20" si="129">P20+D20</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="O20" s="55">
         <f t="shared" ref="O20" si="130">N20-M20</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="P20" s="17">
         <v>34</v>
@@ -8865,7 +8877,7 @@
       <c r="F74" s="51"/>
       <c r="G74" s="60">
         <f>SUM(G3:G73)</f>
-        <v>0</v>
+        <v>267.3</v>
       </c>
       <c r="H74" s="50"/>
       <c r="I74" s="61"/>
@@ -8876,7 +8888,7 @@
       <c r="K74" s="63"/>
       <c r="L74" s="64">
         <f>SUM(L3:L73)</f>
-        <v>0</v>
+        <v>267.3</v>
       </c>
       <c r="M74" s="65"/>
       <c r="N74" s="66"/>
@@ -9053,7 +9065,7 @@
       </c>
       <c r="L80" s="75">
         <f>L74+U74</f>
-        <v>533.829857855</v>
+        <v>801.12985785499995</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
@@ -9183,7 +9195,7 @@
       </c>
       <c r="K85" s="81">
         <f>+G74</f>
-        <v>0</v>
+        <v>267.3</v>
       </c>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
@@ -9207,7 +9219,7 @@
       </c>
       <c r="K86" s="83">
         <f>-L80</f>
-        <v>-533.829857855</v>
+        <v>-801.12985785499995</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9231,7 +9243,7 @@
       </c>
       <c r="K87" s="81">
         <f>K84+K85+K86</f>
-        <v>1.4214500004072761E-4</v>
+        <v>1.4214500015441445E-4</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -9693,11 +9705,11 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G74</f>
-        <v>0</v>
+        <v>267.3</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L80</f>
-        <v>533.829857855</v>
+        <v>801.12985785499995</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K80</f>
@@ -9766,11 +9778,11 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>0</v>
+        <v>267.3</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L74</f>
-        <v>0</v>
+        <v>267.3</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
@@ -9822,7 +9834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10245,7 +10257,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="117">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="F15" s="118">
         <f t="shared" si="0"/>
@@ -10273,7 +10285,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="117">
         <f>'Festkosten-Depotwert'!P19+'Festkosten-Depotwert'!D19</f>
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F16" s="118">
         <f t="shared" si="0"/>
@@ -10301,7 +10313,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="117">
         <f>'Festkosten-Depotwert'!P20+'Festkosten-Depotwert'!D20</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F17" s="118">
         <f t="shared" si="0"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="166">
   <si>
     <t>Marke</t>
   </si>
@@ -577,10 +577,7 @@
     <t>Glarea Nox 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;----- Beim Wein checken was da ist (sind vor einiger Zeit einige Flaschen zu Bruch gegangen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;----- bzw. beim Punschstand wurden einige Flaschen eingelagert</t>
+    <t>&lt;-- beim Wein Bestand checken</t>
   </si>
 </sst>
 </file>
@@ -1892,11 +1889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2050,19 +2047,23 @@
       <c r="C3" s="57">
         <v>0.7</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="15">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16">
+        <v>7.4922219999999999</v>
+      </c>
       <c r="F3" s="51">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>10.703174285714287</v>
       </c>
       <c r="G3" s="52">
         <f>E3*D3</f>
-        <v>0</v>
+        <v>134.859996</v>
       </c>
       <c r="H3" s="50">
         <f t="shared" ref="H3" si="0">C3*D3</f>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="I3" s="24">
         <f>IF(O3&gt;P3,D3-O3+P3,D3)</f>
@@ -2074,20 +2075,20 @@
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3" si="1">D3-I3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L3" s="125">
         <f t="shared" ref="L3" si="2">K3*E3</f>
-        <v>0</v>
+        <v>134.859996</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="55">
         <f>P3+D3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" s="55">
         <f>N3-M3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P3" s="17">
         <v>0</v>
@@ -8877,7 +8878,7 @@
       <c r="F74" s="51"/>
       <c r="G74" s="60">
         <f>SUM(G3:G73)</f>
-        <v>267.3</v>
+        <v>402.15999599999998</v>
       </c>
       <c r="H74" s="50"/>
       <c r="I74" s="61"/>
@@ -8888,7 +8889,7 @@
       <c r="K74" s="63"/>
       <c r="L74" s="64">
         <f>SUM(L3:L73)</f>
-        <v>267.3</v>
+        <v>402.15999599999998</v>
       </c>
       <c r="M74" s="65"/>
       <c r="N74" s="66"/>
@@ -9065,7 +9066,7 @@
       </c>
       <c r="L80" s="75">
         <f>L74+U74</f>
-        <v>801.12985785499995</v>
+        <v>935.98985385499998</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
@@ -9195,7 +9196,7 @@
       </c>
       <c r="K85" s="81">
         <f>+G74</f>
-        <v>267.3</v>
+        <v>402.15999599999998</v>
       </c>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
@@ -9219,7 +9220,7 @@
       </c>
       <c r="K86" s="83">
         <f>-L80</f>
-        <v>-801.12985785499995</v>
+        <v>-935.98985385499998</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9243,7 +9244,7 @@
       </c>
       <c r="K87" s="81">
         <f>K84+K85+K86</f>
-        <v>1.4214500015441445E-4</v>
+        <v>1.4214500004072761E-4</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -9705,11 +9706,11 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G74</f>
-        <v>267.3</v>
+        <v>402.15999599999998</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L80</f>
-        <v>801.12985785499995</v>
+        <v>935.98985385499998</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K80</f>
@@ -9778,11 +9779,11 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>267.3</v>
+        <v>402.15999599999998</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L74</f>
-        <v>267.3</v>
+        <v>402.15999599999998</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
@@ -9834,11 +9835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9890,10 +9891,12 @@
       <c r="C2" s="50">
         <v>0.7</v>
       </c>
-      <c r="D2" s="124"/>
+      <c r="D2" s="124">
+        <v>18</v>
+      </c>
       <c r="E2" s="117">
         <f>'Festkosten-Depotwert'!P3+'Festkosten-Depotwert'!D3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2" s="118">
         <f>IF(E2&lt;D2,D2-E2,0)</f>
@@ -9905,7 +9908,7 @@
       </c>
       <c r="H2" s="49">
         <f>D2*C2</f>
-        <v>0</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9918,22 +9921,24 @@
       <c r="C3" s="50">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15">
+        <v>15</v>
+      </c>
       <c r="E3" s="117">
         <f>'Festkosten-Depotwert'!P5+'Festkosten-Depotwert'!D5</f>
         <v>0</v>
       </c>
       <c r="F3" s="118">
         <f t="shared" ref="F3:F69" si="0">IF(E3&lt;D3,D3-E3,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3" s="120">
         <f t="shared" ref="G3:G69" si="1">F3*C3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H3" s="49">
         <f t="shared" ref="H3:H69" si="2">D3*C3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10002,22 +10007,24 @@
       <c r="C6" s="50">
         <v>0.7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15">
+        <v>25</v>
+      </c>
       <c r="E6" s="117">
         <f>'Festkosten-Depotwert'!P8+'Festkosten-Depotwert'!D8</f>
         <v>0</v>
       </c>
       <c r="F6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G6" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H6" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10030,22 +10037,24 @@
       <c r="C7" s="50">
         <v>0.7</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15">
+        <v>7</v>
+      </c>
       <c r="E7" s="117">
         <f>'Festkosten-Depotwert'!P9+'Festkosten-Depotwert'!D9</f>
         <v>2</v>
       </c>
       <c r="F7" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H7" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8999999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10058,7 +10067,9 @@
       <c r="C8" s="50">
         <v>0.7</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
       <c r="E8" s="117">
         <f>'Festkosten-Depotwert'!P10+'Festkosten-Depotwert'!D10</f>
         <v>6.5</v>
@@ -10073,7 +10084,7 @@
       </c>
       <c r="H8" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10086,22 +10097,24 @@
       <c r="C9" s="50">
         <v>0.7</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15">
+        <v>15</v>
+      </c>
       <c r="E9" s="117">
         <f>'Festkosten-Depotwert'!P11+'Festkosten-Depotwert'!D11</f>
         <v>0.75</v>
       </c>
       <c r="F9" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="G9" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9749999999999996</v>
       </c>
       <c r="H9" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -10142,22 +10155,24 @@
       <c r="C11" s="50">
         <v>0.7</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>25</v>
+      </c>
       <c r="E11" s="117">
         <f>'Festkosten-Depotwert'!P13+'Festkosten-Depotwert'!D13</f>
         <v>0</v>
       </c>
       <c r="F11" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G11" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H11" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10198,22 +10213,24 @@
       <c r="C13" s="50">
         <v>0.7</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>6</v>
+      </c>
       <c r="E13" s="117">
         <f>'Festkosten-Depotwert'!P16+'Festkosten-Depotwert'!D16</f>
         <v>3</v>
       </c>
       <c r="F13" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="H13" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10226,7 +10243,9 @@
       <c r="C14" s="50">
         <v>0.7</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
       <c r="E14" s="117">
         <f>'Festkosten-Depotwert'!P17+'Festkosten-Depotwert'!D17</f>
         <v>2</v>
@@ -10241,7 +10260,7 @@
       </c>
       <c r="H14" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10254,7 +10273,9 @@
       <c r="C15" s="50">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>180</v>
+      </c>
       <c r="E15" s="117">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
         <v>181</v>
@@ -10269,7 +10290,7 @@
       </c>
       <c r="H15" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49.500000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10282,7 +10303,9 @@
       <c r="C16" s="50">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15">
+        <v>60</v>
+      </c>
       <c r="E16" s="117">
         <f>'Festkosten-Depotwert'!P19+'Festkosten-Depotwert'!D19</f>
         <v>71</v>
@@ -10297,7 +10320,7 @@
       </c>
       <c r="H16" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10310,7 +10333,9 @@
       <c r="C17" s="50">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15">
+        <v>60</v>
+      </c>
       <c r="E17" s="117">
         <f>'Festkosten-Depotwert'!P20+'Festkosten-Depotwert'!D20</f>
         <v>94</v>
@@ -10325,7 +10350,7 @@
       </c>
       <c r="H17" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -10338,22 +10363,24 @@
       <c r="C18" s="50">
         <v>0.7</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>4</v>
+      </c>
       <c r="E18" s="117">
         <f>'Festkosten-Depotwert'!P21+'Festkosten-Depotwert'!D21</f>
         <v>0</v>
       </c>
       <c r="F18" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H18" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10394,22 +10421,24 @@
       <c r="C20" s="50">
         <v>0.02</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15">
+        <v>300</v>
+      </c>
       <c r="E20" s="117">
         <f>'Festkosten-Depotwert'!P23+'Festkosten-Depotwert'!D23</f>
         <v>0</v>
       </c>
       <c r="F20" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -10478,7 +10507,9 @@
       <c r="C23" s="50">
         <v>2</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="117">
         <f>'Festkosten-Depotwert'!P26+'Festkosten-Depotwert'!D26</f>
         <v>0.5</v>
@@ -10493,7 +10524,7 @@
       </c>
       <c r="H23" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -10562,22 +10593,24 @@
       <c r="C26" s="50">
         <v>0.5</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>0.5</v>
+      </c>
       <c r="E26" s="117">
         <f>'Festkosten-Depotwert'!P29+'Festkosten-Depotwert'!D29</f>
         <v>0</v>
       </c>
       <c r="F26" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -10618,22 +10651,24 @@
       <c r="C28" s="50">
         <v>0.75</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15">
+        <v>6</v>
+      </c>
       <c r="E28" s="117">
         <f>'Festkosten-Depotwert'!P31+'Festkosten-Depotwert'!D31</f>
         <v>5</v>
       </c>
       <c r="F28" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H28" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10646,22 +10681,24 @@
       <c r="C29" s="50">
         <v>0.7</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15">
+        <v>4</v>
+      </c>
       <c r="E29" s="117">
         <f>'Festkosten-Depotwert'!P32+'Festkosten-Depotwert'!D32</f>
         <v>0</v>
       </c>
       <c r="F29" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H29" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10786,22 +10823,24 @@
       <c r="C34" s="50">
         <v>0.02</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15">
+        <v>150</v>
+      </c>
       <c r="E34" s="117">
         <f>'Festkosten-Depotwert'!P37+'Festkosten-Depotwert'!D37</f>
         <v>0</v>
       </c>
       <c r="F34" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G34" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -10842,22 +10881,24 @@
       <c r="C36" s="50">
         <v>0.75</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15">
+        <v>3</v>
+      </c>
       <c r="E36" s="117">
         <f>'Festkosten-Depotwert'!P39+'Festkosten-Depotwert'!D39</f>
         <v>2</v>
       </c>
       <c r="F36" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H36" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -10870,22 +10911,24 @@
       <c r="C37" s="50">
         <v>0.7</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15">
+        <v>8</v>
+      </c>
       <c r="E37" s="117">
         <f>'Festkosten-Depotwert'!P40+'Festkosten-Depotwert'!D40</f>
         <v>0</v>
       </c>
       <c r="F37" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H37" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,22 +10941,24 @@
       <c r="C38" s="50">
         <v>0.7</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
       <c r="E38" s="117">
         <f>'Festkosten-Depotwert'!P41+'Festkosten-Depotwert'!D41</f>
         <v>1.25</v>
       </c>
       <c r="F38" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G38" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2249999999999999</v>
       </c>
       <c r="H38" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -10954,22 +10999,24 @@
       <c r="C40" s="50">
         <v>0.5</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="15">
+        <v>4</v>
+      </c>
       <c r="E40" s="117">
         <f>'Festkosten-Depotwert'!P43+'Festkosten-Depotwert'!D43</f>
         <v>1</v>
       </c>
       <c r="F40" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H40" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -10982,22 +11029,24 @@
       <c r="C41" s="50">
         <v>0.7</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
       <c r="E41" s="117">
         <f>'Festkosten-Depotwert'!P44+'Festkosten-Depotwert'!D44</f>
         <v>0</v>
       </c>
       <c r="F41" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H41" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -11010,22 +11059,24 @@
       <c r="C42" s="50">
         <v>1</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="15">
+        <v>3</v>
+      </c>
       <c r="E42" s="117">
         <f>'Festkosten-Depotwert'!P45+'Festkosten-Depotwert'!D45</f>
         <v>1</v>
       </c>
       <c r="F42" s="118">
         <f t="shared" ref="F42" si="3">IF(E42&lt;D42,D42-E42,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="120">
         <f t="shared" ref="G42" si="4">F42*C42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="49">
         <f t="shared" ref="H42" si="5">D42*C42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -11038,22 +11089,24 @@
       <c r="C43" s="50">
         <v>1.5</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="15">
+        <v>42</v>
+      </c>
       <c r="E43" s="117">
         <f>'Festkosten-Depotwert'!P47+'Festkosten-Depotwert'!D47</f>
         <v>3</v>
       </c>
       <c r="F43" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G43" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="H43" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -11066,22 +11119,24 @@
       <c r="C44" s="50">
         <v>0.25</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="15">
+        <v>96</v>
+      </c>
       <c r="E44" s="117">
         <f>'Festkosten-Depotwert'!P48+'Festkosten-Depotwert'!D48</f>
         <v>0</v>
       </c>
       <c r="F44" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G44" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H44" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="121" customFormat="1" x14ac:dyDescent="0.25">
@@ -11094,22 +11149,24 @@
       <c r="C45" s="50">
         <v>1</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="15">
+        <v>57</v>
+      </c>
       <c r="E45" s="117">
         <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
         <v>9</v>
       </c>
       <c r="F45" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G45" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H45" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="121" customFormat="1" x14ac:dyDescent="0.25">
@@ -11208,22 +11265,24 @@
       <c r="C49" s="50">
         <v>1.5</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="15">
+        <v>144</v>
+      </c>
       <c r="E49" s="117">
         <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
         <v>0</v>
       </c>
       <c r="F49" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G49" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H49" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I49" s="121"/>
     </row>
@@ -11266,22 +11325,24 @@
       <c r="C51" s="50">
         <v>1</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="15">
+        <v>20</v>
+      </c>
       <c r="E51" s="117">
         <f>'Festkosten-Depotwert'!P55+'Festkosten-Depotwert'!D55</f>
         <v>5</v>
       </c>
       <c r="F51" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G51" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H51" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I51" s="121"/>
     </row>
@@ -11324,22 +11385,24 @@
       <c r="C53" s="50">
         <v>2</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="15">
+        <v>31</v>
+      </c>
       <c r="E53" s="117">
         <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
         <v>0</v>
       </c>
       <c r="F53" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G53" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H53" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I53" s="121"/>
     </row>
@@ -11439,22 +11502,24 @@
       <c r="C57" s="50">
         <v>1</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="15">
+        <v>2</v>
+      </c>
       <c r="E57" s="117">
         <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
         <v>0</v>
       </c>
       <c r="F57" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -11467,22 +11532,24 @@
       <c r="C58" s="50">
         <v>1</v>
       </c>
-      <c r="D58" s="15"/>
+      <c r="D58" s="15">
+        <v>30</v>
+      </c>
       <c r="E58" s="117">
         <f>'Festkosten-Depotwert'!P62+'Festkosten-Depotwert'!D62</f>
         <v>3</v>
       </c>
       <c r="F58" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G58" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H58" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -11495,7 +11562,9 @@
       <c r="C59" s="57">
         <v>1.25</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="15">
+        <v>6</v>
+      </c>
       <c r="E59" s="117">
         <f>'Festkosten-Depotwert'!P63+'Festkosten-Depotwert'!D63</f>
         <v>6</v>
@@ -11510,7 +11579,7 @@
       </c>
       <c r="H59" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -11551,22 +11620,24 @@
       <c r="C61" s="57">
         <v>1.5</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="15">
+        <v>85</v>
+      </c>
       <c r="E61" s="117">
         <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
         <v>4</v>
       </c>
       <c r="F61" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G61" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="H61" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -11607,22 +11678,24 @@
       <c r="C63" s="57">
         <v>25</v>
       </c>
-      <c r="D63" s="15"/>
+      <c r="D63" s="15">
+        <v>2</v>
+      </c>
       <c r="E63" s="117">
         <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
         <v>0</v>
       </c>
       <c r="F63" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H63" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -11635,22 +11708,24 @@
       <c r="C64" s="57">
         <v>50</v>
       </c>
-      <c r="D64" s="15"/>
+      <c r="D64" s="15">
+        <v>10</v>
+      </c>
       <c r="E64" s="117">
         <f>'Festkosten-Depotwert'!P68+'Festkosten-Depotwert'!D68</f>
         <v>0</v>
       </c>
       <c r="F64" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H64" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -11663,7 +11738,9 @@
       <c r="C65" s="57">
         <v>0.5</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="15">
+        <v>20</v>
+      </c>
       <c r="E65" s="117">
         <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
         <v>20</v>
@@ -11678,7 +11755,7 @@
       </c>
       <c r="H65" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -11691,22 +11768,24 @@
       <c r="C66" s="57">
         <v>1</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="15">
+        <v>16</v>
+      </c>
       <c r="E66" s="117">
         <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
         <v>0</v>
       </c>
       <c r="F66" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G66" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H66" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I66" s="28" t="s">
         <v>165</v>
@@ -11722,25 +11801,24 @@
       <c r="C67" s="57">
         <v>1</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="15">
+        <v>84</v>
+      </c>
       <c r="E67" s="117">
         <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
         <v>7</v>
       </c>
       <c r="F67" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G67" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H67" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -23,17 +23,27 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F51" authorId="0">
+    <comment ref="M10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="8"/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>11x2l</t>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Achtung: Altbestand war da. Verbrauch vermutlich ca. bei einer halben bis einer Flasche</t>
         </r>
       </text>
     </comment>
@@ -42,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="165">
   <si>
     <t>Marke</t>
   </si>
@@ -568,16 +578,13 @@
     <t>Kiwisaft</t>
   </si>
   <si>
-    <t>2,5 Fl. 0,7l Malibu</t>
-  </si>
-  <si>
-    <t>44 Fl. 1l Rotwein</t>
+    <t>Rotwein ???</t>
   </si>
   <si>
     <t>Glarea Nox 2014</t>
   </si>
   <si>
-    <t>&lt;-- beim Wein Bestand checken</t>
+    <t>&lt;-- beim Rotwein Bestand checken</t>
   </si>
 </sst>
 </file>
@@ -590,7 +597,7 @@
     <numFmt numFmtId="166" formatCode="0;\-0;;@"/>
     <numFmt numFmtId="167" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,8 +783,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -1074,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1419,6 +1432,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1886,14 +1900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2047,23 +2061,19 @@
       <c r="C3" s="57">
         <v>0.7</v>
       </c>
-      <c r="D3" s="15">
-        <v>18</v>
-      </c>
-      <c r="E3" s="16">
-        <v>7.4922219999999999</v>
-      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="51">
         <f>E3/C3</f>
-        <v>10.703174285714287</v>
+        <v>0</v>
       </c>
       <c r="G3" s="52">
         <f>E3*D3</f>
-        <v>134.859996</v>
+        <v>0</v>
       </c>
       <c r="H3" s="50">
         <f t="shared" ref="H3" si="0">C3*D3</f>
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I3" s="24">
         <f>IF(O3&gt;P3,D3-O3+P3,D3)</f>
@@ -2075,42 +2085,42 @@
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3" si="1">D3-I3</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L3" s="125">
         <f t="shared" ref="L3" si="2">K3*E3</f>
-        <v>134.859996</v>
+        <v>0</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="55">
         <f>P3+D3</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O3" s="55">
         <f>N3-M3</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P3" s="17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="16">
-        <v>0</v>
+        <v>7.4922219999999999</v>
       </c>
       <c r="R3" s="56">
         <f>Q3/C3</f>
-        <v>0</v>
+        <v>10.703174285714287</v>
       </c>
       <c r="S3" s="56">
         <f>Q3*P3</f>
-        <v>0</v>
+        <v>119.875552</v>
       </c>
       <c r="T3" s="57">
         <f>P3-V3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U3" s="58">
         <f>T3*Q3</f>
-        <v>0</v>
+        <v>119.875552</v>
       </c>
       <c r="V3" s="24">
         <f>IF(O3&lt;P3,P3-O3,0)</f>
@@ -2276,33 +2286,33 @@
       <c r="M5" s="20"/>
       <c r="N5" s="55">
         <f t="shared" ref="N5:N40" si="13">P5+D5</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" ref="O5:O40" si="14">N5-M5</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="P5" s="17">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" s="16">
-        <v>0</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="R5" s="56">
         <f t="shared" ref="R5:R69" si="15">Q5/C5</f>
-        <v>0</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="S5" s="56">
         <f t="shared" ref="S5:S69" si="16">Q5*P5</f>
-        <v>0</v>
+        <v>36.932499999999997</v>
       </c>
       <c r="T5" s="57">
         <f t="shared" ref="T5:T69" si="17">P5-V5</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="U5" s="58">
         <f t="shared" ref="U5:U69" si="18">T5*Q5</f>
-        <v>0</v>
+        <v>36.932499999999997</v>
       </c>
       <c r="V5" s="24">
         <f t="shared" ref="V5:V69" si="19">IF(O5&lt;P5,P5-O5,0)</f>
@@ -2558,39 +2568,39 @@
         <v>0</v>
       </c>
       <c r="L8" s="125">
-        <f t="shared" si="12"/>
+        <f>K8*E8</f>
         <v>0</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="O8" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="P8" s="17">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Q8" s="16">
-        <v>0</v>
+        <v>8.4915000000000003</v>
       </c>
       <c r="R8" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>12.130714285714287</v>
       </c>
       <c r="S8" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>148.60124999999999</v>
       </c>
       <c r="T8" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="U8" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>148.60124999999999</v>
       </c>
       <c r="V8" s="24">
         <f t="shared" si="19"/>
@@ -2660,33 +2670,33 @@
       <c r="M9" s="20"/>
       <c r="N9" s="55">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="O9" s="55">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="P9" s="17">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="Q9" s="16">
-        <v>12.228</v>
+        <v>10.479428571428572</v>
       </c>
       <c r="R9" s="56">
         <f t="shared" si="15"/>
-        <v>17.46857142857143</v>
+        <v>14.970612244897962</v>
       </c>
       <c r="S9" s="56">
         <f t="shared" si="16"/>
-        <v>24.456</v>
+        <v>110.03400000000001</v>
       </c>
       <c r="T9" s="57">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="U9" s="58">
         <f t="shared" si="18"/>
-        <v>24.456</v>
+        <v>110.03400000000001</v>
       </c>
       <c r="V9" s="24">
         <f t="shared" si="19"/>
@@ -2852,33 +2862,33 @@
       <c r="M11" s="20"/>
       <c r="N11" s="55">
         <f t="shared" si="13"/>
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="O11" s="55">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="P11" s="17">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" s="16">
-        <v>12.42</v>
+        <v>12.461</v>
       </c>
       <c r="R11" s="56">
         <f t="shared" si="15"/>
-        <v>17.742857142857144</v>
+        <v>17.801428571428573</v>
       </c>
       <c r="S11" s="56">
         <f t="shared" si="16"/>
-        <v>9.3149999999999995</v>
+        <v>40.498249999999999</v>
       </c>
       <c r="T11" s="57">
         <f t="shared" si="17"/>
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="U11" s="58">
         <f t="shared" si="18"/>
-        <v>9.3149999999999995</v>
+        <v>40.498249999999999</v>
       </c>
       <c r="V11" s="24">
         <f t="shared" si="19"/>
@@ -3044,33 +3054,33 @@
       <c r="M13" s="20"/>
       <c r="N13" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="P13" s="17">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" s="16">
-        <v>0</v>
+        <v>9.8770000000000007</v>
       </c>
       <c r="R13" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>14.110000000000001</v>
       </c>
       <c r="S13" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>64.200500000000005</v>
       </c>
       <c r="T13" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="U13" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>64.200500000000005</v>
       </c>
       <c r="V13" s="24">
         <f t="shared" si="19"/>
@@ -3332,33 +3342,33 @@
       <c r="M16" s="20"/>
       <c r="N16" s="55">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O16" s="55">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P16" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="16">
-        <v>10.49</v>
+        <v>10.142799999999999</v>
       </c>
       <c r="R16" s="56">
         <f t="shared" si="15"/>
-        <v>14.985714285714288</v>
+        <v>14.489714285714285</v>
       </c>
       <c r="S16" s="56">
         <f t="shared" si="16"/>
-        <v>31.47</v>
+        <v>50.713999999999999</v>
       </c>
       <c r="T16" s="57">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U16" s="58">
         <f t="shared" si="18"/>
-        <v>31.47</v>
+        <v>50.713999999999999</v>
       </c>
       <c r="V16" s="24">
         <f t="shared" si="19"/>
@@ -3428,33 +3438,33 @@
       <c r="M17" s="20"/>
       <c r="N17" s="55">
         <f t="shared" ref="N17" si="102">P17+D17</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O17" s="55">
         <f t="shared" ref="O17" si="103">N17-M17</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P17" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="16">
-        <v>10.49</v>
+        <v>10.576666666666666</v>
       </c>
       <c r="R17" s="56">
         <f t="shared" ref="R17" si="104">Q17/C17</f>
-        <v>14.985714285714288</v>
+        <v>15.109523809523809</v>
       </c>
       <c r="S17" s="56">
         <f t="shared" ref="S17" si="105">Q17*P17</f>
-        <v>20.98</v>
+        <v>63.459999999999994</v>
       </c>
       <c r="T17" s="57">
         <f t="shared" ref="T17" si="106">P17-V17</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U17" s="58">
         <f t="shared" ref="U17" si="107">T17*Q17</f>
-        <v>20.98</v>
+        <v>63.459999999999994</v>
       </c>
       <c r="V17" s="24">
         <f t="shared" ref="V17" si="108">IF(O17&lt;P17,P17-O17,0)</f>
@@ -3491,23 +3501,19 @@
       <c r="C18" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D18" s="15">
-        <v>180</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.89100000000000001</v>
-      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="51">
         <f t="shared" si="6"/>
-        <v>3.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="G18" s="52">
         <f t="shared" si="7"/>
-        <v>160.38</v>
+        <v>0</v>
       </c>
       <c r="H18" s="50">
         <f t="shared" si="8"/>
-        <v>49.500000000000007</v>
+        <v>0</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="9"/>
@@ -3519,42 +3525,42 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L18" s="125">
         <f t="shared" si="12"/>
-        <v>160.38</v>
+        <v>0</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="55">
         <f t="shared" si="13"/>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="O18" s="55">
         <f t="shared" si="14"/>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="P18" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <v>0.91070499999999999</v>
+        <v>0</v>
       </c>
       <c r="R18" s="56">
         <f t="shared" si="15"/>
-        <v>3.311654545454545</v>
+        <v>0</v>
       </c>
       <c r="S18" s="56">
         <f t="shared" si="16"/>
-        <v>0.91070499999999999</v>
+        <v>0</v>
       </c>
       <c r="T18" s="57">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="58">
         <f t="shared" si="18"/>
-        <v>0.91070499999999999</v>
+        <v>0</v>
       </c>
       <c r="V18" s="24">
         <f t="shared" si="19"/>
@@ -3591,23 +3597,19 @@
       <c r="C19" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D19" s="15">
-        <v>60</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.89100000000000001</v>
-      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="51">
         <f t="shared" ref="F19:F21" si="114">E19/C19</f>
-        <v>3.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="G19" s="52">
         <f t="shared" ref="G19:G21" si="115">E19*D19</f>
-        <v>53.46</v>
+        <v>0</v>
       </c>
       <c r="H19" s="50">
         <f t="shared" ref="H19:H21" si="116">C19*D19</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="24">
         <f t="shared" si="9"/>
@@ -3619,42 +3621,42 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" ref="K19:K21" si="118">D19-I19</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L19" s="125">
         <f t="shared" ref="L19:L33" si="119">K19*E19</f>
-        <v>53.46</v>
+        <v>0</v>
       </c>
       <c r="M19" s="20"/>
       <c r="N19" s="55">
         <f t="shared" ref="N19:N21" si="120">P19+D19</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="O19" s="55">
         <f t="shared" ref="O19:O35" si="121">N19-M19</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="P19" s="17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <v>1.3680000000000001</v>
+        <v>0</v>
       </c>
       <c r="R19" s="56">
         <f t="shared" si="15"/>
-        <v>4.9745454545454546</v>
+        <v>0</v>
       </c>
       <c r="S19" s="56">
         <f t="shared" si="16"/>
-        <v>15.048000000000002</v>
+        <v>0</v>
       </c>
       <c r="T19" s="57">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U19" s="58">
         <f t="shared" si="18"/>
-        <v>15.048000000000002</v>
+        <v>0</v>
       </c>
       <c r="V19" s="24">
         <f t="shared" si="19"/>
@@ -3691,23 +3693,19 @@
       <c r="C20" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D20" s="15">
-        <v>60</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0.89100000000000001</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="51">
         <f t="shared" ref="F20" si="122">E20/C20</f>
-        <v>3.2399999999999998</v>
+        <v>0</v>
       </c>
       <c r="G20" s="52">
         <f t="shared" ref="G20" si="123">E20*D20</f>
-        <v>53.46</v>
+        <v>0</v>
       </c>
       <c r="H20" s="50">
         <f t="shared" ref="H20" si="124">C20*D20</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="125">IF(O20&gt;P20,D20-O20+P20,D20)</f>
@@ -3719,42 +3717,42 @@
       </c>
       <c r="K20" s="54">
         <f t="shared" ref="K20" si="127">D20-I20</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L20" s="125">
         <f t="shared" ref="L20:L32" si="128">K20*E20</f>
-        <v>53.46</v>
+        <v>0</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="55">
         <f t="shared" ref="N20" si="129">P20+D20</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="O20" s="55">
         <f t="shared" ref="O20" si="130">N20-M20</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="P20" s="17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <v>1.3680000000000001</v>
+        <v>0</v>
       </c>
       <c r="R20" s="56">
         <f t="shared" ref="R20" si="131">Q20/C20</f>
-        <v>4.9745454545454546</v>
+        <v>0</v>
       </c>
       <c r="S20" s="56">
         <f t="shared" ref="S20" si="132">Q20*P20</f>
-        <v>46.512</v>
+        <v>0</v>
       </c>
       <c r="T20" s="57">
         <f t="shared" ref="T20" si="133">P20-V20</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U20" s="58">
         <f t="shared" ref="U20" si="134">T20*Q20</f>
-        <v>46.512</v>
+        <v>0</v>
       </c>
       <c r="V20" s="24">
         <f t="shared" ref="V20" si="135">IF(O20&lt;P20,P20-O20,0)</f>
@@ -4016,33 +4014,33 @@
       <c r="M23" s="20"/>
       <c r="N23" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="O23" s="55">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="P23" s="17">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="16">
-        <v>0</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="R23" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="S23" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>207.35999999999999</v>
       </c>
       <c r="T23" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="U23" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>207.35999999999999</v>
       </c>
       <c r="V23" s="24">
         <f t="shared" si="19"/>
@@ -4784,33 +4782,33 @@
       <c r="M31" s="20"/>
       <c r="N31" s="55">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O31" s="55">
         <f t="shared" si="121"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P31" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q31" s="16">
-        <v>3.14</v>
+        <v>3.5900555555555531</v>
       </c>
       <c r="R31" s="56">
         <f t="shared" si="15"/>
-        <v>4.1866666666666665</v>
+        <v>4.7867407407407372</v>
       </c>
       <c r="S31" s="56">
         <f t="shared" si="16"/>
-        <v>15.700000000000001</v>
+        <v>32.310499999999976</v>
       </c>
       <c r="T31" s="57">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U31" s="58">
         <f t="shared" si="18"/>
-        <v>15.700000000000001</v>
+        <v>32.310499999999976</v>
       </c>
       <c r="V31" s="24">
         <f t="shared" si="19"/>
@@ -4880,33 +4878,33 @@
       <c r="M32" s="20"/>
       <c r="N32" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="16">
-        <v>0</v>
+        <v>13.276999999999999</v>
       </c>
       <c r="R32" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>18.967142857142857</v>
       </c>
       <c r="S32" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13.276999999999999</v>
       </c>
       <c r="T32" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>13.276999999999999</v>
       </c>
       <c r="V32" s="24">
         <f t="shared" si="19"/>
@@ -5360,33 +5358,33 @@
       <c r="M37" s="20"/>
       <c r="N37" s="55">
         <f t="shared" ref="N37" si="181">P37+D37</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O37" s="55">
         <f t="shared" ref="O37" si="182">N37-M37</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P37" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="16">
-        <v>0</v>
+        <v>0.44846000000000003</v>
       </c>
       <c r="R37" s="56">
         <f t="shared" ref="R37" si="183">Q37/C37</f>
-        <v>0</v>
+        <v>22.423000000000002</v>
       </c>
       <c r="S37" s="56">
         <f t="shared" ref="S37" si="184">Q37*P37</f>
-        <v>0</v>
+        <v>22.423000000000002</v>
       </c>
       <c r="T37" s="57">
         <f t="shared" ref="T37" si="185">P37-V37</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U37" s="58">
         <f t="shared" ref="U37" si="186">T37*Q37</f>
-        <v>0</v>
+        <v>22.423000000000002</v>
       </c>
       <c r="V37" s="24">
         <f t="shared" si="19"/>
@@ -6320,33 +6318,33 @@
       <c r="M47" s="20"/>
       <c r="N47" s="55">
         <f t="shared" si="190"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="O47" s="55">
         <f t="shared" si="189"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P47" s="17">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Q47" s="16">
-        <v>1.9799999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="R47" s="56">
         <f t="shared" si="15"/>
-        <v>1.3199999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="S47" s="56">
         <f t="shared" si="16"/>
-        <v>5.9399999999999995</v>
+        <v>51.48</v>
       </c>
       <c r="T47" s="57">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="U47" s="58">
         <f t="shared" si="18"/>
-        <v>5.9399999999999995</v>
+        <v>51.48</v>
       </c>
       <c r="V47" s="24">
         <f t="shared" si="19"/>
@@ -6512,33 +6510,33 @@
       <c r="M49" s="20"/>
       <c r="N49" s="55">
         <f t="shared" si="236"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O49" s="55">
         <f t="shared" si="237"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P49" s="17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="16">
-        <v>1.4775</v>
+        <v>0</v>
       </c>
       <c r="R49" s="56">
         <f t="shared" si="15"/>
-        <v>1.4775</v>
+        <v>0</v>
       </c>
       <c r="S49" s="56">
         <f t="shared" si="16"/>
-        <v>13.297499999999999</v>
+        <v>0</v>
       </c>
       <c r="T49" s="57">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U49" s="58">
         <f t="shared" si="18"/>
-        <v>13.297499999999999</v>
+        <v>0</v>
       </c>
       <c r="V49" s="24">
         <f t="shared" si="19"/>
@@ -6608,33 +6606,33 @@
       <c r="M50" s="20"/>
       <c r="N50" s="55">
         <f t="shared" ref="N50" si="244">P50+D50</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O50" s="55">
         <f t="shared" ref="O50" si="245">N50-M50</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P50" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="16">
-        <v>2.0175000000000001</v>
+        <v>0</v>
       </c>
       <c r="R50" s="56">
         <f t="shared" si="15"/>
-        <v>1.00875</v>
+        <v>0</v>
       </c>
       <c r="S50" s="56">
         <f t="shared" si="16"/>
-        <v>8.07</v>
+        <v>0</v>
       </c>
       <c r="T50" s="57">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U50" s="58">
         <f t="shared" si="18"/>
-        <v>8.07</v>
+        <v>0</v>
       </c>
       <c r="V50" s="24">
         <f t="shared" si="19"/>
@@ -6800,33 +6798,33 @@
       <c r="M52" s="20"/>
       <c r="N52" s="55">
         <f t="shared" si="236"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O52" s="55">
         <f t="shared" si="237"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P52" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <v>1.3834285710000001</v>
+        <v>0</v>
       </c>
       <c r="R52" s="56">
         <f t="shared" si="15"/>
-        <v>0.69171428550000003</v>
+        <v>0</v>
       </c>
       <c r="S52" s="56">
         <f t="shared" si="16"/>
-        <v>6.9171428549999998</v>
+        <v>0</v>
       </c>
       <c r="T52" s="57">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U52" s="58">
         <f t="shared" si="18"/>
-        <v>6.9171428549999998</v>
+        <v>0</v>
       </c>
       <c r="V52" s="24">
         <f t="shared" si="19"/>
@@ -7088,33 +7086,33 @@
       <c r="M55" s="20"/>
       <c r="N55" s="55">
         <f>P55+D55</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O55" s="55">
         <f>N55-M55</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P55" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="16">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="R55" s="56">
         <f t="shared" si="15"/>
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="S55" s="56">
         <f t="shared" si="16"/>
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T55" s="57">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U55" s="58">
         <f t="shared" si="18"/>
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="V55" s="24">
         <f t="shared" si="19"/>
@@ -7184,33 +7182,33 @@
       <c r="M56" s="20"/>
       <c r="N56" s="55">
         <f>P56+D56</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O56" s="55">
         <f>N56-M56</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P56" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="16">
-        <v>1.9424999999999997</v>
+        <v>0</v>
       </c>
       <c r="R56" s="56">
         <f t="shared" si="15"/>
-        <v>0.97124999999999984</v>
+        <v>0</v>
       </c>
       <c r="S56" s="56">
         <f t="shared" si="16"/>
-        <v>5.8274999999999988</v>
+        <v>0</v>
       </c>
       <c r="T56" s="57">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U56" s="58">
         <f t="shared" si="18"/>
-        <v>5.8274999999999988</v>
+        <v>0</v>
       </c>
       <c r="V56" s="24">
         <f t="shared" si="19"/>
@@ -7376,33 +7374,33 @@
       <c r="M58" s="20"/>
       <c r="N58" s="55">
         <f t="shared" si="249"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O58" s="55">
         <f t="shared" si="250"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P58" s="17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="16">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="R58" s="56">
         <f t="shared" si="15"/>
-        <v>1.1266666666666667</v>
+        <v>0</v>
       </c>
       <c r="S58" s="56">
         <f t="shared" si="16"/>
-        <v>15.209999999999999</v>
+        <v>0</v>
       </c>
       <c r="T58" s="57">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U58" s="58">
         <f t="shared" si="18"/>
-        <v>15.209999999999999</v>
+        <v>0</v>
       </c>
       <c r="V58" s="24">
         <f t="shared" si="19"/>
@@ -7664,33 +7662,33 @@
       <c r="M61" s="20"/>
       <c r="N61" s="55">
         <f t="shared" si="236"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61" s="55">
         <f t="shared" si="237"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q61" s="16">
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="R61" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="S61" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="T61" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U61" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="V61" s="24">
         <f t="shared" si="19"/>
@@ -7760,33 +7758,33 @@
       <c r="M62" s="20"/>
       <c r="N62" s="55">
         <f t="shared" si="236"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62" s="55">
         <f t="shared" si="237"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P62" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="16">
-        <v>1.5067200000000003</v>
+        <v>0</v>
       </c>
       <c r="R62" s="56">
         <f t="shared" si="15"/>
-        <v>1.5067200000000003</v>
+        <v>0</v>
       </c>
       <c r="S62" s="56">
         <f t="shared" si="16"/>
-        <v>4.5201600000000006</v>
+        <v>0</v>
       </c>
       <c r="T62" s="57">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U62" s="58">
         <f t="shared" si="18"/>
-        <v>4.5201600000000006</v>
+        <v>0</v>
       </c>
       <c r="V62" s="24">
         <f t="shared" si="19"/>
@@ -7856,33 +7854,33 @@
       <c r="M63" s="20"/>
       <c r="N63" s="55">
         <f t="shared" ref="N63:N72" si="310">P63+D63</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O63" s="55">
         <f t="shared" ref="O63:O72" si="311">N63-M63</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P63" s="17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="R63" s="56">
         <f t="shared" si="15"/>
-        <v>1.3119999999999998</v>
+        <v>0</v>
       </c>
       <c r="S63" s="56">
         <f t="shared" si="16"/>
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="T63" s="57">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U63" s="58">
         <f t="shared" si="18"/>
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="V63" s="24">
         <f t="shared" si="19"/>
@@ -8048,33 +8046,33 @@
       <c r="M65" s="20"/>
       <c r="N65" s="55">
         <f t="shared" si="312"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O65" s="55">
         <f t="shared" si="313"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P65" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="16">
-        <v>0.31440000000000001</v>
+        <v>0</v>
       </c>
       <c r="R65" s="56">
         <f t="shared" si="15"/>
-        <v>0.20960000000000001</v>
+        <v>0</v>
       </c>
       <c r="S65" s="56">
         <f t="shared" si="16"/>
-        <v>1.2576000000000001</v>
+        <v>0</v>
       </c>
       <c r="T65" s="57">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U65" s="58">
         <f t="shared" si="18"/>
-        <v>1.2576000000000001</v>
+        <v>0</v>
       </c>
       <c r="V65" s="24">
         <f t="shared" si="19"/>
@@ -8432,33 +8430,33 @@
       <c r="M69" s="20"/>
       <c r="N69" s="55">
         <f t="shared" si="312"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O69" s="55">
         <f t="shared" si="313"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P69" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R69" s="56">
         <f t="shared" si="15"/>
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="S69" s="56">
         <f t="shared" si="16"/>
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="T69" s="57">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U69" s="58">
         <f t="shared" si="18"/>
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="V69" s="24">
         <f t="shared" si="19"/>
@@ -8624,33 +8622,33 @@
       <c r="M71" s="20"/>
       <c r="N71" s="55">
         <f t="shared" si="312"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O71" s="55">
         <f t="shared" si="313"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P71" s="17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R71" s="56">
         <f t="shared" si="326"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S71" s="56">
         <f t="shared" si="327"/>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="T71" s="57">
         <f t="shared" si="328"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U71" s="58">
         <f t="shared" si="329"/>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="V71" s="24">
         <f t="shared" si="330"/>
@@ -8878,7 +8876,7 @@
       <c r="F74" s="51"/>
       <c r="G74" s="60">
         <f>SUM(G3:G73)</f>
-        <v>402.15999599999998</v>
+        <v>0</v>
       </c>
       <c r="H74" s="50"/>
       <c r="I74" s="61"/>
@@ -8889,7 +8887,7 @@
       <c r="K74" s="63"/>
       <c r="L74" s="64">
         <f>SUM(L3:L73)</f>
-        <v>402.15999599999998</v>
+        <v>0</v>
       </c>
       <c r="M74" s="65"/>
       <c r="N74" s="66"/>
@@ -8899,12 +8897,12 @@
       <c r="R74" s="56"/>
       <c r="S74" s="68">
         <f>SUM(S3:S73)</f>
-        <v>533.829857855</v>
+        <v>1222.5148020000004</v>
       </c>
       <c r="T74" s="57"/>
       <c r="U74" s="69">
         <f>SUM(U3:U73)</f>
-        <v>533.829857855</v>
+        <v>1222.5148020000004</v>
       </c>
       <c r="V74" s="50"/>
       <c r="W74" s="70">
@@ -9028,7 +9026,7 @@
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
       <c r="F79" s="30"/>
-      <c r="G79" s="28"/>
+      <c r="G79" s="128"/>
       <c r="H79" s="28"/>
       <c r="I79" s="29"/>
       <c r="J79" s="74" t="s">
@@ -9058,7 +9056,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="29"/>
       <c r="J80" s="18">
-        <v>533.83000000000004</v>
+        <v>1222.51</v>
       </c>
       <c r="K80" s="75">
         <f>J74+W74</f>
@@ -9066,7 +9064,7 @@
       </c>
       <c r="L80" s="75">
         <f>L74+U74</f>
-        <v>935.98985385499998</v>
+        <v>1222.5148020000004</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
@@ -9172,7 +9170,7 @@
       </c>
       <c r="K84" s="81">
         <f>J80</f>
-        <v>533.83000000000004</v>
+        <v>1222.51</v>
       </c>
       <c r="L84" s="32"/>
       <c r="M84" s="32"/>
@@ -9196,7 +9194,7 @@
       </c>
       <c r="K85" s="81">
         <f>+G74</f>
-        <v>402.15999599999998</v>
+        <v>0</v>
       </c>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
@@ -9220,7 +9218,7 @@
       </c>
       <c r="K86" s="83">
         <f>-L80</f>
-        <v>-935.98985385499998</v>
+        <v>-1222.5148020000004</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9244,7 +9242,7 @@
       </c>
       <c r="K87" s="81">
         <f>K84+K85+K86</f>
-        <v>1.4214500004072761E-4</v>
+        <v>-4.8020000003816676E-3</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -9636,11 +9634,13 @@
       <c r="Q107" s="29"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState ref="A2:D10">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9649,7 +9649,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,15 +9702,15 @@
     <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="97">
         <f>'Festkosten-Depotwert'!J80</f>
-        <v>533.83000000000004</v>
+        <v>1222.51</v>
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G74</f>
-        <v>402.15999599999998</v>
+        <v>0</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L80</f>
-        <v>935.98985385499998</v>
+        <v>1222.5148020000004</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K80</f>
@@ -9737,16 +9737,16 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="104">
         <f>-(D6-C6)</f>
-        <v>-533.829857855</v>
+        <v>-1222.5148020000004</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="89" t="s">
@@ -9779,11 +9779,11 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>402.15999599999998</v>
+        <v>0</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L74</f>
-        <v>402.15999599999998</v>
+        <v>0</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="E20" s="109">
         <f>'Festkosten-Depotwert'!U74</f>
-        <v>533.829857855</v>
+        <v>1222.5148020000004</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -9814,6 +9814,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B17:E17"/>
   </mergeCells>
@@ -9832,14 +9833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9896,15 +9897,15 @@
       </c>
       <c r="E2" s="117">
         <f>'Festkosten-Depotwert'!P3+'Festkosten-Depotwert'!D3</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="118">
         <f>IF(E2&lt;D2,D2-E2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="119">
         <f>F2*C2</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="49">
         <f>D2*C2</f>
@@ -9926,15 +9927,15 @@
       </c>
       <c r="E3" s="117">
         <f>'Festkosten-Depotwert'!P5+'Festkosten-Depotwert'!D5</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F3" s="118">
         <f t="shared" ref="F3:F69" si="0">IF(E3&lt;D3,D3-E3,0)</f>
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="G3" s="120">
         <f t="shared" ref="G3:G69" si="1">F3*C3</f>
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="H3" s="49">
         <f t="shared" ref="H3:H69" si="2">D3*C3</f>
@@ -10012,15 +10013,15 @@
       </c>
       <c r="E6" s="117">
         <f>'Festkosten-Depotwert'!P8+'Festkosten-Depotwert'!D8</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="F6" s="118">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="119">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>5.25</v>
       </c>
       <c r="H6" s="49">
         <f t="shared" si="2"/>
@@ -10042,15 +10043,15 @@
       </c>
       <c r="E7" s="117">
         <f>'Festkosten-Depotwert'!P9+'Festkosten-Depotwert'!D9</f>
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="F7" s="118">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="120">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="49">
         <f t="shared" si="2"/>
@@ -10102,15 +10103,15 @@
       </c>
       <c r="E9" s="117">
         <f>'Festkosten-Depotwert'!P11+'Festkosten-Depotwert'!D11</f>
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="F9" s="118">
         <f t="shared" si="0"/>
-        <v>14.25</v>
+        <v>11.75</v>
       </c>
       <c r="G9" s="120">
         <f t="shared" si="1"/>
-        <v>9.9749999999999996</v>
+        <v>8.2249999999999996</v>
       </c>
       <c r="H9" s="49">
         <f t="shared" si="2"/>
@@ -10160,15 +10161,15 @@
       </c>
       <c r="E11" s="117">
         <f>'Festkosten-Depotwert'!P13+'Festkosten-Depotwert'!D13</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F11" s="118">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="G11" s="120">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>12.95</v>
       </c>
       <c r="H11" s="49">
         <f t="shared" si="2"/>
@@ -10218,15 +10219,15 @@
       </c>
       <c r="E13" s="117">
         <f>'Festkosten-Depotwert'!P16+'Festkosten-Depotwert'!D16</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="118">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="120">
         <f t="shared" si="1"/>
-        <v>2.0999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="H13" s="49">
         <f t="shared" si="2"/>
@@ -10248,7 +10249,7 @@
       </c>
       <c r="E14" s="117">
         <f>'Festkosten-Depotwert'!P17+'Festkosten-Depotwert'!D17</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="118">
         <f t="shared" si="0"/>
@@ -10278,15 +10279,15 @@
       </c>
       <c r="E15" s="117">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="F15" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G15" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="2"/>
@@ -10308,15 +10309,15 @@
       </c>
       <c r="E16" s="117">
         <f>'Festkosten-Depotwert'!P19+'Festkosten-Depotwert'!D19</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F16" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G16" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H16" s="49">
         <f t="shared" si="2"/>
@@ -10338,15 +10339,15 @@
       </c>
       <c r="E17" s="117">
         <f>'Festkosten-Depotwert'!P20+'Festkosten-Depotwert'!D20</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F17" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G17" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="2"/>
@@ -10426,15 +10427,15 @@
       </c>
       <c r="E20" s="117">
         <f>'Festkosten-Depotwert'!P23+'Festkosten-Depotwert'!D23</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F20" s="118">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G20" s="119">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="49">
         <f t="shared" si="2"/>
@@ -10656,15 +10657,15 @@
       </c>
       <c r="E28" s="117">
         <f>'Festkosten-Depotwert'!P31+'Festkosten-Depotwert'!D31</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" s="118">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="120">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H28" s="49">
         <f t="shared" si="2"/>
@@ -10686,15 +10687,15 @@
       </c>
       <c r="E29" s="117">
         <f>'Festkosten-Depotwert'!P32+'Festkosten-Depotwert'!D32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="118">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="120">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="H29" s="49">
         <f t="shared" si="2"/>
@@ -10828,15 +10829,15 @@
       </c>
       <c r="E34" s="117">
         <f>'Festkosten-Depotwert'!P37+'Festkosten-Depotwert'!D37</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F34" s="118">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G34" s="119">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="49">
         <f t="shared" si="2"/>
@@ -11094,15 +11095,15 @@
       </c>
       <c r="E43" s="117">
         <f>'Festkosten-Depotwert'!P47+'Festkosten-Depotwert'!D47</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F43" s="118">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G43" s="119">
         <f t="shared" si="1"/>
-        <v>58.5</v>
+        <v>24</v>
       </c>
       <c r="H43" s="49">
         <f t="shared" si="2"/>
@@ -11154,15 +11155,15 @@
       </c>
       <c r="E45" s="117">
         <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F45" s="118">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G45" s="120">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H45" s="49">
         <f t="shared" si="2"/>
@@ -11182,7 +11183,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="117">
         <f>'Festkosten-Depotwert'!P50+'Festkosten-Depotwert'!D50</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" s="118">
         <f t="shared" si="0"/>
@@ -11239,7 +11240,7 @@
       <c r="D48" s="15"/>
       <c r="E48" s="117">
         <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" s="118">
         <f t="shared" si="0"/>
@@ -11330,15 +11331,15 @@
       </c>
       <c r="E51" s="117">
         <f>'Festkosten-Depotwert'!P55+'Festkosten-Depotwert'!D55</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" s="118">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G51" s="120">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H51" s="49">
         <f t="shared" si="2"/>
@@ -11359,7 +11360,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="117">
         <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="118">
         <f t="shared" si="0"/>
@@ -11419,7 +11420,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="117">
         <f>'Festkosten-Depotwert'!P58+'Festkosten-Depotwert'!D58</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F54" s="118">
         <f t="shared" si="0"/>
@@ -11507,15 +11508,15 @@
       </c>
       <c r="E57" s="117">
         <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="118">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" s="120">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="49">
         <f t="shared" si="2"/>
@@ -11537,15 +11538,15 @@
       </c>
       <c r="E58" s="117">
         <f>'Festkosten-Depotwert'!P62+'Festkosten-Depotwert'!D62</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58" s="118">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G58" s="119">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H58" s="49">
         <f t="shared" si="2"/>
@@ -11567,15 +11568,15 @@
       </c>
       <c r="E59" s="117">
         <f>'Festkosten-Depotwert'!P63+'Festkosten-Depotwert'!D63</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F59" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G59" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H59" s="49">
         <f t="shared" si="2"/>
@@ -11625,15 +11626,15 @@
       </c>
       <c r="E61" s="117">
         <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" s="118">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G61" s="120">
         <f t="shared" si="1"/>
-        <v>121.5</v>
+        <v>127.5</v>
       </c>
       <c r="H61" s="49">
         <f t="shared" si="2"/>
@@ -11743,15 +11744,15 @@
       </c>
       <c r="E65" s="117">
         <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F65" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G65" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H65" s="49">
         <f t="shared" si="2"/>
@@ -11788,7 +11789,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -11806,15 +11807,15 @@
       </c>
       <c r="E67" s="117">
         <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F67" s="118">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G67" s="120">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H67" s="49">
         <f t="shared" si="2"/>
@@ -11886,9 +11887,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12265,7 +12266,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12277,11 +12278,6 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>162</v>
       </c>
     </row>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="174">
   <si>
     <t>Marke</t>
   </si>
@@ -585,6 +585,33 @@
   </si>
   <si>
     <t>&lt;-- beim Rotwein Bestand checken</t>
+  </si>
+  <si>
+    <t>Verbrauch 212l 2013</t>
+  </si>
+  <si>
+    <t>Verbrauch 52l 2013</t>
+  </si>
+  <si>
+    <t>Verbrauch 62l 2013</t>
+  </si>
+  <si>
+    <t>Verbrauch 61 Dosen 2013</t>
+  </si>
+  <si>
+    <t>Verbrauch 45l 2013</t>
+  </si>
+  <si>
+    <t>Im Lagerhaus kaufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei Wolfgang Buchner </t>
+  </si>
+  <si>
+    <t>bestellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -796,7 +823,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,6 +875,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1436,6 +1475,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1904,10 +1947,10 @@
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3534,33 +3577,33 @@
       <c r="M18" s="20"/>
       <c r="N18" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O18" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P18" s="17">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="16">
-        <v>0</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="R18" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="S18" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>160.38</v>
       </c>
       <c r="T18" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="U18" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>160.38</v>
       </c>
       <c r="V18" s="24">
         <f t="shared" si="19"/>
@@ -3630,33 +3673,33 @@
       <c r="M19" s="20"/>
       <c r="N19" s="55">
         <f t="shared" ref="N19:N21" si="120">P19+D19</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O19" s="55">
         <f t="shared" ref="O19:O35" si="121">N19-M19</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P19" s="17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="16">
-        <v>0</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="R19" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="S19" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="T19" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U19" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="V19" s="24">
         <f t="shared" si="19"/>
@@ -3726,33 +3769,33 @@
       <c r="M20" s="20"/>
       <c r="N20" s="55">
         <f t="shared" ref="N20" si="129">P20+D20</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O20" s="55">
         <f t="shared" ref="O20" si="130">N20-M20</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P20" s="17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="16">
-        <v>0</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="R20" s="56">
         <f t="shared" ref="R20" si="131">Q20/C20</f>
-        <v>0</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="S20" s="56">
         <f t="shared" ref="S20" si="132">Q20*P20</f>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="T20" s="57">
         <f t="shared" ref="T20" si="133">P20-V20</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U20" s="58">
         <f t="shared" ref="U20" si="134">T20*Q20</f>
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="V20" s="24">
         <f t="shared" ref="V20" si="135">IF(O20&lt;P20,P20-O20,0)</f>
@@ -8897,12 +8940,12 @@
       <c r="R74" s="56"/>
       <c r="S74" s="68">
         <f>SUM(S3:S73)</f>
-        <v>1222.5148020000004</v>
+        <v>1489.8148020000003</v>
       </c>
       <c r="T74" s="57"/>
       <c r="U74" s="69">
         <f>SUM(U3:U73)</f>
-        <v>1222.5148020000004</v>
+        <v>1489.8148020000003</v>
       </c>
       <c r="V74" s="50"/>
       <c r="W74" s="70">
@@ -9056,7 +9099,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="29"/>
       <c r="J80" s="18">
-        <v>1222.51</v>
+        <v>1489.81</v>
       </c>
       <c r="K80" s="75">
         <f>J74+W74</f>
@@ -9064,7 +9107,7 @@
       </c>
       <c r="L80" s="75">
         <f>L74+U74</f>
-        <v>1222.5148020000004</v>
+        <v>1489.8148020000003</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
@@ -9170,7 +9213,7 @@
       </c>
       <c r="K84" s="81">
         <f>J80</f>
-        <v>1222.51</v>
+        <v>1489.81</v>
       </c>
       <c r="L84" s="32"/>
       <c r="M84" s="32"/>
@@ -9218,7 +9261,7 @@
       </c>
       <c r="K86" s="83">
         <f>-L80</f>
-        <v>-1222.5148020000004</v>
+        <v>-1489.8148020000003</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9649,7 +9692,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,7 +9745,7 @@
     <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="97">
         <f>'Festkosten-Depotwert'!J80</f>
-        <v>1222.51</v>
+        <v>1489.81</v>
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G74</f>
@@ -9710,7 +9753,7 @@
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L80</f>
-        <v>1222.5148020000004</v>
+        <v>1489.8148020000003</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K80</f>
@@ -9737,7 +9780,7 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="104">
         <f>-(D6-C6)</f>
-        <v>-1222.5148020000004</v>
+        <v>-1489.8148020000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -9791,7 +9834,7 @@
       </c>
       <c r="E20" s="109">
         <f>'Festkosten-Depotwert'!U74</f>
-        <v>1222.5148020000004</v>
+        <v>1489.8148020000003</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -9834,13 +9877,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9893,7 +9936,7 @@
         <v>0.7</v>
       </c>
       <c r="D2" s="124">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="117">
         <f>'Festkosten-Depotwert'!P3+'Festkosten-Depotwert'!D3</f>
@@ -9901,15 +9944,15 @@
       </c>
       <c r="F2" s="118">
         <f>IF(E2&lt;D2,D2-E2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="119">
         <f>F2*C2</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="49">
         <f>D2*C2</f>
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9923,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="117">
         <f>'Festkosten-Depotwert'!P5+'Festkosten-Depotwert'!D5</f>
@@ -9931,15 +9974,15 @@
       </c>
       <c r="F3" s="118">
         <f t="shared" ref="F3:F69" si="0">IF(E3&lt;D3,D3-E3,0)</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="G3" s="120">
         <f t="shared" ref="G3:G69" si="1">F3*C3</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="H3" s="49">
         <f t="shared" ref="H3:H69" si="2">D3*C3</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10245,7 +10288,7 @@
         <v>0.7</v>
       </c>
       <c r="D14" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="117">
         <f>'Festkosten-Depotwert'!P17+'Festkosten-Depotwert'!D17</f>
@@ -10261,7 +10304,7 @@
       </c>
       <c r="H14" s="49">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10279,15 +10322,15 @@
       </c>
       <c r="E15" s="117">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F15" s="118">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G15" s="120">
         <f t="shared" si="1"/>
-        <v>49.500000000000007</v>
+        <v>0</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="2"/>
@@ -10309,15 +10352,15 @@
       </c>
       <c r="E16" s="117">
         <f>'Festkosten-Depotwert'!P19+'Festkosten-Depotwert'!D19</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F16" s="118">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G16" s="120">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="49">
         <f t="shared" si="2"/>
@@ -10339,15 +10382,15 @@
       </c>
       <c r="E17" s="117">
         <f>'Festkosten-Depotwert'!P20+'Festkosten-Depotwert'!D20</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F17" s="118">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G17" s="120">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="2"/>
@@ -10452,22 +10495,24 @@
       <c r="C21" s="50">
         <v>0.7</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
       <c r="E21" s="117">
         <f>'Festkosten-Depotwert'!P24+'Festkosten-Depotwert'!D24</f>
         <v>1</v>
       </c>
       <c r="F21" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H21" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -10595,7 +10640,7 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="117">
         <f>'Festkosten-Depotwert'!P29+'Festkosten-Depotwert'!D29</f>
@@ -10603,15 +10648,15 @@
       </c>
       <c r="F26" s="118">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="119">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -10786,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>137</v>
       </c>
@@ -10814,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>132</v>
       </c>
@@ -10844,7 +10889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>25</v>
       </c>
@@ -10872,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>26</v>
       </c>
@@ -10902,7 +10947,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>28</v>
       </c>
@@ -10932,7 +10977,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>97</v>
       </c>
@@ -10962,7 +11007,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>97</v>
       </c>
@@ -10990,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>97</v>
       </c>
@@ -11020,7 +11065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>99</v>
       </c>
@@ -11050,7 +11095,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>154</v>
       </c>
@@ -11080,7 +11125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>30</v>
       </c>
@@ -11091,7 +11136,7 @@
         <v>1.5</v>
       </c>
       <c r="D43" s="15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E43" s="117">
         <f>'Festkosten-Depotwert'!P47+'Festkosten-Depotwert'!D47</f>
@@ -11099,22 +11144,25 @@
       </c>
       <c r="F43" s="118">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" s="119">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H43" s="49">
         <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="131" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="50">
@@ -11139,19 +11187,22 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="J44" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="131" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
       </c>
       <c r="D45" s="15">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E45" s="117">
         <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
@@ -11159,18 +11210,21 @@
       </c>
       <c r="F45" s="118">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G45" s="120">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H45" s="49">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="121" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J45" s="121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>32</v>
       </c>
@@ -11198,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>34</v>
       </c>
@@ -11227,7 +11281,7 @@
       </c>
       <c r="I47" s="121"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>34</v>
       </c>
@@ -11256,18 +11310,18 @@
       </c>
       <c r="I48" s="126"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="131" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="50">
         <v>1.5</v>
       </c>
       <c r="D49" s="15">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E49" s="117">
         <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
@@ -11275,19 +11329,22 @@
       </c>
       <c r="F49" s="118">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G49" s="120">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="H49" s="49">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="I49" s="121"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>34</v>
       </c>
@@ -11316,18 +11373,18 @@
       </c>
       <c r="I50" s="121"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="131" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="50">
         <v>1</v>
       </c>
       <c r="D51" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E51" s="117">
         <f>'Festkosten-Depotwert'!P55+'Festkosten-Depotwert'!D55</f>
@@ -11335,19 +11392,19 @@
       </c>
       <c r="F51" s="118">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G51" s="120">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H51" s="49">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I51" s="121"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>116</v>
       </c>
@@ -11376,18 +11433,18 @@
       </c>
       <c r="I52" s="121"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="131" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="50">
         <v>2</v>
       </c>
       <c r="D53" s="15">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E53" s="117">
         <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
@@ -11395,19 +11452,22 @@
       </c>
       <c r="F53" s="118">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G53" s="120">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H53" s="49">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I53" s="121"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>71</v>
       </c>
@@ -11436,7 +11496,7 @@
       </c>
       <c r="I54" s="126"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>71</v>
       </c>
@@ -11465,7 +11525,7 @@
       </c>
       <c r="I55" s="121"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>152</v>
       </c>
@@ -11493,11 +11553,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="131" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="50">
@@ -11523,7 +11583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>37</v>
       </c>
@@ -11553,11 +11613,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="131" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="57">
@@ -11583,7 +11643,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>115</v>
       </c>
@@ -11611,18 +11671,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="131" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="57">
         <v>1.5</v>
       </c>
       <c r="D61" s="15">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E61" s="117">
         <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
@@ -11630,18 +11690,18 @@
       </c>
       <c r="F61" s="118">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G61" s="120">
         <f t="shared" si="1"/>
-        <v>127.5</v>
+        <v>150</v>
       </c>
       <c r="H61" s="49">
         <f t="shared" si="2"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>107</v>
       </c>
@@ -11669,18 +11729,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="131" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="57">
         <v>25</v>
       </c>
       <c r="D63" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" s="117">
         <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
@@ -11688,29 +11748,29 @@
       </c>
       <c r="F63" s="118">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G63" s="120">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H63" s="49">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="131" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="57">
         <v>50</v>
       </c>
       <c r="D64" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E64" s="117">
         <f>'Festkosten-Depotwert'!P68+'Festkosten-Depotwert'!D68</f>
@@ -11718,22 +11778,22 @@
       </c>
       <c r="F64" s="118">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="120">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="H64" s="49">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="131" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="57">
@@ -11758,9 +11818,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="I65" s="28" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="130" t="s">
         <v>111</v>
       </c>
       <c r="B66" s="49" t="s">
@@ -11770,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E66" s="117">
         <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
@@ -11778,22 +11841,22 @@
       </c>
       <c r="F66" s="118">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G66" s="119">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H66" s="49">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I66" s="28" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="130" t="s">
         <v>112</v>
       </c>
       <c r="B67" s="61" t="s">
@@ -11803,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="15">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E67" s="117">
         <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
@@ -11811,19 +11874,19 @@
       </c>
       <c r="F67" s="118">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G67" s="120">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H67" s="49">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="130" t="s">
         <v>112</v>
       </c>
       <c r="B68" s="49" t="s">
@@ -11879,6 +11942,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="132"/>
+      <c r="B73" s="28" t="s">
+        <v>170</v>
+      </c>
       <c r="D73" s="28" t="s">
         <v>95</v>
       </c>
@@ -11886,8 +11953,18 @@
         <v>151</v>
       </c>
     </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="133"/>
+      <c r="B74" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -12265,8 +12342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="172">
   <si>
     <t>Marke</t>
   </si>
@@ -578,13 +578,7 @@
     <t>Kiwisaft</t>
   </si>
   <si>
-    <t>Rotwein ???</t>
-  </si>
-  <si>
     <t>Glarea Nox 2014</t>
-  </si>
-  <si>
-    <t>&lt;-- beim Rotwein Bestand checken</t>
   </si>
   <si>
     <t>Verbrauch 212l 2013</t>
@@ -1472,13 +1466,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1947,7 +1941,7 @@
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
@@ -1986,7 +1980,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -9784,12 +9778,12 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="89" t="s">
@@ -9880,10 +9874,10 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11155,14 +11149,14 @@
         <v>66</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="130" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="50">
@@ -11188,14 +11182,14 @@
         <v>24</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="130" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="50">
@@ -11221,7 +11215,7 @@
         <v>80</v>
       </c>
       <c r="J45" s="121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
@@ -11311,10 +11305,10 @@
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="130" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="50">
@@ -11341,7 +11335,7 @@
       </c>
       <c r="I49" s="121"/>
       <c r="J49" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -11374,10 +11368,10 @@
       <c r="I50" s="121"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="131" t="s">
+      <c r="B51" s="130" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="50">
@@ -11434,10 +11428,10 @@
       <c r="I52" s="121"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="131" t="s">
+      <c r="A53" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="130" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="50">
@@ -11464,7 +11458,7 @@
       </c>
       <c r="I53" s="121"/>
       <c r="J53" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -11554,10 +11548,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="131" t="s">
+      <c r="B57" s="130" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="50">
@@ -11614,10 +11608,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="130" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="57">
@@ -11672,10 +11666,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="130" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="57">
@@ -11730,10 +11724,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="131" t="s">
+      <c r="A63" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="131" t="s">
+      <c r="B63" s="130" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="57">
@@ -11760,10 +11754,10 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="131" t="s">
+      <c r="A64" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="130" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="57">
@@ -11790,10 +11784,10 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="131" t="s">
+      <c r="B65" s="130" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="57">
@@ -11819,11 +11813,11 @@
         <v>10</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="130" t="s">
+      <c r="A66" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B66" s="49" t="s">
@@ -11833,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E66" s="117">
         <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
@@ -11841,22 +11835,19 @@
       </c>
       <c r="F66" s="118">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G66" s="119">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H66" s="49">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="129" t="s">
         <v>112</v>
       </c>
       <c r="B67" s="61" t="s">
@@ -11866,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="15">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E67" s="117">
         <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
@@ -11874,19 +11865,19 @@
       </c>
       <c r="F67" s="118">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G67" s="120">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H67" s="49">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="129" t="s">
         <v>112</v>
       </c>
       <c r="B68" s="49" t="s">
@@ -11942,9 +11933,9 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="132"/>
+      <c r="A73" s="131"/>
       <c r="B73" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>95</v>
@@ -11954,14 +11945,14 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="133"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -12340,10 +12331,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12355,26 +12346,21 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -9873,11 +9873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,7 +10312,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="D15" s="15">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E15" s="117">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
@@ -10320,15 +10320,15 @@
       </c>
       <c r="F15" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G15" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="2"/>
-        <v>49.500000000000007</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11040,7 +11040,7 @@
         <v>0.5</v>
       </c>
       <c r="D40" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="117">
         <f>'Festkosten-Depotwert'!P43+'Festkosten-Depotwert'!D43</f>
@@ -11048,15 +11048,15 @@
       </c>
       <c r="F40" s="118">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="120">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="117">
         <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
@@ -11566,15 +11566,15 @@
       </c>
       <c r="F57" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -12333,7 +12333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>Marke</t>
   </si>
@@ -1938,13 +1938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2293,31 +2293,31 @@
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="51">
-        <f t="shared" ref="F5:F73" si="6">E5/C5</f>
+        <f t="shared" ref="F5:F74" si="6">E5/C5</f>
         <v>0</v>
       </c>
       <c r="G5" s="52">
-        <f t="shared" ref="G5:G73" si="7">E5*D5</f>
+        <f t="shared" ref="G5:G74" si="7">E5*D5</f>
         <v>0</v>
       </c>
       <c r="H5" s="50">
-        <f t="shared" ref="H5:H73" si="8">C5*D5</f>
+        <f t="shared" ref="H5:H74" si="8">C5*D5</f>
         <v>0</v>
       </c>
       <c r="I5" s="24">
-        <f t="shared" ref="I5:I73" si="9">IF(O5&gt;P5,D5-O5+P5,D5)</f>
+        <f t="shared" ref="I5:I74" si="9">IF(O5&gt;P5,D5-O5+P5,D5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="53">
-        <f t="shared" ref="J5:J62" si="10">I5*E5</f>
+        <f t="shared" ref="J5:J63" si="10">I5*E5</f>
         <v>0</v>
       </c>
       <c r="K5" s="54">
-        <f t="shared" ref="K5:K62" si="11">D5-I5</f>
+        <f t="shared" ref="K5:K63" si="11">D5-I5</f>
         <v>0</v>
       </c>
       <c r="L5" s="125">
-        <f t="shared" ref="L5:L62" si="12">K5*E5</f>
+        <f t="shared" ref="L5:L63" si="12">K5*E5</f>
         <v>0</v>
       </c>
       <c r="M5" s="20"/>
@@ -2336,43 +2336,43 @@
         <v>6.7149999999999999</v>
       </c>
       <c r="R5" s="56">
-        <f t="shared" ref="R5:R69" si="15">Q5/C5</f>
+        <f t="shared" ref="R5:R70" si="15">Q5/C5</f>
         <v>6.7149999999999999</v>
       </c>
       <c r="S5" s="56">
-        <f t="shared" ref="S5:S69" si="16">Q5*P5</f>
+        <f t="shared" ref="S5:S70" si="16">Q5*P5</f>
         <v>36.932499999999997</v>
       </c>
       <c r="T5" s="57">
-        <f t="shared" ref="T5:T69" si="17">P5-V5</f>
+        <f t="shared" ref="T5:T70" si="17">P5-V5</f>
         <v>5.5</v>
       </c>
       <c r="U5" s="58">
-        <f t="shared" ref="U5:U69" si="18">T5*Q5</f>
+        <f t="shared" ref="U5:U70" si="18">T5*Q5</f>
         <v>36.932499999999997</v>
       </c>
       <c r="V5" s="24">
-        <f t="shared" ref="V5:V69" si="19">IF(O5&lt;P5,P5-O5,0)</f>
+        <f t="shared" ref="V5:V70" si="19">IF(O5&lt;P5,P5-O5,0)</f>
         <v>0</v>
       </c>
       <c r="W5" s="50">
-        <f t="shared" ref="W5:W69" si="20">V5*Q5</f>
+        <f t="shared" ref="W5:W70" si="20">V5*Q5</f>
         <v>0</v>
       </c>
       <c r="Y5" s="25">
-        <f t="shared" ref="Y5:Y73" si="21">V5+I5</f>
+        <f t="shared" ref="Y5:Y74" si="21">V5+I5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="26">
-        <f t="shared" ref="Z5:Z73" si="22">IF(ISERROR(((V5*Q5)+(I5*E5))/(I5+V5)),0,((V5*Q5)+(I5*E5))/(I5+V5))</f>
+        <f t="shared" ref="Z5:Z74" si="22">IF(ISERROR(((V5*Q5)+(I5*E5))/(I5+V5)),0,((V5*Q5)+(I5*E5))/(I5+V5))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="10">
-        <f t="shared" ref="AA5:AA73" si="23">Y5*C5</f>
+        <f t="shared" ref="AA5:AA74" si="23">Y5*C5</f>
         <v>0</v>
       </c>
       <c r="AB5" s="19">
-        <f t="shared" ref="AB5:AB73" si="24">Y5*Z5</f>
+        <f t="shared" ref="AB5:AB74" si="24">Y5*Z5</f>
         <v>0</v>
       </c>
     </row>
@@ -3538,19 +3538,23 @@
       <c r="C18" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="15">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.55</v>
+      </c>
       <c r="F18" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.6363636363636358</v>
       </c>
       <c r="G18" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H18" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="9"/>
@@ -3562,20 +3566,20 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L18" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="55">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O18" s="55">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="P18" s="17">
         <v>180</v>
@@ -3826,19 +3830,23 @@
       <c r="C21" s="57">
         <v>0.7</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="15">
+        <v>4</v>
+      </c>
+      <c r="E21" s="16">
+        <v>13.26</v>
+      </c>
       <c r="F21" s="51">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>18.942857142857143</v>
       </c>
       <c r="G21" s="52">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>53.04</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I21" s="24">
         <f t="shared" si="9"/>
@@ -3850,20 +3858,20 @@
       </c>
       <c r="K21" s="54">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" s="125">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>53.04</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="55">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" s="55">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21" s="17">
         <v>0</v>
@@ -4882,19 +4890,23 @@
       <c r="C32" s="57">
         <v>0.7</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="15">
+        <v>3</v>
+      </c>
+      <c r="E32" s="16">
+        <v>12.587999999999999</v>
+      </c>
       <c r="F32" s="51">
         <f t="shared" ref="F32" si="144">E32/C32</f>
-        <v>0</v>
+        <v>17.982857142857142</v>
       </c>
       <c r="G32" s="52">
         <f t="shared" ref="G32" si="145">E32*D32</f>
-        <v>0</v>
+        <v>37.763999999999996</v>
       </c>
       <c r="H32" s="50">
         <f t="shared" ref="H32" si="146">C32*D32</f>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="9"/>
@@ -4906,20 +4918,20 @@
       </c>
       <c r="K32" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="125">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>37.763999999999996</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="55">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O32" s="55">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P32" s="17">
         <v>1</v>
@@ -5362,19 +5374,23 @@
       <c r="C37" s="57">
         <v>0.02</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="15">
+        <v>100</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.42</v>
+      </c>
       <c r="F37" s="51">
         <f t="shared" ref="F37" si="174">E37/C37</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G37" s="52">
         <f t="shared" ref="G37" si="175">E37*D37</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H37" s="50">
         <f t="shared" ref="H37" si="176">C37*D37</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="24">
         <f t="shared" ref="I37" si="177">IF(O37&gt;P37,D37-O37+P37,D37)</f>
@@ -5386,20 +5402,20 @@
       </c>
       <c r="K37" s="54">
         <f t="shared" ref="K37" si="179">D37-I37</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37" s="125">
         <f t="shared" ref="L37" si="180">K37*E37</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M37" s="20"/>
       <c r="N37" s="55">
         <f t="shared" ref="N37" si="181">P37+D37</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O37" s="55">
         <f t="shared" ref="O37" si="182">N37-M37</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="P37" s="17">
         <v>50</v>
@@ -5554,19 +5570,23 @@
       <c r="C39" s="57">
         <v>0.75</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16">
+        <v>6.1050000000000004</v>
+      </c>
       <c r="F39" s="51">
         <f>E39/C39</f>
-        <v>0</v>
+        <v>8.14</v>
       </c>
       <c r="G39" s="52">
         <f>E39*D39</f>
-        <v>0</v>
+        <v>6.1050000000000004</v>
       </c>
       <c r="H39" s="50">
         <f>C39*D39</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I39" s="24">
         <f>IF(O39&gt;P39,D39-O39+P39,D39)</f>
@@ -5578,20 +5598,20 @@
       </c>
       <c r="K39" s="54">
         <f>D39-I39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="125">
         <f>K39*E39</f>
-        <v>0</v>
+        <v>6.1050000000000004</v>
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="55">
         <f>P39+D39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" s="55">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="17">
         <v>2</v>
@@ -5650,19 +5670,23 @@
       <c r="C40" s="57">
         <v>0.7</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
+      <c r="D40" s="15">
+        <v>8</v>
+      </c>
+      <c r="E40" s="16">
+        <v>6.9135</v>
+      </c>
       <c r="F40" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.8764285714285727</v>
       </c>
       <c r="G40" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>55.308</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I40" s="24">
         <f t="shared" si="9"/>
@@ -5674,20 +5698,20 @@
       </c>
       <c r="K40" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L40" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>55.308</v>
       </c>
       <c r="M40" s="20"/>
       <c r="N40" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O40" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P40" s="17">
         <v>0</v>
@@ -5746,19 +5770,23 @@
       <c r="C41" s="57">
         <v>0.7</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
+      <c r="D41" s="15">
+        <v>2</v>
+      </c>
+      <c r="E41" s="16">
+        <v>8.6280000000000001</v>
+      </c>
       <c r="F41" s="51">
         <f>E41/C41</f>
-        <v>0</v>
+        <v>12.325714285714287</v>
       </c>
       <c r="G41" s="52">
         <f>E41*D41</f>
-        <v>0</v>
+        <v>17.256</v>
       </c>
       <c r="H41" s="50">
         <f>C41*D41</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I41" s="24">
         <f>IF(O41&gt;P41,D41-O41+P41,D41)</f>
@@ -5770,20 +5798,20 @@
       </c>
       <c r="K41" s="54">
         <f>D41-I41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="125">
         <f>K41*E41</f>
-        <v>0</v>
+        <v>17.256</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="55">
         <f>P41+D41</f>
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O41" s="55">
-        <f t="shared" ref="O41:O47" si="189">N41-M41</f>
-        <v>1.25</v>
+        <f t="shared" ref="O41:O48" si="189">N41-M41</f>
+        <v>3.25</v>
       </c>
       <c r="P41" s="17">
         <v>1.25</v>
@@ -5874,7 +5902,7 @@
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="55">
-        <f t="shared" ref="N42:N47" si="190">P42+D42</f>
+        <f t="shared" ref="N42:N48" si="190">P42+D42</f>
         <v>0</v>
       </c>
       <c r="O42" s="55">
@@ -5938,19 +5966,23 @@
       <c r="C43" s="57">
         <v>0.5</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="15">
+        <v>4</v>
+      </c>
+      <c r="E43" s="16">
+        <v>4.6539999999999999</v>
+      </c>
       <c r="F43" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.3079999999999998</v>
       </c>
       <c r="G43" s="52">
         <f t="shared" ref="G43" si="191">E43*D43</f>
-        <v>0</v>
+        <v>18.616</v>
       </c>
       <c r="H43" s="50">
         <f t="shared" ref="H43" si="192">C43*D43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="24">
         <f t="shared" ref="I43" si="193">IF(O43&gt;P43,D43-O43+P43,D43)</f>
@@ -5962,20 +5994,20 @@
       </c>
       <c r="K43" s="54">
         <f t="shared" ref="K43" si="195">D43-I43</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" s="125">
         <f t="shared" ref="L43" si="196">K43*E43</f>
-        <v>0</v>
+        <v>18.616</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="55">
         <f t="shared" ref="N43" si="197">P43+D43</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O43" s="55">
         <f t="shared" ref="O43" si="198">N43-M43</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P43" s="17">
         <v>1</v>
@@ -6034,19 +6066,23 @@
       <c r="C44" s="57">
         <v>0.7</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16">
+        <v>7.2489999999999997</v>
+      </c>
       <c r="F44" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.355714285714287</v>
       </c>
       <c r="G44" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.2489999999999997</v>
       </c>
       <c r="H44" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I44" s="24">
         <f t="shared" si="9"/>
@@ -6058,20 +6094,20 @@
       </c>
       <c r="K44" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.2489999999999997</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="55">
         <f t="shared" si="190"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="55">
         <f t="shared" si="189"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="17">
         <v>0</v>
@@ -6218,27 +6254,31 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C46" s="57">
-        <v>1</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1.1879999999999999</v>
+      </c>
       <c r="F46" s="51">
         <f t="shared" ref="F46" si="217">E46/C46</f>
-        <v>0</v>
+        <v>1.5839999999999999</v>
       </c>
       <c r="G46" s="52">
         <f t="shared" ref="G46" si="218">E46*D46</f>
-        <v>0</v>
+        <v>3.5640000000000001</v>
       </c>
       <c r="H46" s="50">
         <f t="shared" ref="H46" si="219">C46*D46</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" ref="I46" si="220">IF(O46&gt;P46,D46-O46+P46,D46)</f>
@@ -6250,20 +6290,20 @@
       </c>
       <c r="K46" s="54">
         <f t="shared" ref="K46" si="222">D46-I46</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="125">
         <f t="shared" ref="L46" si="223">K46*E46</f>
-        <v>0</v>
+        <v>3.5640000000000001</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="55">
         <f t="shared" ref="N46" si="224">P46+D46</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46" s="55">
         <f t="shared" ref="O46" si="225">N46-M46</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P46" s="17">
         <v>0</v>
@@ -6314,97 +6354,97 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="C47" s="57">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="16"/>
       <c r="F47" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F47" si="236">E47/C47</f>
         <v>0</v>
       </c>
       <c r="G47" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G47" si="237">E47*D47</f>
         <v>0</v>
       </c>
       <c r="H47" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H47" si="238">C47*D47</f>
         <v>0</v>
       </c>
       <c r="I47" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I47" si="239">IF(O47&gt;P47,D47-O47+P47,D47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J47" si="240">I47*E47</f>
         <v>0</v>
       </c>
       <c r="K47" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K47" si="241">D47-I47</f>
         <v>0</v>
       </c>
       <c r="L47" s="125">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L47" si="242">K47*E47</f>
         <v>0</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="55">
-        <f t="shared" si="190"/>
-        <v>26</v>
+        <f t="shared" ref="N47" si="243">P47+D47</f>
+        <v>0</v>
       </c>
       <c r="O47" s="55">
-        <f t="shared" si="189"/>
-        <v>26</v>
+        <f t="shared" ref="O47" si="244">N47-M47</f>
+        <v>0</v>
       </c>
       <c r="P47" s="17">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="16">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="R47" s="56">
-        <f t="shared" si="15"/>
-        <v>1.32</v>
+        <f t="shared" ref="R47" si="245">Q47/C47</f>
+        <v>0</v>
       </c>
       <c r="S47" s="56">
-        <f t="shared" si="16"/>
-        <v>51.48</v>
+        <f t="shared" ref="S47" si="246">Q47*P47</f>
+        <v>0</v>
       </c>
       <c r="T47" s="57">
-        <f t="shared" si="17"/>
-        <v>26</v>
+        <f t="shared" ref="T47" si="247">P47-V47</f>
+        <v>0</v>
       </c>
       <c r="U47" s="58">
-        <f t="shared" si="18"/>
-        <v>51.48</v>
+        <f t="shared" ref="U47" si="248">T47*Q47</f>
+        <v>0</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="V47" si="249">IF(O47&lt;P47,P47-O47,0)</f>
         <v>0</v>
       </c>
       <c r="W47" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="W47" si="250">V47*Q47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="Y47" si="251">V47+I47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="Z47" si="252">IF(ISERROR(((V47*Q47)+(I47*E47))/(I47+V47)),0,((V47*Q47)+(I47*E47))/(I47+V47))</f>
         <v>0</v>
       </c>
       <c r="AA47" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AA47" si="253">Y47*C47</f>
         <v>0</v>
       </c>
       <c r="AB47" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AB47" si="254">Y47*Z47</f>
         <v>0</v>
       </c>
     </row>
@@ -6413,24 +6453,28 @@
         <v>30</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C48" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="15">
+        <v>18</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1.98</v>
+      </c>
       <c r="F48" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="G48" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>35.64</v>
       </c>
       <c r="H48" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I48" s="24">
         <f t="shared" si="9"/>
@@ -6442,42 +6486,42 @@
       </c>
       <c r="K48" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L48" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>35.64</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="55">
-        <f t="shared" ref="N48:N73" si="236">P48+D48</f>
-        <v>0</v>
+        <f t="shared" si="190"/>
+        <v>44</v>
       </c>
       <c r="O48" s="55">
-        <f t="shared" ref="O48:O73" si="237">N48-M48</f>
-        <v>0</v>
+        <f t="shared" si="189"/>
+        <v>44</v>
       </c>
       <c r="P48" s="17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q48" s="16">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R48" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S48" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>51.48</v>
       </c>
       <c r="T48" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U48" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>51.48</v>
       </c>
       <c r="V48" s="24">
         <f t="shared" si="19"/>
@@ -6506,13 +6550,13 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="57">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="16"/>
@@ -6546,11 +6590,11 @@
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="55">
-        <f t="shared" si="236"/>
+        <f t="shared" ref="N49:N74" si="255">P49+D49</f>
         <v>0</v>
       </c>
       <c r="O49" s="55">
-        <f t="shared" si="237"/>
+        <f t="shared" ref="O49:O74" si="256">N49-M49</f>
         <v>0</v>
       </c>
       <c r="P49" s="17">
@@ -6608,20 +6652,20 @@
         <v>33</v>
       </c>
       <c r="C50" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
       <c r="F50" s="51">
-        <f t="shared" ref="F50" si="238">E50/C50</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G50" s="52">
-        <f t="shared" ref="G50" si="239">E50*D50</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H50" s="50">
-        <f t="shared" ref="H50" si="240">C50*D50</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I50" s="24">
@@ -6629,24 +6673,24 @@
         <v>0</v>
       </c>
       <c r="J50" s="53">
-        <f t="shared" ref="J50" si="241">I50*E50</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K50" s="54">
-        <f t="shared" ref="K50" si="242">D50-I50</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L50" s="125">
-        <f t="shared" ref="L50" si="243">K50*E50</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="55">
-        <f t="shared" ref="N50" si="244">P50+D50</f>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="O50" s="55">
-        <f t="shared" ref="O50" si="245">N50-M50</f>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="P50" s="17">
@@ -6698,26 +6742,26 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" s="57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="16"/>
       <c r="F51" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F51" si="257">E51/C51</f>
         <v>0</v>
       </c>
       <c r="G51" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G51" si="258">E51*D51</f>
         <v>0</v>
       </c>
       <c r="H51" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H51" si="259">C51*D51</f>
         <v>0</v>
       </c>
       <c r="I51" s="24">
@@ -6725,24 +6769,24 @@
         <v>0</v>
       </c>
       <c r="J51" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J51" si="260">I51*E51</f>
         <v>0</v>
       </c>
       <c r="K51" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K51" si="261">D51-I51</f>
         <v>0</v>
       </c>
       <c r="L51" s="125">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L51" si="262">K51*E51</f>
         <v>0</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="55">
-        <f t="shared" si="236"/>
+        <f t="shared" ref="N51" si="263">P51+D51</f>
         <v>0</v>
       </c>
       <c r="O51" s="55">
-        <f t="shared" si="237"/>
+        <f t="shared" ref="O51" si="264">N51-M51</f>
         <v>0</v>
       </c>
       <c r="P51" s="17">
@@ -6800,7 +6844,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="57">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
@@ -6834,11 +6878,11 @@
       </c>
       <c r="M52" s="20"/>
       <c r="N52" s="55">
-        <f t="shared" si="236"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="O52" s="55">
-        <f t="shared" si="237"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="P52" s="17">
@@ -6896,7 +6940,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="57">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="16"/>
@@ -6917,24 +6961,24 @@
         <v>0</v>
       </c>
       <c r="J53" s="53">
-        <f t="shared" ref="J53" si="246">I53*E53</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K53" s="54">
-        <f t="shared" ref="K53" si="247">D53-I53</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L53" s="125">
-        <f t="shared" ref="L53" si="248">K53*E53</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="55">
-        <f t="shared" ref="N53:N58" si="249">P53+D53</f>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="O53" s="55">
-        <f t="shared" ref="O53:O58" si="250">N53-M53</f>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="P53" s="17">
@@ -6972,15 +7016,15 @@
         <v>0</v>
       </c>
       <c r="Z53" s="26">
-        <f t="shared" ref="Z53:Z65" si="251">IF(ISERROR(((V53*Q53)+(I53*E53))/(I53+V53)),0,((V53*Q53)+(I53*E53))/(I53+V53))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA53" s="10">
-        <f t="shared" ref="AA53:AA65" si="252">Y53*C53</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB53" s="19">
-        <f t="shared" ref="AB53:AB65" si="253">Y53*Z53</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -6992,45 +7036,45 @@
         <v>35</v>
       </c>
       <c r="C54" s="57">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
       <c r="F54" s="51">
-        <f t="shared" ref="F54" si="254">E54/C54</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G54" s="52">
-        <f t="shared" ref="G54" si="255">E54*D54</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H54" s="50">
-        <f t="shared" ref="H54" si="256">C54*D54</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I54" s="24">
-        <f t="shared" ref="I54" si="257">IF(O54&gt;P54,D54-O54+P54,D54)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J54" s="53">
-        <f t="shared" ref="J54" si="258">I54*E54</f>
+        <f t="shared" ref="J54" si="265">I54*E54</f>
         <v>0</v>
       </c>
       <c r="K54" s="54">
-        <f t="shared" ref="K54" si="259">D54-I54</f>
+        <f t="shared" ref="K54" si="266">D54-I54</f>
         <v>0</v>
       </c>
       <c r="L54" s="125">
-        <f t="shared" ref="L54" si="260">K54*E54</f>
+        <f t="shared" ref="L54" si="267">K54*E54</f>
         <v>0</v>
       </c>
       <c r="M54" s="20"/>
       <c r="N54" s="55">
-        <f t="shared" ref="N54" si="261">P54+D54</f>
+        <f t="shared" ref="N54:N59" si="268">P54+D54</f>
         <v>0</v>
       </c>
       <c r="O54" s="55">
-        <f t="shared" ref="O54" si="262">N54-M54</f>
+        <f t="shared" ref="O54:O59" si="269">N54-M54</f>
         <v>0</v>
       </c>
       <c r="P54" s="17">
@@ -7068,65 +7112,65 @@
         <v>0</v>
       </c>
       <c r="Z54" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" ref="Z54:Z66" si="270">IF(ISERROR(((V54*Q54)+(I54*E54))/(I54+V54)),0,((V54*Q54)+(I54*E54))/(I54+V54))</f>
         <v>0</v>
       </c>
       <c r="AA54" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" ref="AA54:AA66" si="271">Y54*C54</f>
         <v>0</v>
       </c>
       <c r="AB54" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" ref="AB54:AB66" si="272">Y54*Z54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C55" s="57">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
       <c r="F55" s="51">
-        <f t="shared" ref="F55:F56" si="263">E55/C55</f>
+        <f t="shared" ref="F55" si="273">E55/C55</f>
         <v>0</v>
       </c>
       <c r="G55" s="52">
-        <f t="shared" ref="G55" si="264">E55*D55</f>
+        <f t="shared" ref="G55" si="274">E55*D55</f>
         <v>0</v>
       </c>
       <c r="H55" s="50">
-        <f t="shared" ref="H55" si="265">C55*D55</f>
+        <f t="shared" ref="H55" si="275">C55*D55</f>
         <v>0</v>
       </c>
       <c r="I55" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I55" si="276">IF(O55&gt;P55,D55-O55+P55,D55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="53">
-        <f t="shared" ref="J55" si="266">I55*E55</f>
+        <f t="shared" ref="J55" si="277">I55*E55</f>
         <v>0</v>
       </c>
       <c r="K55" s="54">
-        <f t="shared" ref="K55" si="267">D55-I55</f>
+        <f t="shared" ref="K55" si="278">D55-I55</f>
         <v>0</v>
       </c>
       <c r="L55" s="125">
-        <f t="shared" ref="L55" si="268">K55*E55</f>
+        <f t="shared" ref="L55" si="279">K55*E55</f>
         <v>0</v>
       </c>
       <c r="M55" s="20"/>
       <c r="N55" s="55">
-        <f>P55+D55</f>
+        <f t="shared" ref="N55" si="280">P55+D55</f>
         <v>0</v>
       </c>
       <c r="O55" s="55">
-        <f>N55-M55</f>
+        <f t="shared" ref="O55" si="281">N55-M55</f>
         <v>0</v>
       </c>
       <c r="P55" s="17">
@@ -7164,15 +7208,15 @@
         <v>0</v>
       </c>
       <c r="Z55" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA55" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB55" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
@@ -7184,20 +7228,20 @@
         <v>116</v>
       </c>
       <c r="C56" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
       <c r="F56" s="51">
-        <f t="shared" si="263"/>
+        <f t="shared" ref="F56:F57" si="282">E56/C56</f>
         <v>0</v>
       </c>
       <c r="G56" s="52">
-        <f t="shared" ref="G56" si="269">E56*D56</f>
+        <f t="shared" ref="G56" si="283">E56*D56</f>
         <v>0</v>
       </c>
       <c r="H56" s="50">
-        <f t="shared" ref="H56" si="270">C56*D56</f>
+        <f t="shared" ref="H56" si="284">C56*D56</f>
         <v>0</v>
       </c>
       <c r="I56" s="24">
@@ -7205,15 +7249,15 @@
         <v>0</v>
       </c>
       <c r="J56" s="53">
-        <f t="shared" ref="J56" si="271">I56*E56</f>
+        <f t="shared" ref="J56" si="285">I56*E56</f>
         <v>0</v>
       </c>
       <c r="K56" s="54">
-        <f t="shared" ref="K56" si="272">D56-I56</f>
+        <f t="shared" ref="K56" si="286">D56-I56</f>
         <v>0</v>
       </c>
       <c r="L56" s="125">
-        <f t="shared" ref="L56" si="273">K56*E56</f>
+        <f t="shared" ref="L56" si="287">K56*E56</f>
         <v>0</v>
       </c>
       <c r="M56" s="20"/>
@@ -7260,24 +7304,24 @@
         <v>0</v>
       </c>
       <c r="Z56" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA56" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB56" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C57" s="57">
         <v>2</v>
@@ -7285,15 +7329,15 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
       <c r="F57" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="G57" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G57" si="288">E57*D57</f>
         <v>0</v>
       </c>
       <c r="H57" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H57" si="289">C57*D57</f>
         <v>0</v>
       </c>
       <c r="I57" s="24">
@@ -7301,24 +7345,24 @@
         <v>0</v>
       </c>
       <c r="J57" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J57" si="290">I57*E57</f>
         <v>0</v>
       </c>
       <c r="K57" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K57" si="291">D57-I57</f>
         <v>0</v>
       </c>
       <c r="L57" s="125">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L57" si="292">K57*E57</f>
         <v>0</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="55">
-        <f t="shared" si="249"/>
+        <f>P57+D57</f>
         <v>0</v>
       </c>
       <c r="O57" s="55">
-        <f t="shared" si="250"/>
+        <f>N57-M57</f>
         <v>0</v>
       </c>
       <c r="P57" s="17">
@@ -7356,15 +7400,15 @@
         <v>0</v>
       </c>
       <c r="Z57" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA57" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB57" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,7 +7420,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="57">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
@@ -7397,24 +7441,24 @@
         <v>0</v>
       </c>
       <c r="J58" s="53">
-        <f t="shared" ref="J58" si="274">I58*E58</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K58" s="54">
-        <f t="shared" ref="K58" si="275">D58-I58</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L58" s="125">
-        <f t="shared" ref="L58" si="276">K58*E58</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="55">
-        <f t="shared" si="249"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="O58" s="55">
-        <f t="shared" si="250"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="P58" s="17">
@@ -7452,15 +7496,15 @@
         <v>0</v>
       </c>
       <c r="Z58" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA58" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB58" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
@@ -7472,45 +7516,45 @@
         <v>70</v>
       </c>
       <c r="C59" s="57">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="16"/>
       <c r="F59" s="51">
-        <f t="shared" ref="F59" si="277">E59/C59</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G59" s="52">
-        <f t="shared" ref="G59" si="278">E59*D59</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H59" s="50">
-        <f t="shared" ref="H59" si="279">C59*D59</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I59" s="24">
-        <f t="shared" ref="I59" si="280">IF(O59&gt;P59,D59-O59+P59,D59)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J59" s="53">
-        <f t="shared" ref="J59" si="281">I59*E59</f>
+        <f t="shared" ref="J59" si="293">I59*E59</f>
         <v>0</v>
       </c>
       <c r="K59" s="54">
-        <f t="shared" ref="K59" si="282">D59-I59</f>
+        <f t="shared" ref="K59" si="294">D59-I59</f>
         <v>0</v>
       </c>
       <c r="L59" s="125">
-        <f t="shared" ref="L59" si="283">K59*E59</f>
+        <f t="shared" ref="L59" si="295">K59*E59</f>
         <v>0</v>
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="55">
-        <f t="shared" ref="N59" si="284">P59+D59</f>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="O59" s="55">
-        <f t="shared" ref="O59" si="285">N59-M59</f>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="P59" s="17">
@@ -7548,65 +7592,65 @@
         <v>0</v>
       </c>
       <c r="Z59" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA59" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB59" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="C60" s="57">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="16"/>
       <c r="F60" s="51">
-        <f t="shared" ref="F60" si="286">E60/C60</f>
+        <f t="shared" ref="F60" si="296">E60/C60</f>
         <v>0</v>
       </c>
       <c r="G60" s="52">
-        <f t="shared" ref="G60" si="287">E60*D60</f>
+        <f t="shared" ref="G60" si="297">E60*D60</f>
         <v>0</v>
       </c>
       <c r="H60" s="50">
-        <f t="shared" ref="H60" si="288">C60*D60</f>
+        <f t="shared" ref="H60" si="298">C60*D60</f>
         <v>0</v>
       </c>
       <c r="I60" s="24">
-        <f t="shared" ref="I60" si="289">IF(O60&gt;P60,D60-O60+P60,D60)</f>
+        <f t="shared" ref="I60" si="299">IF(O60&gt;P60,D60-O60+P60,D60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="53">
-        <f t="shared" ref="J60" si="290">I60*E60</f>
+        <f t="shared" ref="J60" si="300">I60*E60</f>
         <v>0</v>
       </c>
       <c r="K60" s="54">
-        <f t="shared" ref="K60" si="291">D60-I60</f>
+        <f t="shared" ref="K60" si="301">D60-I60</f>
         <v>0</v>
       </c>
       <c r="L60" s="125">
-        <f t="shared" ref="L60" si="292">K60*E60</f>
+        <f t="shared" ref="L60" si="302">K60*E60</f>
         <v>0</v>
       </c>
       <c r="M60" s="20"/>
       <c r="N60" s="55">
-        <f t="shared" ref="N60" si="293">P60+D60</f>
+        <f t="shared" ref="N60" si="303">P60+D60</f>
         <v>0</v>
       </c>
       <c r="O60" s="55">
-        <f t="shared" ref="O60" si="294">N60-M60</f>
+        <f t="shared" ref="O60" si="304">N60-M60</f>
         <v>0</v>
       </c>
       <c r="P60" s="17">
@@ -7620,144 +7664,144 @@
         <v>0</v>
       </c>
       <c r="S60" s="56">
-        <f t="shared" ref="S60" si="295">Q60*P60</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T60" s="57">
-        <f t="shared" ref="T60" si="296">P60-V60</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U60" s="58">
-        <f t="shared" ref="U60" si="297">T60*Q60</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V60" s="24">
-        <f t="shared" ref="V60" si="298">IF(O60&lt;P60,P60-O60,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W60" s="50">
-        <f t="shared" ref="W60" si="299">V60*Q60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y60" s="25">
-        <f t="shared" ref="Y60" si="300">V60+I60</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z60" s="26">
-        <f t="shared" ref="Z60" si="301">IF(ISERROR(((V60*Q60)+(I60*E60))/(I60+V60)),0,((V60*Q60)+(I60*E60))/(I60+V60))</f>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA60" s="10">
-        <f t="shared" ref="AA60" si="302">Y60*C60</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB60" s="19">
-        <f t="shared" ref="AB60" si="303">Y60*Z60</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C61" s="57">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="16"/>
       <c r="F61" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F61" si="305">E61/C61</f>
         <v>0</v>
       </c>
       <c r="G61" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G61" si="306">E61*D61</f>
         <v>0</v>
       </c>
       <c r="H61" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H61" si="307">C61*D61</f>
         <v>0</v>
       </c>
       <c r="I61" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I61" si="308">IF(O61&gt;P61,D61-O61+P61,D61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J61" si="309">I61*E61</f>
         <v>0</v>
       </c>
       <c r="K61" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K61" si="310">D61-I61</f>
         <v>0</v>
       </c>
       <c r="L61" s="125">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L61" si="311">K61*E61</f>
         <v>0</v>
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="55">
-        <f t="shared" si="236"/>
-        <v>2</v>
+        <f t="shared" ref="N61" si="312">P61+D61</f>
+        <v>0</v>
       </c>
       <c r="O61" s="55">
-        <f t="shared" si="237"/>
-        <v>2</v>
+        <f t="shared" ref="O61" si="313">N61-M61</f>
+        <v>0</v>
       </c>
       <c r="P61" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <v>2.2200000000000002</v>
+        <v>0</v>
       </c>
       <c r="R61" s="56">
         <f t="shared" si="15"/>
-        <v>2.2200000000000002</v>
+        <v>0</v>
       </c>
       <c r="S61" s="56">
-        <f t="shared" si="16"/>
-        <v>4.4400000000000004</v>
+        <f t="shared" ref="S61" si="314">Q61*P61</f>
+        <v>0</v>
       </c>
       <c r="T61" s="57">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" ref="T61" si="315">P61-V61</f>
+        <v>0</v>
       </c>
       <c r="U61" s="58">
-        <f t="shared" si="18"/>
-        <v>4.4400000000000004</v>
+        <f t="shared" ref="U61" si="316">T61*Q61</f>
+        <v>0</v>
       </c>
       <c r="V61" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="V61" si="317">IF(O61&lt;P61,P61-O61,0)</f>
         <v>0</v>
       </c>
       <c r="W61" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="W61" si="318">V61*Q61</f>
         <v>0</v>
       </c>
       <c r="Y61" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="Y61" si="319">V61+I61</f>
         <v>0</v>
       </c>
       <c r="Z61" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" ref="Z61" si="320">IF(ISERROR(((V61*Q61)+(I61*E61))/(I61+V61)),0,((V61*Q61)+(I61*E61))/(I61+V61))</f>
         <v>0</v>
       </c>
       <c r="AA61" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" ref="AA61" si="321">Y61*C61</f>
         <v>0</v>
       </c>
       <c r="AB61" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" ref="AB61" si="322">Y61*Z61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -7794,34 +7838,34 @@
       </c>
       <c r="M62" s="20"/>
       <c r="N62" s="55">
-        <f t="shared" si="236"/>
-        <v>0</v>
+        <f t="shared" si="255"/>
+        <v>2</v>
       </c>
       <c r="O62" s="55">
-        <f t="shared" si="237"/>
-        <v>0</v>
+        <f t="shared" si="256"/>
+        <v>2</v>
       </c>
       <c r="P62" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="16">
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="R62" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="S62" s="56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="T62" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U62" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="V62" s="24">
         <f t="shared" si="19"/>
@@ -7836,40 +7880,40 @@
         <v>0</v>
       </c>
       <c r="Z62" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA62" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB62" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C63" s="57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="16"/>
       <c r="F63" s="51">
-        <f t="shared" ref="F63:F72" si="304">E63/C63</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G63" s="52">
-        <f t="shared" ref="G63:G72" si="305">E63*D63</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H63" s="50">
-        <f t="shared" ref="H63:H72" si="306">C63*D63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I63" s="24">
@@ -7877,24 +7921,24 @@
         <v>0</v>
       </c>
       <c r="J63" s="53">
-        <f t="shared" ref="J63:J72" si="307">I63*E63</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K63" s="54">
-        <f t="shared" ref="K63:K72" si="308">D63-I63</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L63" s="125">
-        <f t="shared" ref="L63:L72" si="309">K63*E63</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M63" s="20"/>
       <c r="N63" s="55">
-        <f t="shared" ref="N63:N72" si="310">P63+D63</f>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="O63" s="55">
-        <f t="shared" ref="O63:O72" si="311">N63-M63</f>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="P63" s="17">
@@ -7932,40 +7976,40 @@
         <v>0</v>
       </c>
       <c r="Z63" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA63" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB63" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="49" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C64" s="57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="16"/>
       <c r="F64" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" ref="F64:F73" si="323">E64/C64</f>
         <v>0</v>
       </c>
       <c r="G64" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" ref="G64:G73" si="324">E64*D64</f>
         <v>0</v>
       </c>
       <c r="H64" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" ref="H64:H73" si="325">C64*D64</f>
         <v>0</v>
       </c>
       <c r="I64" s="24">
@@ -7973,24 +8017,24 @@
         <v>0</v>
       </c>
       <c r="J64" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" ref="J64:J73" si="326">I64*E64</f>
         <v>0</v>
       </c>
       <c r="K64" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" ref="K64:K73" si="327">D64-I64</f>
         <v>0</v>
       </c>
       <c r="L64" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" ref="L64:L73" si="328">K64*E64</f>
         <v>0</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="55">
-        <f t="shared" ref="N64:N71" si="312">P64+D64</f>
+        <f t="shared" ref="N64:N73" si="329">P64+D64</f>
         <v>0</v>
       </c>
       <c r="O64" s="55">
-        <f t="shared" ref="O64:O71" si="313">N64-M64</f>
+        <f t="shared" ref="O64:O73" si="330">N64-M64</f>
         <v>0</v>
       </c>
       <c r="P64" s="17">
@@ -8024,19 +8068,19 @@
         <v>0</v>
       </c>
       <c r="Y64" s="25">
-        <f t="shared" ref="Y64" si="314">V64+I64</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z64" s="26">
-        <f t="shared" ref="Z64" si="315">IF(ISERROR(((V64*Q64)+(I64*E64))/(I64+V64)),0,((V64*Q64)+(I64*E64))/(I64+V64))</f>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA64" s="10">
-        <f t="shared" ref="AA64" si="316">Y64*C64</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB64" s="19">
-        <f t="shared" ref="AB64" si="317">Y64*Z64</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
@@ -8048,20 +8092,20 @@
         <v>115</v>
       </c>
       <c r="C65" s="57">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="16"/>
       <c r="F65" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G65" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H65" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I65" s="24">
@@ -8069,24 +8113,24 @@
         <v>0</v>
       </c>
       <c r="J65" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K65" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L65" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" ref="N65:N72" si="331">P65+D65</f>
         <v>0</v>
       </c>
       <c r="O65" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" ref="O65:O72" si="332">N65-M65</f>
         <v>0</v>
       </c>
       <c r="P65" s="17">
@@ -8120,44 +8164,44 @@
         <v>0</v>
       </c>
       <c r="Y65" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="Y65" si="333">V65+I65</f>
         <v>0</v>
       </c>
       <c r="Z65" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" ref="Z65" si="334">IF(ISERROR(((V65*Q65)+(I65*E65))/(I65+V65)),0,((V65*Q65)+(I65*E65))/(I65+V65))</f>
         <v>0</v>
       </c>
       <c r="AA65" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" ref="AA65" si="335">Y65*C65</f>
         <v>0</v>
       </c>
       <c r="AB65" s="19">
-        <f t="shared" si="253"/>
+        <f t="shared" ref="AB65" si="336">Y65*Z65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C66" s="57">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
       <c r="F66" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G66" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H66" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I66" s="24">
@@ -8165,24 +8209,24 @@
         <v>0</v>
       </c>
       <c r="J66" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K66" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L66" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M66" s="20"/>
       <c r="N66" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O66" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P66" s="17">
@@ -8216,19 +8260,19 @@
         <v>0</v>
       </c>
       <c r="Y66" s="25">
-        <f t="shared" ref="Y66" si="318">V66+I66</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z66" s="26">
-        <f t="shared" ref="Z66" si="319">IF(ISERROR(((V66*Q66)+(I66*E66))/(I66+V66)),0,((V66*Q66)+(I66*E66))/(I66+V66))</f>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="AA66" s="10">
-        <f t="shared" ref="AA66" si="320">Y66*C66</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="AB66" s="19">
-        <f t="shared" ref="AB66" si="321">Y66*Z66</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
     </row>
@@ -8237,48 +8281,48 @@
         <v>107</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C67" s="57">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="16"/>
       <c r="F67" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G67" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H67" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I67" s="24">
-        <f>IF(O67&gt;P67,D67-O67+P67,D67)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J67" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K67" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L67" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O67" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P67" s="17">
@@ -8312,19 +8356,19 @@
         <v>0</v>
       </c>
       <c r="Y67" s="25">
-        <f t="shared" ref="Y67:Y72" si="322">V67+I67</f>
+        <f t="shared" ref="Y67" si="337">V67+I67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="26">
-        <f t="shared" ref="Z67:Z72" si="323">IF(ISERROR(((V67*Q67)+(I67*E67))/(I67+V67)),0,((V67*Q67)+(I67*E67))/(I67+V67))</f>
+        <f t="shared" ref="Z67" si="338">IF(ISERROR(((V67*Q67)+(I67*E67))/(I67+V67)),0,((V67*Q67)+(I67*E67))/(I67+V67))</f>
         <v>0</v>
       </c>
       <c r="AA67" s="10">
-        <f t="shared" ref="AA67:AA72" si="324">Y67*C67</f>
+        <f t="shared" ref="AA67" si="339">Y67*C67</f>
         <v>0</v>
       </c>
       <c r="AB67" s="19">
-        <f t="shared" ref="AB67:AB72" si="325">Y67*Z67</f>
+        <f t="shared" ref="AB67" si="340">Y67*Z67</f>
         <v>0</v>
       </c>
     </row>
@@ -8336,20 +8380,20 @@
         <v>108</v>
       </c>
       <c r="C68" s="57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="16"/>
       <c r="F68" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G68" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H68" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I68" s="24">
@@ -8357,24 +8401,24 @@
         <v>0</v>
       </c>
       <c r="J68" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K68" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L68" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O68" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P68" s="17">
@@ -8408,69 +8452,69 @@
         <v>0</v>
       </c>
       <c r="Y68" s="25">
-        <f t="shared" si="322"/>
+        <f t="shared" ref="Y68:Y73" si="341">V68+I68</f>
         <v>0</v>
       </c>
       <c r="Z68" s="26">
-        <f t="shared" si="323"/>
+        <f t="shared" ref="Z68:Z73" si="342">IF(ISERROR(((V68*Q68)+(I68*E68))/(I68+V68)),0,((V68*Q68)+(I68*E68))/(I68+V68))</f>
         <v>0</v>
       </c>
       <c r="AA68" s="10">
-        <f t="shared" si="324"/>
+        <f t="shared" ref="AA68:AA73" si="343">Y68*C68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="19">
-        <f t="shared" si="325"/>
+        <f t="shared" ref="AB68:AB73" si="344">Y68*Z68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="57">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="16"/>
       <c r="F69" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G69" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H69" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I69" s="24">
-        <f t="shared" si="9"/>
+        <f>IF(O69&gt;P69,D69-O69+P69,D69)</f>
         <v>0</v>
       </c>
       <c r="J69" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K69" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L69" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M69" s="20"/>
       <c r="N69" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O69" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P69" s="17">
@@ -8504,44 +8548,44 @@
         <v>0</v>
       </c>
       <c r="Y69" s="25">
-        <f t="shared" si="322"/>
+        <f t="shared" si="341"/>
         <v>0</v>
       </c>
       <c r="Z69" s="26">
-        <f t="shared" si="323"/>
+        <f t="shared" si="342"/>
         <v>0</v>
       </c>
       <c r="AA69" s="10">
-        <f t="shared" si="324"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AB69" s="19">
-        <f t="shared" si="325"/>
+        <f t="shared" si="344"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C70" s="57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="16"/>
       <c r="F70" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G70" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H70" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I70" s="24">
@@ -8549,24 +8593,24 @@
         <v>0</v>
       </c>
       <c r="J70" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K70" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L70" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M70" s="20"/>
       <c r="N70" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O70" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P70" s="17">
@@ -8576,49 +8620,49 @@
         <v>0</v>
       </c>
       <c r="R70" s="56">
-        <f t="shared" ref="R70:R73" si="326">Q70/C70</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S70" s="56">
-        <f t="shared" ref="S70:S73" si="327">Q70*P70</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T70" s="57">
-        <f t="shared" ref="T70:T73" si="328">P70-V70</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U70" s="58">
-        <f t="shared" ref="U70:U73" si="329">T70*Q70</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V70" s="24">
-        <f t="shared" ref="V70:V73" si="330">IF(O70&lt;P70,P70-O70,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W70" s="50">
-        <f t="shared" ref="W70:W73" si="331">V70*Q70</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y70" s="25">
-        <f t="shared" si="322"/>
+        <f t="shared" si="341"/>
         <v>0</v>
       </c>
       <c r="Z70" s="26">
-        <f t="shared" si="323"/>
+        <f t="shared" si="342"/>
         <v>0</v>
       </c>
       <c r="AA70" s="10">
-        <f t="shared" si="324"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AB70" s="19">
-        <f t="shared" si="325"/>
+        <f t="shared" si="344"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="49" t="s">
         <v>120</v>
@@ -8629,15 +8673,15 @@
       <c r="D71" s="15"/>
       <c r="E71" s="16"/>
       <c r="F71" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G71" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H71" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I71" s="24">
@@ -8645,24 +8689,24 @@
         <v>0</v>
       </c>
       <c r="J71" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K71" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L71" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="55">
-        <f t="shared" si="312"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O71" s="55">
-        <f t="shared" si="313"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P71" s="17">
@@ -8672,43 +8716,43 @@
         <v>0</v>
       </c>
       <c r="R71" s="56">
-        <f t="shared" si="326"/>
+        <f t="shared" ref="R71:R74" si="345">Q71/C71</f>
         <v>0</v>
       </c>
       <c r="S71" s="56">
-        <f t="shared" si="327"/>
+        <f t="shared" ref="S71:S74" si="346">Q71*P71</f>
         <v>0</v>
       </c>
       <c r="T71" s="57">
-        <f t="shared" si="328"/>
+        <f t="shared" ref="T71:T74" si="347">P71-V71</f>
         <v>0</v>
       </c>
       <c r="U71" s="58">
-        <f t="shared" si="329"/>
+        <f t="shared" ref="U71:U74" si="348">T71*Q71</f>
         <v>0</v>
       </c>
       <c r="V71" s="24">
-        <f t="shared" si="330"/>
+        <f t="shared" ref="V71:V74" si="349">IF(O71&lt;P71,P71-O71,0)</f>
         <v>0</v>
       </c>
       <c r="W71" s="50">
-        <f t="shared" si="331"/>
+        <f t="shared" ref="W71:W74" si="350">V71*Q71</f>
         <v>0</v>
       </c>
       <c r="Y71" s="25">
-        <f t="shared" ref="Y71" si="332">V71+I71</f>
+        <f t="shared" si="341"/>
         <v>0</v>
       </c>
       <c r="Z71" s="26">
-        <f t="shared" ref="Z71" si="333">IF(ISERROR(((V71*Q71)+(I71*E71))/(I71+V71)),0,((V71*Q71)+(I71*E71))/(I71+V71))</f>
+        <f t="shared" si="342"/>
         <v>0</v>
       </c>
       <c r="AA71" s="10">
-        <f t="shared" ref="AA71" si="334">Y71*C71</f>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AB71" s="19">
-        <f t="shared" ref="AB71" si="335">Y71*Z71</f>
+        <f t="shared" si="344"/>
         <v>0</v>
       </c>
     </row>
@@ -8720,20 +8764,20 @@
         <v>120</v>
       </c>
       <c r="C72" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="16"/>
       <c r="F72" s="51">
-        <f t="shared" si="304"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G72" s="52">
-        <f t="shared" si="305"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H72" s="50">
-        <f t="shared" si="306"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I72" s="24">
@@ -8741,24 +8785,24 @@
         <v>0</v>
       </c>
       <c r="J72" s="53">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K72" s="54">
-        <f t="shared" si="308"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L72" s="125">
-        <f t="shared" si="309"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M72" s="20"/>
       <c r="N72" s="55">
-        <f t="shared" si="310"/>
+        <f t="shared" si="331"/>
         <v>0</v>
       </c>
       <c r="O72" s="55">
-        <f t="shared" si="311"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="P72" s="17">
@@ -8768,68 +8812,68 @@
         <v>0</v>
       </c>
       <c r="R72" s="56">
-        <f t="shared" si="326"/>
+        <f t="shared" si="345"/>
         <v>0</v>
       </c>
       <c r="S72" s="56">
-        <f t="shared" si="327"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="T72" s="57">
-        <f t="shared" si="328"/>
+        <f t="shared" si="347"/>
         <v>0</v>
       </c>
       <c r="U72" s="58">
-        <f t="shared" si="329"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="V72" s="24">
-        <f t="shared" si="330"/>
+        <f t="shared" si="349"/>
         <v>0</v>
       </c>
       <c r="W72" s="50">
-        <f t="shared" si="331"/>
+        <f t="shared" si="350"/>
         <v>0</v>
       </c>
       <c r="Y72" s="25">
-        <f t="shared" si="322"/>
+        <f t="shared" ref="Y72" si="351">V72+I72</f>
         <v>0</v>
       </c>
       <c r="Z72" s="26">
-        <f t="shared" si="323"/>
+        <f t="shared" ref="Z72" si="352">IF(ISERROR(((V72*Q72)+(I72*E72))/(I72+V72)),0,((V72*Q72)+(I72*E72))/(I72+V72))</f>
         <v>0</v>
       </c>
       <c r="AA72" s="10">
-        <f t="shared" si="324"/>
+        <f t="shared" ref="AA72" si="353">Y72*C72</f>
         <v>0</v>
       </c>
       <c r="AB72" s="19">
-        <f t="shared" si="325"/>
+        <f t="shared" ref="AB72" si="354">Y72*Z72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="50">
-        <v>0.25</v>
+        <v>120</v>
+      </c>
+      <c r="C73" s="57">
+        <v>2</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="G73" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="H73" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="I73" s="24">
@@ -8837,24 +8881,24 @@
         <v>0</v>
       </c>
       <c r="J73" s="53">
-        <f t="shared" ref="J73" si="336">I73*E73</f>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="K73" s="54">
-        <f t="shared" ref="K73" si="337">D73-I73</f>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="L73" s="125">
-        <f t="shared" ref="L73" si="338">K73*E73</f>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="M73" s="20"/>
       <c r="N73" s="55">
-        <f t="shared" si="236"/>
+        <f t="shared" si="329"/>
         <v>0</v>
       </c>
       <c r="O73" s="55">
-        <f t="shared" si="237"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="P73" s="17">
@@ -8864,130 +8908,190 @@
         <v>0</v>
       </c>
       <c r="R73" s="56">
-        <f t="shared" si="326"/>
+        <f t="shared" si="345"/>
         <v>0</v>
       </c>
       <c r="S73" s="56">
-        <f t="shared" si="327"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="T73" s="57">
-        <f t="shared" si="328"/>
+        <f t="shared" si="347"/>
         <v>0</v>
       </c>
       <c r="U73" s="58">
-        <f t="shared" si="329"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="V73" s="24">
-        <f t="shared" si="330"/>
+        <f t="shared" si="349"/>
         <v>0</v>
       </c>
       <c r="W73" s="50">
-        <f t="shared" si="331"/>
+        <f t="shared" si="350"/>
         <v>0</v>
       </c>
       <c r="Y73" s="25">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="26">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="10">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="19">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="53">
+        <f t="shared" ref="J74" si="355">I74*E74</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="54">
+        <f t="shared" ref="K74" si="356">D74-I74</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="125">
+        <f t="shared" ref="L74" si="357">K74*E74</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="20"/>
+      <c r="N74" s="55">
+        <f t="shared" si="255"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="55">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="16">
+        <v>0</v>
+      </c>
+      <c r="R74" s="56">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="56">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="57">
+        <f t="shared" si="347"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="58">
+        <f t="shared" si="348"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="24">
+        <f t="shared" si="349"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="50">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="26">
+      <c r="Z74" s="26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="10">
+      <c r="AA74" s="10">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AB73" s="19">
+      <c r="AB74" s="19">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="60">
-        <f>SUM(G3:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="50"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62">
-        <f>SUM(J3:J73)</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="63"/>
-      <c r="L74" s="64">
-        <f>SUM(L3:L73)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="65"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="68">
-        <f>SUM(S3:S73)</f>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="60">
+        <f>SUM(G3:G74)</f>
+        <v>313.74200000000002</v>
+      </c>
+      <c r="H75" s="50"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="62">
+        <f>SUM(J3:J74)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="63"/>
+      <c r="L75" s="64">
+        <f>SUM(L3:L74)</f>
+        <v>313.74200000000002</v>
+      </c>
+      <c r="M75" s="65"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="67"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="68">
+        <f>SUM(S3:S74)</f>
         <v>1489.8148020000003</v>
       </c>
-      <c r="T74" s="57"/>
-      <c r="U74" s="69">
-        <f>SUM(U3:U73)</f>
+      <c r="T75" s="57"/>
+      <c r="U75" s="69">
+        <f>SUM(U3:U74)</f>
         <v>1489.8148020000003</v>
       </c>
-      <c r="V74" s="50"/>
-      <c r="W74" s="70">
-        <f>SUM(W3:W73)</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="23">
-        <f>SUM(AB3:AB73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="T75" s="34"/>
-      <c r="U75" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="Y75" t="s">
-        <v>89</v>
+      <c r="V75" s="50"/>
+      <c r="W75" s="70">
+        <f>SUM(W3:W74)</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="23">
+        <f>SUM(AB3:AB74)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -8997,27 +9101,38 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="30"/>
-      <c r="G76" s="28"/>
+      <c r="G76" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="H76" s="28"/>
       <c r="I76" s="29"/>
       <c r="J76" s="28"/>
       <c r="K76" s="31"/>
-      <c r="L76" s="32"/>
+      <c r="L76" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="M76" s="32"/>
       <c r="N76" s="32"/>
       <c r="O76" s="32"/>
       <c r="P76" s="33"/>
       <c r="Q76" s="29"/>
       <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
+      <c r="S76" s="71" t="s">
+        <v>69</v>
+      </c>
       <c r="T76" s="34"/>
       <c r="U76" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V76" s="36"/>
       <c r="W76" s="36"/>
-    </row>
-    <row r="77" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Y76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
@@ -9028,11 +9143,19 @@
       <c r="J77" s="28"/>
       <c r="K77" s="31"/>
       <c r="L77" s="32"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="73"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="33"/>
       <c r="Q77" s="29"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
     </row>
     <row r="78" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C78" s="28"/>
@@ -9042,81 +9165,64 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="L78" s="72" t="s">
-        <v>49</v>
-      </c>
+      <c r="J78" s="28"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="32"/>
       <c r="M78" s="72"/>
       <c r="N78" s="72"/>
       <c r="O78" s="72"/>
       <c r="P78" s="73"/>
       <c r="Q78" s="29"/>
-      <c r="U78" s="6"/>
     </row>
     <row r="79" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C79" s="28"/>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
       <c r="F79" s="30"/>
-      <c r="G79" s="128"/>
+      <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="29"/>
       <c r="J79" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K79" s="72" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L79" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="M79" s="72"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="73"/>
       <c r="Q79" s="29"/>
       <c r="U79" s="6"/>
     </row>
     <row r="80" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
       <c r="F80" s="30"/>
-      <c r="G80" s="29"/>
+      <c r="G80" s="128"/>
       <c r="H80" s="28"/>
       <c r="I80" s="29"/>
-      <c r="J80" s="18">
-        <v>1489.81</v>
-      </c>
-      <c r="K80" s="75">
-        <f>J74+W74</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="75">
-        <f>L74+U74</f>
-        <v>1489.8148020000003</v>
-      </c>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
+      <c r="J80" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="K80" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="M80" s="75"/>
+      <c r="N80" s="75"/>
+      <c r="O80" s="75"/>
       <c r="P80" s="33"/>
       <c r="Q80" s="29"/>
       <c r="U80" s="6"/>
-      <c r="V80" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -9126,52 +9232,58 @@
       <c r="G81" s="29"/>
       <c r="H81" s="28"/>
       <c r="I81" s="29"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="32"/>
+      <c r="J81" s="18">
+        <v>1489.81</v>
+      </c>
+      <c r="K81" s="75">
+        <f>J75+W75</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="75">
+        <f>L75+U75</f>
+        <v>1803.5568020000003</v>
+      </c>
       <c r="M81" s="32"/>
       <c r="N81" s="32"/>
       <c r="O81" s="32"/>
       <c r="P81" s="33"/>
       <c r="Q81" s="29"/>
+      <c r="U81" s="6"/>
       <c r="V81" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
-        <v>143</v>
-      </c>
+      <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="30"/>
-      <c r="G82" s="28"/>
+      <c r="G82" s="29"/>
       <c r="H82" s="28"/>
       <c r="I82" s="29"/>
       <c r="J82" s="28"/>
       <c r="K82" s="31"/>
       <c r="L82" s="32"/>
-      <c r="M82" s="76" t="s">
-        <v>85</v>
-      </c>
+      <c r="M82" s="32"/>
       <c r="N82" s="32"/>
       <c r="O82" s="32"/>
-      <c r="P82" s="77" t="s">
-        <v>83</v>
-      </c>
+      <c r="P82" s="33"/>
       <c r="Q82" s="29"/>
       <c r="V82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
-        <v>144</v>
+      <c r="A83" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -9181,19 +9293,26 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="29"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="79" t="s">
-        <v>56</v>
-      </c>
+      <c r="J83" s="28"/>
+      <c r="K83" s="31"/>
       <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
+      <c r="M83" s="76" t="s">
+        <v>85</v>
+      </c>
       <c r="N83" s="32"/>
       <c r="O83" s="32"/>
-      <c r="P83" s="33"/>
+      <c r="P83" s="77" t="s">
+        <v>83</v>
+      </c>
       <c r="Q83" s="29"/>
+      <c r="V83" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
+      <c r="A84" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="29"/>
@@ -9202,12 +9321,9 @@
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="29"/>
-      <c r="J84" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="K84" s="81">
-        <f>J80</f>
-        <v>1489.81</v>
+      <c r="J84" s="78"/>
+      <c r="K84" s="79" t="s">
+        <v>56</v>
       </c>
       <c r="L84" s="32"/>
       <c r="M84" s="32"/>
@@ -9227,11 +9343,11 @@
       <c r="H85" s="28"/>
       <c r="I85" s="29"/>
       <c r="J85" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K85" s="81">
-        <f>+G74</f>
-        <v>0</v>
+        <f>J81</f>
+        <v>1489.81</v>
       </c>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
@@ -9250,12 +9366,12 @@
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="29"/>
-      <c r="J86" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="K86" s="83">
-        <f>-L80</f>
-        <v>-1489.8148020000003</v>
+      <c r="J86" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="K86" s="81">
+        <f>+G75</f>
+        <v>313.74200000000002</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9274,12 +9390,12 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="29"/>
-      <c r="J87" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="K87" s="81">
-        <f>K84+K85+K86</f>
-        <v>-4.8020000003816676E-3</v>
+      <c r="J87" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="K87" s="83">
+        <f>-L81</f>
+        <v>-1803.5568020000003</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -9298,8 +9414,13 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="29"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="84"/>
+      <c r="J88" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" s="81">
+        <f>K85+K86+K87</f>
+        <v>-4.8020000003816676E-3</v>
+      </c>
       <c r="L88" s="32"/>
       <c r="M88" s="32"/>
       <c r="N88" s="32"/>
@@ -9355,9 +9476,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="29"/>
-      <c r="J91" s="28" t="s">
-        <v>142</v>
-      </c>
+      <c r="J91" s="28"/>
       <c r="K91" s="84"/>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -9376,8 +9495,10 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="29"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="31"/>
+      <c r="J92" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92" s="84"/>
       <c r="L92" s="32"/>
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
@@ -9670,8 +9791,26 @@
       <c r="P107" s="33"/>
       <c r="Q107" s="29"/>
     </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="29"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState ref="A2:D10">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
@@ -9738,19 +9877,19 @@
     </row>
     <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="97">
-        <f>'Festkosten-Depotwert'!J80</f>
+        <f>'Festkosten-Depotwert'!J81</f>
         <v>1489.81</v>
       </c>
       <c r="C6" s="98">
-        <f>'Festkosten-Depotwert'!G74</f>
-        <v>0</v>
+        <f>'Festkosten-Depotwert'!G75</f>
+        <v>313.74200000000002</v>
       </c>
       <c r="D6" s="99">
-        <f>'Festkosten-Depotwert'!L80</f>
-        <v>1489.8148020000003</v>
+        <f>'Festkosten-Depotwert'!L81</f>
+        <v>1803.5568020000003</v>
       </c>
       <c r="E6" s="100">
-        <f>'Festkosten-Depotwert'!K80</f>
+        <f>'Festkosten-Depotwert'!K81</f>
         <v>0</v>
       </c>
     </row>
@@ -9816,18 +9955,18 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>0</v>
+        <v>313.74200000000002</v>
       </c>
       <c r="C20" s="99">
-        <f>'Festkosten-Depotwert'!L74</f>
-        <v>0</v>
+        <f>'Festkosten-Depotwert'!L75</f>
+        <v>313.74200000000002</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
         <v>0</v>
       </c>
       <c r="E20" s="109">
-        <f>'Festkosten-Depotwert'!U74</f>
+        <f>'Festkosten-Depotwert'!U75</f>
         <v>1489.8148020000003</v>
       </c>
     </row>
@@ -9873,11 +10012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10316,15 +10455,15 @@
       </c>
       <c r="E15" s="117">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F15" s="118">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G15" s="120">
         <f t="shared" si="1"/>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="2"/>
@@ -10406,15 +10545,15 @@
       </c>
       <c r="E18" s="117">
         <f>'Festkosten-Depotwert'!P21+'Festkosten-Depotwert'!D21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="118">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="119">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="49">
         <f t="shared" si="2"/>
@@ -10726,15 +10865,15 @@
       </c>
       <c r="E29" s="117">
         <f>'Festkosten-Depotwert'!P32+'Festkosten-Depotwert'!D32</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="118">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="120">
         <f t="shared" si="1"/>
-        <v>2.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H29" s="49">
         <f t="shared" si="2"/>
@@ -10868,15 +11007,15 @@
       </c>
       <c r="E34" s="117">
         <f>'Festkosten-Depotwert'!P37+'Festkosten-Depotwert'!D37</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F34" s="118">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G34" s="119">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" s="49">
         <f t="shared" si="2"/>
@@ -10926,15 +11065,15 @@
       </c>
       <c r="E36" s="117">
         <f>'Festkosten-Depotwert'!P39+'Festkosten-Depotwert'!D39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="118">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="120">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H36" s="49">
         <f t="shared" si="2"/>
@@ -10956,15 +11095,15 @@
       </c>
       <c r="E37" s="117">
         <f>'Festkosten-Depotwert'!P40+'Festkosten-Depotwert'!D40</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F37" s="118">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G37" s="120">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H37" s="49">
         <f t="shared" si="2"/>
@@ -10986,15 +11125,15 @@
       </c>
       <c r="E38" s="117">
         <f>'Festkosten-Depotwert'!P41+'Festkosten-Depotwert'!D41</f>
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="F38" s="118">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G38" s="119">
         <f t="shared" si="1"/>
-        <v>1.2249999999999999</v>
+        <v>0</v>
       </c>
       <c r="H38" s="49">
         <f t="shared" si="2"/>
@@ -11044,15 +11183,15 @@
       </c>
       <c r="E40" s="117">
         <f>'Festkosten-Depotwert'!P43+'Festkosten-Depotwert'!D43</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" s="118">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" s="120">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" s="49">
         <f t="shared" si="2"/>
@@ -11074,15 +11213,15 @@
       </c>
       <c r="E41" s="117">
         <f>'Festkosten-Depotwert'!P44+'Festkosten-Depotwert'!D44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="118">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="120">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H41" s="49">
         <f t="shared" si="2"/>
@@ -11133,16 +11272,16 @@
         <v>44</v>
       </c>
       <c r="E43" s="117">
-        <f>'Festkosten-Depotwert'!P47+'Festkosten-Depotwert'!D47</f>
-        <v>26</v>
+        <f>'Festkosten-Depotwert'!P48+'Festkosten-Depotwert'!D48</f>
+        <v>44</v>
       </c>
       <c r="F43" s="118">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G43" s="119">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H43" s="49">
         <f t="shared" si="2"/>
@@ -11166,7 +11305,7 @@
         <v>96</v>
       </c>
       <c r="E44" s="117">
-        <f>'Festkosten-Depotwert'!P48+'Festkosten-Depotwert'!D48</f>
+        <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
         <v>0</v>
       </c>
       <c r="F44" s="118">
@@ -11199,7 +11338,7 @@
         <v>80</v>
       </c>
       <c r="E45" s="117">
-        <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
+        <f>'Festkosten-Depotwert'!P50+'Festkosten-Depotwert'!D50</f>
         <v>0</v>
       </c>
       <c r="F45" s="118">
@@ -11230,7 +11369,7 @@
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="117">
-        <f>'Festkosten-Depotwert'!P50+'Festkosten-Depotwert'!D50</f>
+        <f>'Festkosten-Depotwert'!P51+'Festkosten-Depotwert'!D51</f>
         <v>0</v>
       </c>
       <c r="F46" s="118">
@@ -11258,7 +11397,7 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="117">
-        <f>'Festkosten-Depotwert'!P51+'Festkosten-Depotwert'!D51</f>
+        <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
         <v>0</v>
       </c>
       <c r="F47" s="118">
@@ -11287,7 +11426,7 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="117">
-        <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
+        <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
         <v>0</v>
       </c>
       <c r="F48" s="118">
@@ -11318,7 +11457,7 @@
         <v>170</v>
       </c>
       <c r="E49" s="117">
-        <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
+        <f>'Festkosten-Depotwert'!P54+'Festkosten-Depotwert'!D54</f>
         <v>0</v>
       </c>
       <c r="F49" s="118">
@@ -11350,7 +11489,7 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="117">
-        <f>'Festkosten-Depotwert'!P54+'Festkosten-Depotwert'!D54</f>
+        <f>'Festkosten-Depotwert'!P55+'Festkosten-Depotwert'!D55</f>
         <v>0</v>
       </c>
       <c r="F50" s="118">
@@ -11381,7 +11520,7 @@
         <v>30</v>
       </c>
       <c r="E51" s="117">
-        <f>'Festkosten-Depotwert'!P55+'Festkosten-Depotwert'!D55</f>
+        <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
         <v>0</v>
       </c>
       <c r="F51" s="118">
@@ -11410,7 +11549,7 @@
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="117">
-        <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
+        <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
         <v>0</v>
       </c>
       <c r="F52" s="118">
@@ -11441,7 +11580,7 @@
         <v>50</v>
       </c>
       <c r="E53" s="117">
-        <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
+        <f>'Festkosten-Depotwert'!P58+'Festkosten-Depotwert'!D58</f>
         <v>0</v>
       </c>
       <c r="F53" s="118">
@@ -11473,7 +11612,7 @@
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="117">
-        <f>'Festkosten-Depotwert'!P58+'Festkosten-Depotwert'!D58</f>
+        <f>'Festkosten-Depotwert'!P59+'Festkosten-Depotwert'!D59</f>
         <v>0</v>
       </c>
       <c r="F54" s="118">
@@ -11502,7 +11641,7 @@
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="117">
-        <f>'Festkosten-Depotwert'!P59+'Festkosten-Depotwert'!D59</f>
+        <f>'Festkosten-Depotwert'!P60+'Festkosten-Depotwert'!D60</f>
         <v>0</v>
       </c>
       <c r="F55" s="118">
@@ -11531,7 +11670,7 @@
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="117">
-        <f>'Festkosten-Depotwert'!P60+'Festkosten-Depotwert'!D60</f>
+        <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
         <v>0</v>
       </c>
       <c r="F56" s="118">
@@ -11561,7 +11700,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="117">
-        <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
+        <f>'Festkosten-Depotwert'!P62+'Festkosten-Depotwert'!D62</f>
         <v>2</v>
       </c>
       <c r="F57" s="118">
@@ -11591,7 +11730,7 @@
         <v>30</v>
       </c>
       <c r="E58" s="117">
-        <f>'Festkosten-Depotwert'!P62+'Festkosten-Depotwert'!D62</f>
+        <f>'Festkosten-Depotwert'!P63+'Festkosten-Depotwert'!D63</f>
         <v>0</v>
       </c>
       <c r="F58" s="118">
@@ -11621,7 +11760,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="117">
-        <f>'Festkosten-Depotwert'!P63+'Festkosten-Depotwert'!D63</f>
+        <f>'Festkosten-Depotwert'!P64+'Festkosten-Depotwert'!D64</f>
         <v>0</v>
       </c>
       <c r="F59" s="118">
@@ -11649,7 +11788,7 @@
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="117">
-        <f>'Festkosten-Depotwert'!P64+'Festkosten-Depotwert'!D64</f>
+        <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
         <v>0</v>
       </c>
       <c r="F60" s="118">
@@ -11679,7 +11818,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="117">
-        <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
+        <f>'Festkosten-Depotwert'!P66+'Festkosten-Depotwert'!D66</f>
         <v>0</v>
       </c>
       <c r="F61" s="118">
@@ -11707,7 +11846,7 @@
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="117">
-        <f>'Festkosten-Depotwert'!P66+'Festkosten-Depotwert'!D66</f>
+        <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
         <v>0</v>
       </c>
       <c r="F62" s="118">
@@ -11737,7 +11876,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="117">
-        <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
+        <f>'Festkosten-Depotwert'!P68+'Festkosten-Depotwert'!D68</f>
         <v>0</v>
       </c>
       <c r="F63" s="118">
@@ -11767,7 +11906,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="117">
-        <f>'Festkosten-Depotwert'!P68+'Festkosten-Depotwert'!D68</f>
+        <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
         <v>0</v>
       </c>
       <c r="F64" s="118">
@@ -11797,7 +11936,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="117">
-        <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
+        <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
         <v>0</v>
       </c>
       <c r="F65" s="118">
@@ -11830,7 +11969,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="117">
-        <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
+        <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
         <v>0</v>
       </c>
       <c r="F66" s="118">
@@ -11860,7 +11999,7 @@
         <v>110</v>
       </c>
       <c r="E67" s="117">
-        <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
+        <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
         <v>0</v>
       </c>
       <c r="F67" s="118">
@@ -11888,7 +12027,7 @@
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="117">
-        <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
+        <f>'Festkosten-Depotwert'!P73+'Festkosten-Depotwert'!D73</f>
         <v>0</v>
       </c>
       <c r="F68" s="118">
@@ -11916,7 +12055,7 @@
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="117">
-        <f>'Festkosten-Depotwert'!P73+'Festkosten-Depotwert'!D73</f>
+        <f>'Festkosten-Depotwert'!P74+'Festkosten-Depotwert'!D74</f>
         <v>0</v>
       </c>
       <c r="F69" s="118">

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="172">
   <si>
     <t>Marke</t>
   </si>
@@ -1940,11 +1940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4218,19 +4218,23 @@
       <c r="C25" s="57">
         <v>0.5</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>15</v>
+      </c>
       <c r="F25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G25" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="9"/>
@@ -4242,20 +4246,20 @@
       </c>
       <c r="K25" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="125">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="55">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="17">
         <v>0</v>
@@ -4602,19 +4606,23 @@
       <c r="C29" s="57">
         <v>0.5</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>15</v>
+      </c>
       <c r="F29" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G29" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="9"/>
@@ -4626,20 +4634,20 @@
       </c>
       <c r="K29" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="125">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="55">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="17">
         <v>0</v>
@@ -9053,7 +9061,7 @@
       <c r="F75" s="51"/>
       <c r="G75" s="60">
         <f>SUM(G3:G74)</f>
-        <v>313.74200000000002</v>
+        <v>343.74200000000002</v>
       </c>
       <c r="H75" s="50"/>
       <c r="I75" s="61"/>
@@ -9064,7 +9072,7 @@
       <c r="K75" s="63"/>
       <c r="L75" s="64">
         <f>SUM(L3:L74)</f>
-        <v>313.74200000000002</v>
+        <v>343.74200000000002</v>
       </c>
       <c r="M75" s="65"/>
       <c r="N75" s="66"/>
@@ -9241,7 +9249,7 @@
       </c>
       <c r="L81" s="75">
         <f>L75+U75</f>
-        <v>1803.5568020000003</v>
+        <v>1833.5568020000003</v>
       </c>
       <c r="M81" s="32"/>
       <c r="N81" s="32"/>
@@ -9371,7 +9379,7 @@
       </c>
       <c r="K86" s="81">
         <f>+G75</f>
-        <v>313.74200000000002</v>
+        <v>343.74200000000002</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9395,7 +9403,7 @@
       </c>
       <c r="K87" s="83">
         <f>-L81</f>
-        <v>-1803.5568020000003</v>
+        <v>-1833.5568020000003</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -9882,11 +9890,11 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G75</f>
-        <v>313.74200000000002</v>
+        <v>343.74200000000002</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L81</f>
-        <v>1803.5568020000003</v>
+        <v>1833.5568020000003</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K81</f>
@@ -9955,11 +9963,11 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>313.74200000000002</v>
+        <v>343.74200000000002</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L75</f>
-        <v>313.74200000000002</v>
+        <v>343.74200000000002</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
@@ -10010,13 +10018,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10106,15 +10114,15 @@
         <v>5.5</v>
       </c>
       <c r="F3" s="118">
-        <f t="shared" ref="F3:F69" si="0">IF(E3&lt;D3,D3-E3,0)</f>
+        <f t="shared" ref="F3:F70" si="0">IF(E3&lt;D3,D3-E3,0)</f>
         <v>11.5</v>
       </c>
       <c r="G3" s="120">
-        <f t="shared" ref="G3:G69" si="1">F3*C3</f>
+        <f t="shared" ref="G3:G70" si="1">F3*C3</f>
         <v>11.5</v>
       </c>
       <c r="H3" s="49">
-        <f t="shared" ref="H3:H69" si="2">D3*C3</f>
+        <f t="shared" ref="H3:H70" si="2">D3*C3</f>
         <v>17</v>
       </c>
     </row>
@@ -10661,7 +10669,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="117">
         <f>'Festkosten-Depotwert'!P25+'Festkosten-Depotwert'!D25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="118">
         <f t="shared" si="0"/>
@@ -10777,15 +10785,15 @@
       </c>
       <c r="E26" s="117">
         <f>'Festkosten-Depotwert'!P29+'Festkosten-Depotwert'!D29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="118">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="119">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" si="2"/>
@@ -11260,151 +11268,151 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="117">
+        <f>'Festkosten-Depotwert'!P46+'Festkosten-Depotwert'!D46</f>
+        <v>3</v>
+      </c>
+      <c r="F43" s="118">
+        <f t="shared" ref="F43" si="6">IF(E43&lt;D43,D43-E43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="120">
+        <f t="shared" ref="G43" si="7">F43*C43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="49">
+        <f t="shared" ref="H43" si="8">D43*C43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B44" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C44" s="50">
         <v>1.5</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <v>44</v>
       </c>
-      <c r="E43" s="117">
+      <c r="E44" s="117">
         <f>'Festkosten-Depotwert'!P48+'Festkosten-Depotwert'!D48</f>
         <v>44</v>
       </c>
-      <c r="F43" s="118">
+      <c r="F44" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="119">
+      <c r="G44" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H44" s="49">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J44" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="130" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B45" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C45" s="50">
         <v>0.25</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <v>96</v>
       </c>
-      <c r="E44" s="117">
+      <c r="E45" s="117">
         <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
         <v>0</v>
       </c>
-      <c r="F44" s="118">
+      <c r="F45" s="118">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="G44" s="120">
+      <c r="G45" s="120">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H44" s="49">
+      <c r="H45" s="49">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J45" s="28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+    <row r="46" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B46" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C46" s="50">
         <v>1</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <v>80</v>
       </c>
-      <c r="E45" s="117">
+      <c r="E46" s="117">
         <f>'Festkosten-Depotwert'!P50+'Festkosten-Depotwert'!D50</f>
         <v>0</v>
       </c>
-      <c r="F45" s="118">
+      <c r="F46" s="118">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G45" s="120">
+      <c r="G46" s="120">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H46" s="49">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J45" s="121" t="s">
+      <c r="J46" s="121" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+    <row r="47" spans="1:10" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B47" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C47" s="50">
         <v>2</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="117">
-        <f>'Festkosten-Depotwert'!P51+'Festkosten-Depotwert'!D51</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="50">
-        <v>2.5</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="117">
-        <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
+        <f>'Festkosten-Depotwert'!P51+'Festkosten-Depotwert'!D51</f>
         <v>0</v>
       </c>
       <c r="F47" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="119">
+      <c r="G47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11412,7 +11420,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I47" s="121"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
@@ -11422,18 +11429,18 @@
         <v>35</v>
       </c>
       <c r="C48" s="50">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="117">
-        <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
+        <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
         <v>0</v>
       </c>
       <c r="F48" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="120">
+      <c r="G48" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11441,193 +11448,193 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I48" s="126"/>
+      <c r="I48" s="121"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="D49" s="15">
-        <v>170</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D49" s="15"/>
       <c r="E49" s="117">
-        <f>'Festkosten-Depotwert'!P54+'Festkosten-Depotwert'!D54</f>
+        <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
         <v>0</v>
       </c>
       <c r="F49" s="118">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G49" s="120">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H49" s="49">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="126"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="15">
+        <v>170</v>
+      </c>
+      <c r="E50" s="117">
+        <f>'Festkosten-Depotwert'!P54+'Festkosten-Depotwert'!D54</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="118">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="G50" s="120">
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="I49" s="121"/>
-      <c r="J49" s="28" t="s">
+      <c r="H50" s="49">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="I50" s="121"/>
+      <c r="J50" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B51" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C51" s="50">
         <v>0.33</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="117">
+      <c r="D51" s="15"/>
+      <c r="E51" s="117">
         <f>'Festkosten-Depotwert'!P55+'Festkosten-Depotwert'!D55</f>
         <v>0</v>
       </c>
-      <c r="F50" s="118">
-        <f t="shared" ref="F50" si="6">IF(E50&lt;D50,D50-E50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="120">
-        <f t="shared" ref="G50" si="7">F50*C50</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="49">
-        <f t="shared" ref="H50" si="8">D50*C50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="121"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="130" t="s">
+      <c r="F51" s="118">
+        <f t="shared" ref="F51" si="9">IF(E51&lt;D51,D51-E51,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="120">
+        <f t="shared" ref="G51" si="10">F51*C51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="49">
+        <f t="shared" ref="H51" si="11">D51*C51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="121"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="B52" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C52" s="50">
         <v>1</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="15">
         <v>30</v>
       </c>
-      <c r="E51" s="117">
+      <c r="E52" s="117">
         <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
         <v>0</v>
       </c>
-      <c r="F51" s="118">
+      <c r="F52" s="118">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G51" s="120">
+      <c r="G52" s="120">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H52" s="49">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="I51" s="121"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="I52" s="121"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B53" s="49" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" s="50">
-        <v>2</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="117">
-        <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="121"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="130" t="s">
-        <v>70</v>
       </c>
       <c r="C53" s="50">
         <v>2</v>
       </c>
-      <c r="D53" s="15">
-        <v>50</v>
-      </c>
+      <c r="D53" s="15"/>
       <c r="E53" s="117">
-        <f>'Festkosten-Depotwert'!P58+'Festkosten-Depotwert'!D58</f>
+        <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
         <v>0</v>
       </c>
       <c r="F53" s="118">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="121"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="50">
+        <v>2</v>
+      </c>
+      <c r="D54" s="15">
         <v>50</v>
       </c>
-      <c r="G53" s="120">
+      <c r="E54" s="117">
+        <f>'Festkosten-Depotwert'!P58+'Festkosten-Depotwert'!D58</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="118">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G54" s="120">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H53" s="49">
+      <c r="H54" s="49">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I53" s="121"/>
-      <c r="J53" s="28" t="s">
+      <c r="I54" s="121"/>
+      <c r="J54" s="28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="117">
-        <f>'Festkosten-Depotwert'!P59+'Festkosten-Depotwert'!D59</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="126"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
@@ -11637,40 +11644,40 @@
         <v>70</v>
       </c>
       <c r="C55" s="50">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="117">
-        <f>'Festkosten-Depotwert'!P60+'Festkosten-Depotwert'!D60</f>
+        <f>'Festkosten-Depotwert'!P59+'Festkosten-Depotwert'!D59</f>
         <v>0</v>
       </c>
       <c r="F55" s="118">
-        <f t="shared" ref="F55" si="9">IF(E55&lt;D55,D55-E55,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="120">
-        <f t="shared" ref="G55" si="10">F55*C55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="49">
-        <f t="shared" ref="H55" si="11">D55*C55</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="121"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="126"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="C56" s="50">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="117">
-        <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
+        <f>'Festkosten-Depotwert'!P60+'Festkosten-Depotwert'!D60</f>
         <v>0</v>
       </c>
       <c r="F56" s="118">
@@ -11685,211 +11692,210 @@
         <f t="shared" ref="H56" si="14">D56*C56</f>
         <v>0</v>
       </c>
+      <c r="I56" s="121"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="50">
+        <v>0.33</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="117">
+        <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="118">
+        <f t="shared" ref="F57" si="15">IF(E57&lt;D57,D57-E57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="120">
+        <f t="shared" ref="G57" si="16">F57*C57</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="49">
+        <f t="shared" ref="H57" si="17">D57*C57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="130" t="s">
+      <c r="B58" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C58" s="50">
         <v>1</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <v>3</v>
       </c>
-      <c r="E57" s="117">
+      <c r="E58" s="117">
         <f>'Festkosten-Depotwert'!P62+'Festkosten-Depotwert'!D62</f>
         <v>2</v>
       </c>
-      <c r="F57" s="118">
+      <c r="F58" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G57" s="120">
+      <c r="G58" s="120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H58" s="49">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B59" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C59" s="50">
         <v>1</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="15">
         <v>30</v>
       </c>
-      <c r="E58" s="117">
+      <c r="E59" s="117">
         <f>'Festkosten-Depotwert'!P63+'Festkosten-Depotwert'!D63</f>
         <v>0</v>
       </c>
-      <c r="F58" s="118">
+      <c r="F59" s="118">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G58" s="119">
+      <c r="G59" s="119">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H59" s="49">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="130" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="130" t="s">
+      <c r="B60" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C60" s="57">
         <v>1.25</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <v>6</v>
       </c>
-      <c r="E59" s="117">
+      <c r="E60" s="117">
         <f>'Festkosten-Depotwert'!P64+'Festkosten-Depotwert'!D64</f>
         <v>0</v>
       </c>
-      <c r="F59" s="118">
+      <c r="F60" s="118">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G59" s="120">
+      <c r="G60" s="120">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H60" s="49">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="61" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B61" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="57">
+      <c r="C61" s="57">
         <v>1</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="117">
+      <c r="D61" s="15"/>
+      <c r="E61" s="117">
         <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="D61" s="15">
-        <v>100</v>
-      </c>
-      <c r="E61" s="117">
-        <f>'Festkosten-Depotwert'!P66+'Festkosten-Depotwert'!D66</f>
         <v>0</v>
       </c>
       <c r="F61" s="118">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="120">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H61" s="49">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>122</v>
+      <c r="A62" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="130" t="s">
+        <v>115</v>
       </c>
       <c r="C62" s="57">
-        <v>10</v>
-      </c>
-      <c r="D62" s="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="D62" s="15">
+        <v>100</v>
+      </c>
       <c r="E62" s="117">
-        <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
+        <f>'Festkosten-Depotwert'!P66+'Festkosten-Depotwert'!D66</f>
         <v>0</v>
       </c>
       <c r="F62" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="119">
+        <v>100</v>
+      </c>
+      <c r="G62" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H62" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="130" t="s">
+      <c r="A63" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="130" t="s">
-        <v>108</v>
+      <c r="B63" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C63" s="57">
-        <v>25</v>
-      </c>
-      <c r="D63" s="15">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D63" s="15"/>
       <c r="E63" s="117">
-        <f>'Festkosten-Depotwert'!P68+'Festkosten-Depotwert'!D68</f>
+        <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
         <v>0</v>
       </c>
       <c r="F63" s="118">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G63" s="120">
+        <v>0</v>
+      </c>
+      <c r="G63" s="119">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H63" s="49">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -11900,162 +11906,164 @@
         <v>108</v>
       </c>
       <c r="C64" s="57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D64" s="15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E64" s="117">
-        <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
+        <f>'Festkosten-Depotwert'!P68+'Festkosten-Depotwert'!D68</f>
         <v>0</v>
       </c>
       <c r="F64" s="118">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G64" s="120">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="H64" s="49">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="130" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="57">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D65" s="15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E65" s="117">
-        <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
+        <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
         <v>0</v>
       </c>
       <c r="F65" s="118">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G65" s="120">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>750</v>
       </c>
       <c r="H65" s="49">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>171</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="49" t="s">
-        <v>120</v>
+      <c r="A66" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="130" t="s">
+        <v>109</v>
       </c>
       <c r="C66" s="57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E66" s="117">
-        <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
+        <f>'Festkosten-Depotwert'!P70+'Festkosten-Depotwert'!D70</f>
         <v>0</v>
       </c>
       <c r="F66" s="118">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G66" s="120">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H66" s="49">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="57">
+        <v>1</v>
+      </c>
+      <c r="D67" s="15">
         <v>30</v>
       </c>
-      <c r="G66" s="119">
+      <c r="E67" s="117">
+        <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="118">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G67" s="119">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H67" s="49">
         <f t="shared" si="2"/>
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="57">
-        <v>1</v>
-      </c>
-      <c r="D67" s="15">
-        <v>110</v>
-      </c>
-      <c r="E67" s="117">
-        <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="118">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="G67" s="120">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="H67" s="49">
-        <f t="shared" si="2"/>
-        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="50">
-        <v>2</v>
-      </c>
-      <c r="D68" s="15"/>
+      <c r="C68" s="57">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <v>110</v>
+      </c>
       <c r="E68" s="117">
-        <f>'Festkosten-Depotwert'!P73+'Festkosten-Depotwert'!D73</f>
+        <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
         <v>0</v>
       </c>
       <c r="F68" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G68" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H68" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="49" t="s">
-        <v>102</v>
+      <c r="A69" s="129" t="s">
+        <v>112</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C69" s="50">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="117">
-        <f>'Festkosten-Depotwert'!P74+'Festkosten-Depotwert'!D74</f>
+        <f>'Festkosten-Depotwert'!P73+'Festkosten-Depotwert'!D73</f>
         <v>0</v>
       </c>
       <c r="F69" s="118">
@@ -12071,26 +12079,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="131"/>
-      <c r="B73" s="28" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="117">
+        <f>'Festkosten-Depotwert'!P74+'Festkosten-Depotwert'!D74</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="131"/>
+      <c r="B74" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D74" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="122" t="s">
+      <c r="F74" s="122" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="132"/>
-      <c r="B74" s="28" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="132"/>
+      <c r="B75" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="28" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="28" t="s">
         <v>170</v>
       </c>
     </row>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="Umsatzrechner" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Altbestände" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1120,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,6 +1470,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1941,10 +1943,10 @@
   <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2290,19 +2292,23 @@
       <c r="C5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="15">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6.625</v>
+      </c>
       <c r="F5" s="51">
         <f t="shared" ref="F5:F74" si="6">E5/C5</f>
-        <v>0</v>
+        <v>6.625</v>
       </c>
       <c r="G5" s="52">
         <f t="shared" ref="G5:G74" si="7">E5*D5</f>
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="H5" s="50">
         <f t="shared" ref="H5:H74" si="8">C5*D5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="24">
         <f t="shared" ref="I5:I74" si="9">IF(O5&gt;P5,D5-O5+P5,D5)</f>
@@ -2314,20 +2320,20 @@
       </c>
       <c r="K5" s="54">
         <f t="shared" ref="K5:K63" si="11">D5-I5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L5" s="125">
         <f t="shared" ref="L5:L63" si="12">K5*E5</f>
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="55">
         <f t="shared" ref="N5:N40" si="13">P5+D5</f>
-        <v>5.5</v>
+        <v>17.5</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" ref="O5:O40" si="14">N5-M5</f>
-        <v>5.5</v>
+        <v>17.5</v>
       </c>
       <c r="P5" s="17">
         <v>5.5</v>
@@ -2578,19 +2584,23 @@
       <c r="C8" s="57">
         <v>0.7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="15">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16">
+        <v>12.26</v>
+      </c>
       <c r="F8" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.514285714285716</v>
       </c>
       <c r="G8" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>98.08</v>
       </c>
       <c r="H8" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I8" s="24">
         <f t="shared" si="9"/>
@@ -2602,20 +2612,20 @@
       </c>
       <c r="K8" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8" s="125">
         <f>K8*E8</f>
-        <v>0</v>
+        <v>98.08</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="55">
         <f t="shared" si="13"/>
-        <v>17.5</v>
+        <v>25.5</v>
       </c>
       <c r="O8" s="55">
         <f t="shared" si="14"/>
-        <v>17.5</v>
+        <v>25.5</v>
       </c>
       <c r="P8" s="17">
         <v>17.5</v>
@@ -2866,19 +2876,23 @@
       <c r="C11" s="57">
         <v>0.7</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="15">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16">
+        <v>12.294600000000001</v>
+      </c>
       <c r="F11" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.563714285714287</v>
       </c>
       <c r="G11" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>147.5352</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="9"/>
@@ -2890,20 +2904,20 @@
       </c>
       <c r="K11" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L11" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>147.5352</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="55">
         <f t="shared" si="13"/>
-        <v>3.25</v>
+        <v>15.25</v>
       </c>
       <c r="O11" s="55">
         <f t="shared" si="14"/>
-        <v>3.25</v>
+        <v>15.25</v>
       </c>
       <c r="P11" s="17">
         <v>3.25</v>
@@ -3058,19 +3072,23 @@
       <c r="C13" s="57">
         <v>0.7</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="15">
+        <v>19</v>
+      </c>
+      <c r="E13" s="16">
+        <v>9.7451299999999996</v>
+      </c>
       <c r="F13" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.921614285714286</v>
       </c>
       <c r="G13" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>185.15746999999999</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="I13" s="24">
         <f t="shared" si="9"/>
@@ -3082,20 +3100,20 @@
       </c>
       <c r="K13" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L13" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>185.15746999999999</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="55">
         <f t="shared" si="13"/>
-        <v>6.5</v>
+        <v>25.5</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="14"/>
-        <v>6.5</v>
+        <v>25.5</v>
       </c>
       <c r="P13" s="17">
         <v>6.5</v>
@@ -3346,19 +3364,23 @@
       <c r="C16" s="57">
         <v>0.7</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>9.4934999999999992</v>
+      </c>
       <c r="F16" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.562142857142856</v>
       </c>
       <c r="G16" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.4934999999999992</v>
       </c>
       <c r="H16" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I16" s="24">
         <f t="shared" si="9"/>
@@ -3370,20 +3392,20 @@
       </c>
       <c r="K16" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9.4934999999999992</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="55">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="55">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16" s="17">
         <v>5</v>
@@ -9061,7 +9083,7 @@
       <c r="F75" s="51"/>
       <c r="G75" s="60">
         <f>SUM(G3:G74)</f>
-        <v>343.74200000000002</v>
+        <v>863.50816999999995</v>
       </c>
       <c r="H75" s="50"/>
       <c r="I75" s="61"/>
@@ -9072,7 +9094,7 @@
       <c r="K75" s="63"/>
       <c r="L75" s="64">
         <f>SUM(L3:L74)</f>
-        <v>343.74200000000002</v>
+        <v>863.50816999999995</v>
       </c>
       <c r="M75" s="65"/>
       <c r="N75" s="66"/>
@@ -9168,8 +9190,8 @@
     <row r="78" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C78" s="28"/>
       <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="133"/>
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="29"/>
@@ -9249,7 +9271,7 @@
       </c>
       <c r="L81" s="75">
         <f>L75+U75</f>
-        <v>1833.5568020000003</v>
+        <v>2353.3229720000004</v>
       </c>
       <c r="M81" s="32"/>
       <c r="N81" s="32"/>
@@ -9379,7 +9401,7 @@
       </c>
       <c r="K86" s="81">
         <f>+G75</f>
-        <v>343.74200000000002</v>
+        <v>863.50816999999995</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -9403,7 +9425,7 @@
       </c>
       <c r="K87" s="83">
         <f>-L81</f>
-        <v>-1833.5568020000003</v>
+        <v>-2353.3229720000004</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -9890,11 +9912,11 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G75</f>
-        <v>343.74200000000002</v>
+        <v>863.50816999999995</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L81</f>
-        <v>1833.5568020000003</v>
+        <v>2353.3229720000004</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K81</f>
@@ -9925,12 +9947,12 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="89" t="s">
@@ -9963,11 +9985,11 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>343.74200000000002</v>
+        <v>863.50816999999995</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L75</f>
-        <v>343.74200000000002</v>
+        <v>863.50816999999995</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
@@ -10021,10 +10043,10 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10111,15 +10133,15 @@
       </c>
       <c r="E3" s="117">
         <f>'Festkosten-Depotwert'!P5+'Festkosten-Depotwert'!D5</f>
-        <v>5.5</v>
+        <v>17.5</v>
       </c>
       <c r="F3" s="118">
         <f t="shared" ref="F3:F70" si="0">IF(E3&lt;D3,D3-E3,0)</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="120">
         <f t="shared" ref="G3:G70" si="1">F3*C3</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="49">
         <f t="shared" ref="H3:H70" si="2">D3*C3</f>
@@ -10197,15 +10219,15 @@
       </c>
       <c r="E6" s="117">
         <f>'Festkosten-Depotwert'!P8+'Festkosten-Depotwert'!D8</f>
-        <v>17.5</v>
+        <v>25.5</v>
       </c>
       <c r="F6" s="118">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="119">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="H6" s="49">
         <f t="shared" si="2"/>
@@ -10287,15 +10309,15 @@
       </c>
       <c r="E9" s="117">
         <f>'Festkosten-Depotwert'!P11+'Festkosten-Depotwert'!D11</f>
-        <v>3.25</v>
+        <v>15.25</v>
       </c>
       <c r="F9" s="118">
         <f t="shared" si="0"/>
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="G9" s="120">
         <f t="shared" si="1"/>
-        <v>8.2249999999999996</v>
+        <v>0</v>
       </c>
       <c r="H9" s="49">
         <f t="shared" si="2"/>
@@ -10345,15 +10367,15 @@
       </c>
       <c r="E11" s="117">
         <f>'Festkosten-Depotwert'!P13+'Festkosten-Depotwert'!D13</f>
-        <v>6.5</v>
+        <v>25.5</v>
       </c>
       <c r="F11" s="118">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="120">
         <f t="shared" si="1"/>
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="H11" s="49">
         <f t="shared" si="2"/>
@@ -10403,15 +10425,15 @@
       </c>
       <c r="E13" s="117">
         <f>'Festkosten-Depotwert'!P16+'Festkosten-Depotwert'!D16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="118">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="120">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H13" s="49">
         <f t="shared" si="2"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
@@ -13,7 +13,10 @@
     <sheet name="Umsatzrechner" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Altbestände" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Einkaufsrechner!$A$1:$H$76</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1943,10 +1946,10 @@
   <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10046,19 +10049,19 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="122" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="123" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="28" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -1946,10 +1946,10 @@
   <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10046,10 +10046,10 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11272,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="117">
         <f>'Festkosten-Depotwert'!P45+'Festkosten-Depotwert'!D45</f>
@@ -11280,15 +11280,15 @@
       </c>
       <c r="F42" s="118">
         <f t="shared" ref="F42" si="3">IF(E42&lt;D42,D42-E42,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="120">
         <f t="shared" ref="G42" si="4">F42*C42</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="49">
         <f t="shared" ref="H42" si="5">D42*C42</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -11301,7 +11301,9 @@
       <c r="C43" s="50">
         <v>0.75</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="15">
+        <v>3</v>
+      </c>
       <c r="E43" s="117">
         <f>'Festkosten-Depotwert'!P46+'Festkosten-Depotwert'!D46</f>
         <v>3</v>
@@ -11316,7 +11318,7 @@
       </c>
       <c r="H43" s="49">
         <f t="shared" ref="H43" si="8">D43*C43</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -11396,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="15">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E46" s="117">
         <f>'Festkosten-Depotwert'!P50+'Festkosten-Depotwert'!D50</f>
@@ -11404,15 +11406,15 @@
       </c>
       <c r="F46" s="118">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G46" s="120">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H46" s="49">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J46" s="121" t="s">
         <v>164</v>
@@ -11476,62 +11478,62 @@
       <c r="I48" s="121"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="130" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="50">
         <v>2</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="15">
+        <v>128</v>
+      </c>
       <c r="E49" s="117">
         <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
         <v>0</v>
       </c>
       <c r="F49" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G49" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H49" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="I49" s="126"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="130" t="s">
+      <c r="A50" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="50">
         <v>1.5</v>
       </c>
-      <c r="D50" s="15">
-        <v>170</v>
-      </c>
+      <c r="D50" s="15"/>
       <c r="E50" s="117">
         <f>'Festkosten-Depotwert'!P54+'Festkosten-Depotwert'!D54</f>
         <v>0</v>
       </c>
       <c r="F50" s="118">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G50" s="120">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H50" s="49">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I50" s="121"/>
       <c r="J50" s="28" t="s">
@@ -11578,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="15">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E52" s="117">
         <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
@@ -11586,15 +11588,15 @@
       </c>
       <c r="F52" s="118">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" s="120">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H52" s="49">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I52" s="121"/>
     </row>
@@ -11638,7 +11640,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="15">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E54" s="117">
         <f>'Festkosten-Depotwert'!P58+'Festkosten-Depotwert'!D58</f>
@@ -11646,15 +11648,15 @@
       </c>
       <c r="F54" s="118">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G54" s="120">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H54" s="49">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="28" t="s">
@@ -11748,10 +11750,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="130" t="s">
+      <c r="A58" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="61" t="s">
         <v>77</v>
       </c>
       <c r="C58" s="50">
@@ -11808,10 +11810,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="130" t="s">
+      <c r="A60" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="61" t="s">
         <v>106</v>
       </c>
       <c r="C60" s="57">
@@ -11876,7 +11878,7 @@
         <v>1.5</v>
       </c>
       <c r="D62" s="15">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="117">
         <f>'Festkosten-Depotwert'!P66+'Festkosten-Depotwert'!D66</f>
@@ -11884,15 +11886,15 @@
       </c>
       <c r="F62" s="118">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G62" s="120">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H62" s="49">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -1626,12 +1626,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2100,11 +2100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="N3" s="55">
         <f>P3+D3</f>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="O3" s="55">
         <f>N3-M3</f>
-        <v>8.5</v>
+        <v>7.75</v>
       </c>
       <c r="P3" s="17">
         <v>16</v>
@@ -2315,23 +2315,23 @@
       </c>
       <c r="T3" s="57">
         <f>P3-V3</f>
-        <v>8.5</v>
+        <v>7.75</v>
       </c>
       <c r="U3" s="58">
         <f>T3*Q3</f>
-        <v>63.683886999999999</v>
+        <v>58.0647205</v>
       </c>
       <c r="V3" s="24">
         <f>IF(O3&lt;P3,P3-O3,0)</f>
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="W3" s="50">
         <f>V3*Q3</f>
-        <v>56.191665</v>
+        <v>61.810831499999999</v>
       </c>
       <c r="Y3" s="25">
         <f>V3+I3</f>
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" s="26">
         <f>IF(ISERROR(((V3*Q3)+(I3*E3))/(I3+V3)),0,((V3*Q3)+(I3*E3))/(I3+V3))</f>
@@ -2339,11 +2339,11 @@
       </c>
       <c r="AA3" s="10">
         <f>Y3*C3</f>
-        <v>5.25</v>
+        <v>5.7749999999999995</v>
       </c>
       <c r="AB3" s="19">
         <f>Y3*Z3</f>
-        <v>56.191665</v>
+        <v>61.810831499999999</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -3262,22 +3262,22 @@
       </c>
       <c r="I13" s="24">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="10"/>
-        <v>121.81412499999999</v>
+        <v>131.55925500000001</v>
       </c>
       <c r="K13" s="54">
         <f t="shared" si="11"/>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L13" s="125">
         <f t="shared" si="12"/>
-        <v>63.343344999999999</v>
+        <v>53.598214999999996</v>
       </c>
       <c r="M13" s="20">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="N13" s="55">
         <f t="shared" si="13"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="O13" s="55">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13" s="17">
         <v>6.5</v>
@@ -3319,19 +3319,19 @@
       </c>
       <c r="Y13" s="25">
         <f t="shared" si="21"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="22"/>
-        <v>9.7451299999999996</v>
+        <v>9.7451300000000014</v>
       </c>
       <c r="AA13" s="10">
         <f t="shared" si="23"/>
-        <v>8.75</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="AB13" s="19">
         <f t="shared" si="24"/>
-        <v>121.81412499999999</v>
+        <v>131.55925500000001</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="20">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="N16" s="55">
         <f t="shared" si="13"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="O16" s="55">
         <f t="shared" si="14"/>
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="P16" s="17">
         <v>5</v>
@@ -3597,35 +3597,35 @@
       </c>
       <c r="T16" s="57">
         <f t="shared" si="17"/>
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U16" s="58">
         <f t="shared" si="18"/>
-        <v>25.356999999999999</v>
+        <v>17.7499</v>
       </c>
       <c r="V16" s="24">
         <f t="shared" si="19"/>
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="W16" s="50">
         <f t="shared" si="20"/>
-        <v>25.356999999999999</v>
+        <v>32.964099999999995</v>
       </c>
       <c r="Y16" s="25">
         <f t="shared" si="21"/>
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="22"/>
-        <v>9.9572857142857139</v>
+        <v>9.9900235294117632</v>
       </c>
       <c r="AA16" s="10">
         <f t="shared" si="23"/>
-        <v>2.4499999999999997</v>
+        <v>2.9749999999999996</v>
       </c>
       <c r="AB16" s="19">
         <f t="shared" si="24"/>
-        <v>34.850499999999997</v>
+        <v>42.457599999999992</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -4054,22 +4054,22 @@
       </c>
       <c r="I21" s="24">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J21" s="53">
         <f t="shared" si="117"/>
-        <v>13.26</v>
+        <v>19.89</v>
       </c>
       <c r="K21" s="54">
         <f t="shared" si="118"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L21" s="125">
         <f t="shared" si="119"/>
-        <v>39.78</v>
+        <v>33.15</v>
       </c>
       <c r="M21" s="20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N21" s="55">
         <f t="shared" si="120"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="O21" s="55">
         <f t="shared" si="121"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P21" s="17">
         <v>0</v>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="Y21" s="25">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="22"/>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="AA21" s="10">
         <f t="shared" si="23"/>
-        <v>0.7</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="AB21" s="19">
         <f t="shared" si="24"/>
-        <v>13.26</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -6124,22 +6124,22 @@
       </c>
       <c r="I42" s="24">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="J42" s="53">
         <f t="shared" si="10"/>
-        <v>6.9135</v>
+        <v>12.098625</v>
       </c>
       <c r="K42" s="54">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="L42" s="125">
         <f t="shared" si="12"/>
-        <v>48.394500000000001</v>
+        <v>43.209375000000001</v>
       </c>
       <c r="M42" s="20">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="N42" s="55">
         <f t="shared" si="13"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="O42" s="55">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="P42" s="17">
         <v>0</v>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="Y42" s="25">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="Z42" s="26">
         <f t="shared" si="22"/>
@@ -6189,11 +6189,11 @@
       </c>
       <c r="AA42" s="10">
         <f t="shared" si="23"/>
-        <v>0.7</v>
+        <v>1.2249999999999999</v>
       </c>
       <c r="AB42" s="19">
         <f t="shared" si="24"/>
-        <v>6.9135</v>
+        <v>12.098625</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -6226,28 +6226,30 @@
       </c>
       <c r="I43" s="24">
         <f>IF(O43&gt;P43,D43-O43+P43,D43)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J43" s="53">
         <f>I43*E43</f>
-        <v>0</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="K43" s="54">
         <f>D43-I43</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L43" s="125">
         <f>K43*E43</f>
-        <v>17.256</v>
-      </c>
-      <c r="M43" s="20"/>
+        <v>10.785</v>
+      </c>
+      <c r="M43" s="20">
+        <v>0.75</v>
+      </c>
       <c r="N43" s="55">
         <f>P43+D43</f>
         <v>3.25</v>
       </c>
       <c r="O43" s="55">
         <f t="shared" ref="O43:O51" si="227">N43-M43</f>
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P43" s="17">
         <v>1.25</v>
@@ -6281,19 +6283,19 @@
       </c>
       <c r="Y43" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z43" s="26">
         <f>IF(ISERROR(((V43*Q43)+(I43*E43))/(I43+V43)),0,((V43*Q43)+(I43*E43))/(I43+V43))</f>
-        <v>0</v>
+        <v>8.6280000000000001</v>
       </c>
       <c r="AA43" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.52499999999999991</v>
       </c>
       <c r="AB43" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6.4710000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -6309,16 +6311,16 @@
       <c r="D44" s="15">
         <v>5</v>
       </c>
-      <c r="E44" s="136">
-        <v>10</v>
+      <c r="E44" s="16">
+        <v>9.9</v>
       </c>
       <c r="F44" s="51">
         <f>E44/C44</f>
-        <v>14.285714285714286</v>
+        <v>14.142857142857144</v>
       </c>
       <c r="G44" s="52">
         <f>E44*D44</f>
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="H44" s="50">
         <f>C44*D44</f>
@@ -6330,7 +6332,7 @@
       </c>
       <c r="J44" s="53">
         <f>I44*E44</f>
-        <v>30</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="K44" s="54">
         <f>D44-I44</f>
@@ -6338,7 +6340,7 @@
       </c>
       <c r="L44" s="125">
         <f>K44*E44</f>
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="M44" s="20">
         <v>3</v>
@@ -6387,7 +6389,7 @@
       </c>
       <c r="Z44" s="26">
         <f>IF(ISERROR(((V44*Q44)+(I44*E44))/(I44+V44)),0,((V44*Q44)+(I44*E44))/(I44+V44))</f>
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AA44" s="10">
         <f t="shared" ref="AA44" si="236">Y44*C44</f>
@@ -6395,7 +6397,7 @@
       </c>
       <c r="AB44" s="19">
         <f t="shared" ref="AB44" si="237">Y44*Z44</f>
-        <v>30</v>
+        <v>29.700000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -6524,22 +6526,22 @@
       </c>
       <c r="I46" s="24">
         <f t="shared" ref="I46" si="241">IF(O46&gt;P46,D46-O46+P46,D46)</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J46" s="53">
         <f t="shared" ref="J46" si="242">I46*E46</f>
-        <v>13.962</v>
+        <v>17.452500000000001</v>
       </c>
       <c r="K46" s="54">
         <f t="shared" ref="K46" si="243">D46-I46</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L46" s="125">
         <f t="shared" ref="L46" si="244">K46*E46</f>
-        <v>4.6539999999999999</v>
+        <v>1.1635</v>
       </c>
       <c r="M46" s="20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N46" s="55">
         <f t="shared" ref="N46" si="245">P46+D46</f>
@@ -6547,7 +6549,7 @@
       </c>
       <c r="O46" s="55">
         <f t="shared" ref="O46" si="246">N46-M46</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="P46" s="17">
         <v>1</v>
@@ -6581,7 +6583,7 @@
       </c>
       <c r="Y46" s="25">
         <f t="shared" ref="Y46" si="253">V46+I46</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z46" s="26">
         <f t="shared" ref="Z46" si="254">IF(ISERROR(((V46*Q46)+(I46*E46))/(I46+V46)),0,((V46*Q46)+(I46*E46))/(I46+V46))</f>
@@ -6589,11 +6591,11 @@
       </c>
       <c r="AA46" s="10">
         <f t="shared" ref="AA46" si="255">Y46*C46</f>
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="AB46" s="19">
         <f t="shared" ref="AB46" si="256">Y46*Z46</f>
-        <v>13.962</v>
+        <v>17.452500000000001</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -6626,28 +6628,30 @@
       </c>
       <c r="I47" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J47" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.6244999999999998</v>
       </c>
       <c r="K47" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L47" s="125">
         <f t="shared" si="12"/>
-        <v>7.2489999999999997</v>
-      </c>
-      <c r="M47" s="20"/>
+        <v>3.6244999999999998</v>
+      </c>
+      <c r="M47" s="20">
+        <v>0.5</v>
+      </c>
       <c r="N47" s="55">
         <f t="shared" si="238"/>
         <v>1</v>
       </c>
       <c r="O47" s="55">
         <f t="shared" si="227"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P47" s="17">
         <v>0</v>
@@ -6681,19 +6685,19 @@
       </c>
       <c r="Y47" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z47" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>7.2489999999999997</v>
       </c>
       <c r="AA47" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AB47" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3.6244999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -8557,7 +8561,7 @@
       <c r="D67" s="15">
         <v>6</v>
       </c>
-      <c r="E67" s="136">
+      <c r="E67" s="135">
         <v>1.5</v>
       </c>
       <c r="F67" s="51">
@@ -8574,22 +8578,22 @@
       </c>
       <c r="I67" s="24">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J67" s="53">
         <f t="shared" ref="J67:J76" si="374">I67*E67</f>
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K76" si="375">D67-I67</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L67" s="125">
         <f t="shared" ref="L67:L76" si="376">K67*E67</f>
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="M67" s="20">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N67" s="55">
         <f t="shared" ref="N67:N76" si="377">P67+D67</f>
@@ -8597,7 +8601,7 @@
       </c>
       <c r="O67" s="55">
         <f t="shared" ref="O67:O76" si="378">N67-M67</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P67" s="17">
         <v>0</v>
@@ -8631,7 +8635,7 @@
       </c>
       <c r="Y67" s="25">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Z67" s="26">
         <f t="shared" si="318"/>
@@ -8639,11 +8643,11 @@
       </c>
       <c r="AA67" s="10">
         <f t="shared" si="319"/>
-        <v>5</v>
+        <v>6.875</v>
       </c>
       <c r="AB67" s="19">
         <f t="shared" si="320"/>
-        <v>6</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -9615,18 +9619,18 @@
       <c r="F78" s="51"/>
       <c r="G78" s="60">
         <f>SUM(G3:G77)</f>
-        <v>1152.9381700000004</v>
+        <v>1152.4381700000004</v>
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="61"/>
       <c r="J78" s="62">
         <f>SUM(J3:J77)</f>
-        <v>441.52422499999989</v>
+        <v>478.62047999999993</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="64">
         <f>SUM(L3:L77)</f>
-        <v>711.41394500000013</v>
+        <v>673.81769000000008</v>
       </c>
       <c r="M78" s="65"/>
       <c r="N78" s="66"/>
@@ -9641,19 +9645,19 @@
       <c r="T78" s="57"/>
       <c r="U78" s="69">
         <f>SUM(U3:U77)</f>
-        <v>970.55234731746066</v>
+        <v>957.32608081746059</v>
       </c>
       <c r="V78" s="50"/>
       <c r="W78" s="70">
         <f>SUM(W3:W77)</f>
-        <v>519.26245468253967</v>
+        <v>532.48872118253973</v>
       </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="19"/>
       <c r="AA78" s="19"/>
       <c r="AB78" s="23">
         <f>SUM(AB3:AB77)</f>
-        <v>960.78667968253967</v>
+        <v>1011.1092011825398</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -9799,11 +9803,11 @@
       </c>
       <c r="K84" s="75">
         <f>J78+W78</f>
-        <v>960.78667968253956</v>
+        <v>1011.1092011825397</v>
       </c>
       <c r="L84" s="75">
         <f>L78+U78</f>
-        <v>1681.9662923174608</v>
+        <v>1631.1437708174608</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
@@ -9933,7 +9937,7 @@
       </c>
       <c r="K89" s="81">
         <f>+G78</f>
-        <v>1152.9381700000004</v>
+        <v>1152.4381700000004</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -9957,7 +9961,7 @@
       </c>
       <c r="K90" s="83">
         <f>-L84</f>
-        <v>-1681.9662923174608</v>
+        <v>-1631.1437708174608</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -9981,7 +9985,7 @@
       </c>
       <c r="K91" s="81">
         <f>K88+K89+K90</f>
-        <v>960.78187768253952</v>
+        <v>1011.1043991825395</v>
       </c>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -10387,7 +10391,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10444,15 +10448,15 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G78</f>
-        <v>1152.9381700000004</v>
+        <v>1152.4381700000004</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L84</f>
-        <v>1681.9662923174608</v>
+        <v>1631.1437708174608</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K84</f>
-        <v>960.78667968253956</v>
+        <v>1011.1092011825397</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10475,16 +10479,16 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="104">
         <f>-(D6-C6)</f>
-        <v>-529.02812231746043</v>
+        <v>-478.70560081746044</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="89" t="s">
@@ -10517,19 +10521,19 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>1152.9381700000004</v>
+        <v>1152.4381700000004</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L78</f>
-        <v>711.41394500000013</v>
+        <v>673.81769000000008</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
-        <v>441.52422500000023</v>
+        <v>478.62048000000027</v>
       </c>
       <c r="E20" s="109">
         <f>'Festkosten-Depotwert'!U78</f>
-        <v>970.55234731746066</v>
+        <v>957.32608081746059</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -10574,7 +10578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -2101,10 +2101,10 @@
   <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6312,15 +6312,15 @@
         <v>5</v>
       </c>
       <c r="E44" s="16">
-        <v>9.9</v>
+        <v>9.99</v>
       </c>
       <c r="F44" s="51">
         <f>E44/C44</f>
-        <v>14.142857142857144</v>
+        <v>14.271428571428572</v>
       </c>
       <c r="G44" s="52">
         <f>E44*D44</f>
-        <v>49.5</v>
+        <v>49.95</v>
       </c>
       <c r="H44" s="50">
         <f>C44*D44</f>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="J44" s="53">
         <f>I44*E44</f>
-        <v>29.700000000000003</v>
+        <v>29.97</v>
       </c>
       <c r="K44" s="54">
         <f>D44-I44</f>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="L44" s="125">
         <f>K44*E44</f>
-        <v>19.8</v>
+        <v>19.98</v>
       </c>
       <c r="M44" s="20">
         <v>3</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="Z44" s="26">
         <f>IF(ISERROR(((V44*Q44)+(I44*E44))/(I44+V44)),0,((V44*Q44)+(I44*E44))/(I44+V44))</f>
-        <v>9.9</v>
+        <v>9.99</v>
       </c>
       <c r="AA44" s="10">
         <f t="shared" ref="AA44" si="236">Y44*C44</f>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB44" s="19">
         <f t="shared" ref="AB44" si="237">Y44*Z44</f>
-        <v>29.700000000000003</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -9236,19 +9236,23 @@
       <c r="C74" s="57">
         <v>1</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="15">
+        <v>2</v>
+      </c>
+      <c r="E74" s="16">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F74" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G74" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H74" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" s="24">
         <f t="shared" si="9"/>
@@ -9260,20 +9264,20 @@
       </c>
       <c r="K74" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" s="125">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" s="17">
         <v>0</v>
@@ -9332,19 +9336,23 @@
       <c r="C75" s="57">
         <v>1</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="16"/>
+      <c r="D75" s="15">
+        <v>68</v>
+      </c>
+      <c r="E75" s="16">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F75" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G75" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>156.39999999999998</v>
       </c>
       <c r="H75" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I75" s="24">
         <f t="shared" si="9"/>
@@ -9356,20 +9364,20 @@
       </c>
       <c r="K75" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L75" s="125">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>156.39999999999998</v>
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O75" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="P75" s="17">
         <v>0</v>
@@ -9619,18 +9627,18 @@
       <c r="F78" s="51"/>
       <c r="G78" s="60">
         <f>SUM(G3:G77)</f>
-        <v>1152.4381700000004</v>
+        <v>1313.8881700000002</v>
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="61"/>
       <c r="J78" s="62">
         <f>SUM(J3:J77)</f>
-        <v>478.62047999999993</v>
+        <v>478.89047999999997</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="64">
         <f>SUM(L3:L77)</f>
-        <v>673.81769000000008</v>
+        <v>834.99769000000015</v>
       </c>
       <c r="M78" s="65"/>
       <c r="N78" s="66"/>
@@ -9657,7 +9665,7 @@
       <c r="AA78" s="19"/>
       <c r="AB78" s="23">
         <f>SUM(AB3:AB77)</f>
-        <v>1011.1092011825398</v>
+        <v>1011.3792011825398</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -9803,11 +9811,11 @@
       </c>
       <c r="K84" s="75">
         <f>J78+W78</f>
-        <v>1011.1092011825397</v>
+        <v>1011.3792011825396</v>
       </c>
       <c r="L84" s="75">
         <f>L78+U78</f>
-        <v>1631.1437708174608</v>
+        <v>1792.3237708174606</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
@@ -9937,7 +9945,7 @@
       </c>
       <c r="K89" s="81">
         <f>+G78</f>
-        <v>1152.4381700000004</v>
+        <v>1313.8881700000002</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -9961,7 +9969,7 @@
       </c>
       <c r="K90" s="83">
         <f>-L84</f>
-        <v>-1631.1437708174608</v>
+        <v>-1792.3237708174606</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -9985,7 +9993,7 @@
       </c>
       <c r="K91" s="81">
         <f>K88+K89+K90</f>
-        <v>1011.1043991825395</v>
+        <v>1011.3743991825395</v>
       </c>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -10448,15 +10456,15 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G78</f>
-        <v>1152.4381700000004</v>
+        <v>1313.8881700000002</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L84</f>
-        <v>1631.1437708174608</v>
+        <v>1792.3237708174606</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K84</f>
-        <v>1011.1092011825397</v>
+        <v>1011.3792011825396</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10479,7 +10487,7 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="104">
         <f>-(D6-C6)</f>
-        <v>-478.70560081746044</v>
+        <v>-478.43560081746045</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10521,15 +10529,15 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>1152.4381700000004</v>
+        <v>1313.8881700000002</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L78</f>
-        <v>673.81769000000008</v>
+        <v>834.99769000000015</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
-        <v>478.62048000000027</v>
+        <v>478.89048000000003</v>
       </c>
       <c r="E20" s="109">
         <f>'Festkosten-Depotwert'!U78</f>
@@ -12807,15 +12815,15 @@
       </c>
       <c r="E73" s="117">
         <f>'Festkosten-Depotwert'!P74+'Festkosten-Depotwert'!D74</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="118">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G73" s="119">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H73" s="49">
         <f t="shared" si="2"/>
@@ -12838,15 +12846,15 @@
       </c>
       <c r="E74" s="117">
         <f>'Festkosten-Depotwert'!P75+'Festkosten-Depotwert'!D75</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F74" s="118">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G74" s="120">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="H74" s="49">
         <f t="shared" si="2"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -167,6 +167,30 @@
           </rPr>
           <t xml:space="preserve">
 Verbrauch 3 Fl., da 1 Fl nicht verzeichneter Altbestand verbraucht wurde</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12 Fässer bezahlt, aber 13 verbraucht, da 2x25l Sponsoring (Lagerhaus und Brau Union)</t>
         </r>
       </text>
     </comment>
@@ -2101,10 +2125,10 @@
   <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7106,46 +7130,50 @@
       <c r="C52" s="57">
         <v>0.25</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="15">
+        <v>72</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="F52" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G52" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>78.48</v>
       </c>
       <c r="H52" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I52" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J52" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>18.53</v>
       </c>
       <c r="K52" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L52" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>59.95</v>
       </c>
       <c r="M52" s="20">
         <v>17</v>
       </c>
       <c r="N52" s="55">
         <f t="shared" ref="N52:N77" si="303">P52+D52</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O52" s="55">
         <f t="shared" ref="O52:O77" si="304">N52-M52</f>
-        <v>-17</v>
+        <v>55</v>
       </c>
       <c r="P52" s="17">
         <v>0</v>
@@ -7163,7 +7191,7 @@
       </c>
       <c r="T52" s="57">
         <f t="shared" si="17"/>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="U52" s="58">
         <f t="shared" si="18"/>
@@ -7171,7 +7199,7 @@
       </c>
       <c r="V52" s="24">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W52" s="50">
         <f t="shared" si="20"/>
@@ -7183,7 +7211,7 @@
       </c>
       <c r="Z52" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AA52" s="10">
         <f t="shared" si="23"/>
@@ -7191,7 +7219,7 @@
       </c>
       <c r="AB52" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -7204,19 +7232,23 @@
       <c r="C53" s="57">
         <v>1</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="15">
+        <v>44</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.89</v>
+      </c>
       <c r="F53" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G53" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="H53" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I53" s="24">
         <f t="shared" si="9"/>
@@ -7228,20 +7260,20 @@
       </c>
       <c r="K53" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L53" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="55">
         <f t="shared" si="303"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O53" s="55">
         <f t="shared" si="304"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P53" s="17">
         <v>0</v>
@@ -7492,19 +7524,23 @@
       <c r="C56" s="57">
         <v>2</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
+      <c r="D56" s="15">
+        <v>113</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.49</v>
+      </c>
       <c r="F56" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="G56" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>168.37</v>
       </c>
       <c r="H56" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="9"/>
@@ -7516,20 +7552,20 @@
       </c>
       <c r="K56" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L56" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>168.37</v>
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="55">
         <f t="shared" si="303"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="O56" s="55">
         <f t="shared" si="304"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="P56" s="17">
         <v>0</v>
@@ -7780,19 +7816,23 @@
       <c r="C59" s="57">
         <v>1</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16"/>
+      <c r="D59" s="15">
+        <v>8</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0.79</v>
+      </c>
       <c r="F59" s="51">
         <f t="shared" ref="F59:F60" si="330">E59/C59</f>
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G59" s="52">
         <f t="shared" ref="G59" si="331">E59*D59</f>
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="H59" s="50">
         <f t="shared" ref="H59" si="332">C59*D59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="9"/>
@@ -7804,20 +7844,20 @@
       </c>
       <c r="K59" s="54">
         <f t="shared" ref="K59" si="334">D59-I59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L59" s="125">
         <f t="shared" ref="L59" si="335">K59*E59</f>
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="55">
         <f>P59+D59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O59" s="55">
         <f>N59-M59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P59" s="17">
         <v>0</v>
@@ -7972,19 +8012,23 @@
       <c r="C61" s="57">
         <v>2</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="15">
+        <v>27</v>
+      </c>
+      <c r="E61" s="16">
+        <v>1.39</v>
+      </c>
       <c r="F61" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="G61" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>37.529999999999994</v>
       </c>
       <c r="H61" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="9"/>
@@ -7996,20 +8040,20 @@
       </c>
       <c r="K61" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L61" s="125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>37.529999999999994</v>
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="55">
         <f t="shared" si="316"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O61" s="55">
         <f t="shared" si="317"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P61" s="17">
         <v>0</v>
@@ -8756,19 +8800,23 @@
       <c r="C69" s="57">
         <v>1.5</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
+      <c r="D69" s="15">
+        <v>63</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="F69" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>0.19333333333333333</v>
       </c>
       <c r="G69" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>18.27</v>
       </c>
       <c r="H69" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="I69" s="24">
         <f t="shared" si="9"/>
@@ -8780,20 +8828,20 @@
       </c>
       <c r="K69" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L69" s="125">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>18.27</v>
       </c>
       <c r="M69" s="20"/>
       <c r="N69" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="O69" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="P69" s="17">
         <v>0</v>
@@ -9044,19 +9092,23 @@
       <c r="C72" s="57">
         <v>50</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
+      <c r="D72" s="15">
+        <v>12</v>
+      </c>
+      <c r="E72" s="16">
+        <v>108</v>
+      </c>
       <c r="F72" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G72" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="H72" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I72" s="24">
         <f>IF(O72&gt;P72,D72-O72+P72,D72)</f>
@@ -9068,20 +9120,20 @@
       </c>
       <c r="K72" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L72" s="125">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="M72" s="20"/>
       <c r="N72" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O72" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P72" s="17">
         <v>0</v>
@@ -9140,19 +9192,23 @@
       <c r="C73" s="57">
         <v>0.5</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16"/>
+      <c r="D73" s="15">
+        <v>20</v>
+      </c>
+      <c r="E73" s="16">
+        <v>0.79</v>
+      </c>
       <c r="F73" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G73" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H73" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I73" s="24">
         <f t="shared" si="9"/>
@@ -9164,20 +9220,20 @@
       </c>
       <c r="K73" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L73" s="125">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="M73" s="20"/>
       <c r="N73" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O73" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P73" s="17">
         <v>0</v>
@@ -9627,18 +9683,18 @@
       <c r="F78" s="51"/>
       <c r="G78" s="60">
         <f>SUM(G3:G77)</f>
-        <v>1313.8881700000002</v>
+        <v>2973.8181700000005</v>
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="61"/>
       <c r="J78" s="62">
         <f>SUM(J3:J77)</f>
-        <v>478.89047999999997</v>
+        <v>497.42047999999994</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="64">
         <f>SUM(L3:L77)</f>
-        <v>834.99769000000015</v>
+        <v>2476.3976900000002</v>
       </c>
       <c r="M78" s="65"/>
       <c r="N78" s="66"/>
@@ -9665,7 +9721,7 @@
       <c r="AA78" s="19"/>
       <c r="AB78" s="23">
         <f>SUM(AB3:AB77)</f>
-        <v>1011.3792011825398</v>
+        <v>1029.9092011825396</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -9811,11 +9867,11 @@
       </c>
       <c r="K84" s="75">
         <f>J78+W78</f>
-        <v>1011.3792011825396</v>
+        <v>1029.9092011825396</v>
       </c>
       <c r="L84" s="75">
         <f>L78+U78</f>
-        <v>1792.3237708174606</v>
+        <v>3433.7237708174607</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
@@ -9945,7 +10001,7 @@
       </c>
       <c r="K89" s="81">
         <f>+G78</f>
-        <v>1313.8881700000002</v>
+        <v>2973.8181700000005</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -9969,7 +10025,7 @@
       </c>
       <c r="K90" s="83">
         <f>-L84</f>
-        <v>-1792.3237708174606</v>
+        <v>-3433.7237708174607</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -9993,7 +10049,7 @@
       </c>
       <c r="K91" s="81">
         <f>K88+K89+K90</f>
-        <v>1011.3743991825395</v>
+        <v>1029.9043991825392</v>
       </c>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -10456,15 +10512,15 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G78</f>
-        <v>1313.8881700000002</v>
+        <v>2973.8181700000005</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L84</f>
-        <v>1792.3237708174606</v>
+        <v>3433.7237708174607</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K84</f>
-        <v>1011.3792011825396</v>
+        <v>1029.9092011825396</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10487,7 +10543,7 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="104">
         <f>-(D6-C6)</f>
-        <v>-478.43560081746045</v>
+        <v>-459.90560081746025</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10529,15 +10585,15 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>1313.8881700000002</v>
+        <v>2973.8181700000005</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L78</f>
-        <v>834.99769000000015</v>
+        <v>2476.3976900000002</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
-        <v>478.89048000000003</v>
+        <v>497.42048000000023</v>
       </c>
       <c r="E20" s="109">
         <f>'Festkosten-Depotwert'!U78</f>
@@ -12131,15 +12187,15 @@
       </c>
       <c r="E51" s="117">
         <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F51" s="118">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G51" s="120">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H51" s="49">
         <f t="shared" si="2"/>
@@ -12165,15 +12221,15 @@
       </c>
       <c r="E52" s="117">
         <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F52" s="118">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="G52" s="120">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H52" s="49">
         <f t="shared" si="2"/>
@@ -12256,15 +12312,15 @@
       </c>
       <c r="E55" s="117">
         <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F55" s="118">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="G55" s="120">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="H55" s="49">
         <f t="shared" si="2"/>
@@ -12351,15 +12407,15 @@
       </c>
       <c r="E58" s="117">
         <f>'Festkosten-Depotwert'!P59+'Festkosten-Depotwert'!D59</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F58" s="118">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G58" s="120">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H58" s="49">
         <f t="shared" si="2"/>
@@ -12413,15 +12469,15 @@
       </c>
       <c r="E60" s="117">
         <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F60" s="118">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G60" s="120">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H60" s="49">
         <f t="shared" si="2"/>
@@ -12659,15 +12715,15 @@
       </c>
       <c r="E68" s="117">
         <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F68" s="118">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="G68" s="120">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>58.5</v>
       </c>
       <c r="H68" s="49">
         <f t="shared" si="2"/>
@@ -12750,15 +12806,15 @@
       </c>
       <c r="E71" s="117">
         <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F71" s="118">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G71" s="120">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="H71" s="49">
         <f t="shared" si="2"/>
@@ -12781,15 +12837,15 @@
       </c>
       <c r="E72" s="117">
         <f>'Festkosten-Depotwert'!P73+'Festkosten-Depotwert'!D73</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F72" s="118">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G72" s="120">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H72" s="49">
         <f t="shared" si="2"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -989,7 +989,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,12 +1053,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1650,10 +1644,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2125,10 +2115,10 @@
   <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8605,16 +8595,16 @@
       <c r="D67" s="15">
         <v>6</v>
       </c>
-      <c r="E67" s="135">
-        <v>1.5</v>
+      <c r="E67" s="16">
+        <v>1.89</v>
       </c>
       <c r="F67" s="51">
         <f t="shared" ref="F67:F76" si="371">E67/C67</f>
-        <v>1.2</v>
+        <v>1.512</v>
       </c>
       <c r="G67" s="52">
         <f t="shared" ref="G67:G76" si="372">E67*D67</f>
-        <v>9</v>
+        <v>11.34</v>
       </c>
       <c r="H67" s="50">
         <f t="shared" ref="H67:H76" si="373">C67*D67</f>
@@ -8626,7 +8616,7 @@
       </c>
       <c r="J67" s="53">
         <f t="shared" ref="J67:J76" si="374">I67*E67</f>
-        <v>8.25</v>
+        <v>10.395</v>
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K76" si="375">D67-I67</f>
@@ -8634,7 +8624,7 @@
       </c>
       <c r="L67" s="125">
         <f t="shared" ref="L67:L76" si="376">K67*E67</f>
-        <v>0.75</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M67" s="20">
         <v>5.5</v>
@@ -8683,7 +8673,7 @@
       </c>
       <c r="Z67" s="26">
         <f t="shared" si="318"/>
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AA67" s="10">
         <f t="shared" si="319"/>
@@ -8691,7 +8681,7 @@
       </c>
       <c r="AB67" s="19">
         <f t="shared" si="320"/>
-        <v>8.25</v>
+        <v>10.395</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -9683,18 +9673,18 @@
       <c r="F78" s="51"/>
       <c r="G78" s="60">
         <f>SUM(G3:G77)</f>
-        <v>2973.8181700000005</v>
+        <v>2976.1581700000006</v>
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="61"/>
       <c r="J78" s="62">
         <f>SUM(J3:J77)</f>
-        <v>497.42047999999994</v>
+        <v>499.56547999999992</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="64">
         <f>SUM(L3:L77)</f>
-        <v>2476.3976900000002</v>
+        <v>2476.5926900000004</v>
       </c>
       <c r="M78" s="65"/>
       <c r="N78" s="66"/>
@@ -9721,7 +9711,7 @@
       <c r="AA78" s="19"/>
       <c r="AB78" s="23">
         <f>SUM(AB3:AB77)</f>
-        <v>1029.9092011825396</v>
+        <v>1032.0542011825398</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -9867,11 +9857,11 @@
       </c>
       <c r="K84" s="75">
         <f>J78+W78</f>
-        <v>1029.9092011825396</v>
+        <v>1032.0542011825396</v>
       </c>
       <c r="L84" s="75">
         <f>L78+U78</f>
-        <v>3433.7237708174607</v>
+        <v>3433.9187708174609</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
@@ -10001,7 +9991,7 @@
       </c>
       <c r="K89" s="81">
         <f>+G78</f>
-        <v>2973.8181700000005</v>
+        <v>2976.1581700000006</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -10025,7 +10015,7 @@
       </c>
       <c r="K90" s="83">
         <f>-L84</f>
-        <v>-3433.7237708174607</v>
+        <v>-3433.9187708174609</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -10049,7 +10039,7 @@
       </c>
       <c r="K91" s="81">
         <f>K88+K89+K90</f>
-        <v>1029.9043991825392</v>
+        <v>1032.0493991825392</v>
       </c>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -10455,7 +10445,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10512,15 +10502,15 @@
       </c>
       <c r="C6" s="98">
         <f>'Festkosten-Depotwert'!G78</f>
-        <v>2973.8181700000005</v>
+        <v>2976.1581700000006</v>
       </c>
       <c r="D6" s="99">
         <f>'Festkosten-Depotwert'!L84</f>
-        <v>3433.7237708174607</v>
+        <v>3433.9187708174609</v>
       </c>
       <c r="E6" s="100">
         <f>'Festkosten-Depotwert'!K84</f>
-        <v>1029.9092011825396</v>
+        <v>1032.0542011825396</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10543,16 +10533,16 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="104">
         <f>-(D6-C6)</f>
-        <v>-459.90560081746025</v>
+        <v>-457.76060081746027</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="89" t="s">
@@ -10585,15 +10575,15 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="107">
         <f>C6</f>
-        <v>2973.8181700000005</v>
+        <v>2976.1581700000006</v>
       </c>
       <c r="C20" s="99">
         <f>'Festkosten-Depotwert'!L78</f>
-        <v>2476.3976900000002</v>
+        <v>2476.5926900000004</v>
       </c>
       <c r="D20" s="108">
         <f>B20-C20</f>
-        <v>497.42048000000023</v>
+        <v>499.56548000000021</v>
       </c>
       <c r="E20" s="109">
         <f>'Festkosten-Depotwert'!U78</f>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -2114,11 +2114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10444,8 +10444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
+++ b/2014/Getränke/Getränkebestand Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Einkaufsrechner!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -26,7 +26,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="O5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="M10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0">
+    <comment ref="O10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M35" authorId="0">
+    <comment ref="M35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0">
+    <comment ref="D40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0">
+    <comment ref="O44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1672,6 +1672,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1826,9 +1829,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1866,9 +1869,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1903,7 +1906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1938,7 +1941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2114,11 +2117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10444,7 +10447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
